--- a/new_data/double_hit/20260127_212746_phrase41/20260127_212746_phrase41_keypoints.xlsx
+++ b/new_data/double_hit/20260127_212746_phrase41/20260127_212746_phrase41_keypoints.xlsx
@@ -491,1698 +491,1698 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.00538978842533</v>
+        <v>3.809971578931719</v>
       </c>
       <c r="B2" t="n">
-        <v>7.946285293341176</v>
+        <v>3.781842645343144</v>
       </c>
       <c r="C2" t="n">
-        <v>7.984957601513823</v>
+        <v>3.80024713093855</v>
       </c>
       <c r="D2" t="n">
-        <v>7.654733889811095</v>
+        <v>3.643085017401788</v>
       </c>
       <c r="E2" t="n">
-        <v>7.757774319441405</v>
+        <v>3.692150078135926</v>
       </c>
       <c r="F2" t="n">
-        <v>7.416737670730085</v>
+        <v>3.529849627131346</v>
       </c>
       <c r="G2" t="n">
-        <v>7.603649176694048</v>
+        <v>3.618808393560855</v>
       </c>
       <c r="H2" t="n">
-        <v>7.195660510656069</v>
+        <v>3.424569999816694</v>
       </c>
       <c r="I2" t="n">
-        <v>7.559118824788357</v>
+        <v>3.597563966167223</v>
       </c>
       <c r="J2" t="n">
-        <v>7.092632211992279</v>
+        <v>3.375629644800876</v>
       </c>
       <c r="K2" t="n">
-        <v>7.705068302648812</v>
+        <v>3.666971069861038</v>
       </c>
       <c r="L2" t="n">
-        <v>7.345392423877806</v>
+        <v>3.495900804683854</v>
       </c>
       <c r="M2" t="n">
-        <v>7.58369858915343</v>
+        <v>3.609303046586679</v>
       </c>
       <c r="N2" t="n">
-        <v>7.307071307185945</v>
+        <v>3.477704161952314</v>
       </c>
       <c r="O2" t="n">
-        <v>8.246640139275627</v>
+        <v>3.924773584788558</v>
       </c>
       <c r="P2" t="n">
-        <v>6.774705661052001</v>
+        <v>3.224291172841404</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.708222202307219</v>
+        <v>4.144351487685816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.256932657820462</v>
+        <v>3.929722842984387</v>
       </c>
       <c r="B3" t="n">
-        <v>8.203373834081434</v>
+        <v>3.904236977814651</v>
       </c>
       <c r="C3" t="n">
-        <v>8.230129287292069</v>
+        <v>3.916968796579715</v>
       </c>
       <c r="D3" t="n">
-        <v>7.812552305315805</v>
+        <v>3.718252255131157</v>
       </c>
       <c r="E3" t="n">
-        <v>8.009113388598983</v>
+        <v>3.811799730121815</v>
       </c>
       <c r="F3" t="n">
-        <v>7.521162243640455</v>
+        <v>3.579649931996413</v>
       </c>
       <c r="G3" t="n">
-        <v>7.780827401669797</v>
+        <v>3.703153337083165</v>
       </c>
       <c r="H3" t="n">
-        <v>7.406429381928772</v>
+        <v>3.525087716183641</v>
       </c>
       <c r="I3" t="n">
-        <v>7.673586018333227</v>
+        <v>3.6520479522354</v>
       </c>
       <c r="J3" t="n">
-        <v>7.535254787448029</v>
+        <v>3.586364988523177</v>
       </c>
       <c r="K3" t="n">
-        <v>7.868685320150612</v>
+        <v>3.744966413892217</v>
       </c>
       <c r="L3" t="n">
-        <v>7.406644100036195</v>
+        <v>3.525111964517759</v>
       </c>
       <c r="M3" t="n">
-        <v>7.714930778430475</v>
+        <v>3.671783498171488</v>
       </c>
       <c r="N3" t="n">
-        <v>7.388914085917267</v>
+        <v>3.516653914640957</v>
       </c>
       <c r="O3" t="n">
-        <v>8.467350944160707</v>
+        <v>4.029896752614021</v>
       </c>
       <c r="P3" t="n">
-        <v>6.776947463665102</v>
+        <v>3.225434597263316</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.801550580140729</v>
+        <v>4.188800704818245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.360017972026901</v>
+        <v>3.97873940705029</v>
       </c>
       <c r="B4" t="n">
-        <v>8.298069978390199</v>
+        <v>3.949267288953974</v>
       </c>
       <c r="C4" t="n">
-        <v>8.339565769020636</v>
+        <v>3.968991288064291</v>
       </c>
       <c r="D4" t="n">
-        <v>7.990465060314407</v>
+        <v>3.802780215841927</v>
       </c>
       <c r="E4" t="n">
-        <v>8.105782634612407</v>
+        <v>3.857771107561424</v>
       </c>
       <c r="F4" t="n">
-        <v>7.727697407597291</v>
+        <v>3.677761289872813</v>
       </c>
       <c r="G4" t="n">
-        <v>7.884186875719613</v>
+        <v>3.752288256113214</v>
       </c>
       <c r="H4" t="n">
-        <v>7.616263562231024</v>
+        <v>3.624780123178651</v>
       </c>
       <c r="I4" t="n">
-        <v>7.729149484289867</v>
+        <v>3.678495956662454</v>
       </c>
       <c r="J4" t="n">
-        <v>7.828778079586115</v>
+        <v>3.725994113139552</v>
       </c>
       <c r="K4" t="n">
-        <v>7.919599593188038</v>
+        <v>3.769215325351301</v>
       </c>
       <c r="L4" t="n">
-        <v>7.532728513670008</v>
+        <v>3.584989761573925</v>
       </c>
       <c r="M4" t="n">
-        <v>7.777031622245342</v>
+        <v>3.701318835138896</v>
       </c>
       <c r="N4" t="n">
-        <v>7.499954281419924</v>
+        <v>3.569334286523801</v>
       </c>
       <c r="O4" t="n">
-        <v>8.586264136935563</v>
+        <v>4.086441269740923</v>
       </c>
       <c r="P4" t="n">
-        <v>6.80033475402115</v>
+        <v>3.236280530709433</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.826227392237971</v>
+        <v>4.200567786290194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.501631842452712</v>
+        <v>4.046145734508743</v>
       </c>
       <c r="B5" t="n">
-        <v>8.438250575121542</v>
+        <v>4.015997261092927</v>
       </c>
       <c r="C5" t="n">
-        <v>8.478888706418934</v>
+        <v>4.035315389277415</v>
       </c>
       <c r="D5" t="n">
-        <v>8.100594826779654</v>
+        <v>3.855210021605554</v>
       </c>
       <c r="E5" t="n">
-        <v>8.241531789273587</v>
+        <v>3.922398402727591</v>
       </c>
       <c r="F5" t="n">
-        <v>7.856250472918148</v>
+        <v>3.738958311773245</v>
       </c>
       <c r="G5" t="n">
-        <v>8.035501880072355</v>
+        <v>3.82425990981063</v>
       </c>
       <c r="H5" t="n">
-        <v>7.754054965106033</v>
+        <v>3.690259285416027</v>
       </c>
       <c r="I5" t="n">
-        <v>7.829502904835752</v>
+        <v>3.726199935308909</v>
       </c>
       <c r="J5" t="n">
-        <v>7.936619339217155</v>
+        <v>3.777279628469334</v>
       </c>
       <c r="K5" t="n">
-        <v>7.960193446457628</v>
+        <v>3.78835390039506</v>
       </c>
       <c r="L5" t="n">
-        <v>7.627563557545439</v>
+        <v>3.630107828589103</v>
       </c>
       <c r="M5" t="n">
-        <v>7.908126125052371</v>
+        <v>3.763615403523312</v>
       </c>
       <c r="N5" t="n">
-        <v>7.521394551649334</v>
+        <v>3.579704202077534</v>
       </c>
       <c r="O5" t="n">
-        <v>8.763697718756582</v>
+        <v>4.17092564118441</v>
       </c>
       <c r="P5" t="n">
-        <v>6.839860475688558</v>
+        <v>3.25526582164109</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.879427745916299</v>
+        <v>4.225905274748781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.610558823587391</v>
+        <v>4.097948258962393</v>
       </c>
       <c r="B6" t="n">
-        <v>8.570128738365835</v>
+        <v>4.07870633982799</v>
       </c>
       <c r="C6" t="n">
-        <v>8.590870264923629</v>
+        <v>4.088595041417743</v>
       </c>
       <c r="D6" t="n">
-        <v>8.206914256660621</v>
+        <v>3.905833903818694</v>
       </c>
       <c r="E6" t="n">
-        <v>8.414684959557633</v>
+        <v>4.004735353248432</v>
       </c>
       <c r="F6" t="n">
-        <v>7.9892683404671</v>
+        <v>3.802266382095146</v>
       </c>
       <c r="G6" t="n">
-        <v>8.101197129267428</v>
+        <v>3.855512548440738</v>
       </c>
       <c r="H6" t="n">
-        <v>7.797961178784213</v>
+        <v>3.711328489728593</v>
       </c>
       <c r="I6" t="n">
-        <v>7.890313013812773</v>
+        <v>3.755249439582028</v>
       </c>
       <c r="J6" t="n">
-        <v>7.946317440402457</v>
+        <v>3.781915101674853</v>
       </c>
       <c r="K6" t="n">
-        <v>7.988127423065789</v>
+        <v>3.801787188825675</v>
       </c>
       <c r="L6" t="n">
-        <v>7.738841519991909</v>
+        <v>3.683138357963434</v>
       </c>
       <c r="M6" t="n">
-        <v>7.973966945845698</v>
+        <v>3.795021037594877</v>
       </c>
       <c r="N6" t="n">
-        <v>7.55345487651965</v>
+        <v>3.594929269197067</v>
       </c>
       <c r="O6" t="n">
-        <v>8.869702956604652</v>
+        <v>4.221281637039676</v>
       </c>
       <c r="P6" t="n">
-        <v>6.800171592521441</v>
+        <v>3.236348656981478</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.872135821940461</v>
+        <v>4.222393596361364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.780379010819761</v>
+        <v>4.178822515328772</v>
       </c>
       <c r="B7" t="n">
-        <v>8.735041949640415</v>
+        <v>4.157250158083261</v>
       </c>
       <c r="C7" t="n">
-        <v>8.757356862555998</v>
+        <v>4.167894310749041</v>
       </c>
       <c r="D7" t="n">
-        <v>8.371849910223267</v>
+        <v>3.984424198047692</v>
       </c>
       <c r="E7" t="n">
-        <v>8.576128714407176</v>
+        <v>4.081612098533106</v>
       </c>
       <c r="F7" t="n">
-        <v>8.1441650126852</v>
+        <v>3.876030969164058</v>
       </c>
       <c r="G7" t="n">
-        <v>8.248186230958742</v>
+        <v>3.925526726499431</v>
       </c>
       <c r="H7" t="n">
-        <v>7.949287101006825</v>
+        <v>3.783171684989314</v>
       </c>
       <c r="I7" t="n">
-        <v>8.046793383710204</v>
+        <v>3.829712609610048</v>
       </c>
       <c r="J7" t="n">
-        <v>8.025484734467549</v>
+        <v>3.819407067609985</v>
       </c>
       <c r="K7" t="n">
-        <v>8.103044068920267</v>
+        <v>3.856443222597831</v>
       </c>
       <c r="L7" t="n">
-        <v>7.888049375459934</v>
+        <v>3.754172986749584</v>
       </c>
       <c r="M7" t="n">
-        <v>8.114582437726821</v>
+        <v>3.861936336287445</v>
       </c>
       <c r="N7" t="n">
-        <v>7.66083940526117</v>
+        <v>3.646159071092507</v>
       </c>
       <c r="O7" t="n">
-        <v>8.95047457099216</v>
+        <v>4.259673100702321</v>
       </c>
       <c r="P7" t="n">
-        <v>6.876015001759749</v>
+        <v>3.272660248652233</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.889031225562736</v>
+        <v>4.23030086264892</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.887948536800728</v>
+        <v>4.229849670431943</v>
       </c>
       <c r="B8" t="n">
-        <v>8.838099362623856</v>
+        <v>4.206125273533478</v>
       </c>
       <c r="C8" t="n">
-        <v>8.854923193543657</v>
+        <v>4.214154358832911</v>
       </c>
       <c r="D8" t="n">
-        <v>8.427776092078888</v>
+        <v>4.010894718784996</v>
       </c>
       <c r="E8" t="n">
-        <v>8.686265759452336</v>
+        <v>4.133915177883903</v>
       </c>
       <c r="F8" t="n">
-        <v>8.295168857746676</v>
+        <v>3.947841833312621</v>
       </c>
       <c r="G8" t="n">
-        <v>8.382645863878729</v>
+        <v>3.989450819976182</v>
       </c>
       <c r="H8" t="n">
-        <v>8.156596827176033</v>
+        <v>3.88191638625922</v>
       </c>
       <c r="I8" t="n">
-        <v>8.163171204482149</v>
+        <v>3.884989573938006</v>
       </c>
       <c r="J8" t="n">
-        <v>8.148198559053469</v>
+        <v>3.877963907798019</v>
       </c>
       <c r="K8" t="n">
-        <v>8.272479704513918</v>
+        <v>3.937031117685104</v>
       </c>
       <c r="L8" t="n">
-        <v>8.055602285049508</v>
+        <v>3.833814042123687</v>
       </c>
       <c r="M8" t="n">
-        <v>8.253475332361946</v>
+        <v>3.927969457491155</v>
       </c>
       <c r="N8" t="n">
-        <v>7.854348337367638</v>
+        <v>3.738107022043323</v>
       </c>
       <c r="O8" t="n">
-        <v>9.028720518149973</v>
+        <v>4.297013803219861</v>
       </c>
       <c r="P8" t="n">
-        <v>6.993738146718885</v>
+        <v>3.328482223156553</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.851161987373787</v>
+        <v>4.212558876182088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.973134003356941</v>
+        <v>4.270499693215273</v>
       </c>
       <c r="B9" t="n">
-        <v>8.931955437501033</v>
+        <v>4.250893760398458</v>
       </c>
       <c r="C9" t="n">
-        <v>8.960378292059994</v>
+        <v>4.264460992008009</v>
       </c>
       <c r="D9" t="n">
-        <v>8.540107022419392</v>
+        <v>4.06440992617104</v>
       </c>
       <c r="E9" t="n">
-        <v>8.799291187626171</v>
+        <v>4.187767841253085</v>
       </c>
       <c r="F9" t="n">
-        <v>8.408432659412652</v>
+        <v>4.001816604364325</v>
       </c>
       <c r="G9" t="n">
-        <v>8.510336417479934</v>
+        <v>4.050253517776555</v>
       </c>
       <c r="H9" t="n">
-        <v>8.221737084652766</v>
+        <v>3.912929139583948</v>
       </c>
       <c r="I9" t="n">
-        <v>8.333231584851637</v>
+        <v>3.966108911681361</v>
       </c>
       <c r="J9" t="n">
-        <v>8.196641754210544</v>
+        <v>3.901033022334015</v>
       </c>
       <c r="K9" t="n">
-        <v>8.512327109086048</v>
+        <v>4.051299082850063</v>
       </c>
       <c r="L9" t="n">
-        <v>8.171711404913012</v>
+        <v>3.889122182881225</v>
       </c>
       <c r="M9" t="n">
-        <v>8.387973177826474</v>
+        <v>3.99201652466236</v>
       </c>
       <c r="N9" t="n">
-        <v>7.961035335534194</v>
+        <v>3.788846083843523</v>
       </c>
       <c r="O9" t="n">
-        <v>9.137655384412891</v>
+        <v>4.348829317852504</v>
       </c>
       <c r="P9" t="n">
-        <v>7.179056856778625</v>
+        <v>3.416577864359726</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.886733013955313</v>
+        <v>4.229296000136253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.102239027654509</v>
+        <v>4.331977591652569</v>
       </c>
       <c r="B10" t="n">
-        <v>9.062006070638921</v>
+        <v>4.312834397878501</v>
       </c>
       <c r="C10" t="n">
-        <v>9.091453385320591</v>
+        <v>4.326840120196683</v>
       </c>
       <c r="D10" t="n">
-        <v>8.695707290695715</v>
+        <v>4.13850446378634</v>
       </c>
       <c r="E10" t="n">
-        <v>8.908977567265072</v>
+        <v>4.239969019866458</v>
       </c>
       <c r="F10" t="n">
-        <v>8.513269685184738</v>
+        <v>4.051716500601662</v>
       </c>
       <c r="G10" t="n">
-        <v>8.637789810685653</v>
+        <v>4.110904086147403</v>
       </c>
       <c r="H10" t="n">
-        <v>8.374057139581781</v>
+        <v>3.98543858669162</v>
       </c>
       <c r="I10" t="n">
-        <v>8.49651439422578</v>
+        <v>4.043767665741333</v>
       </c>
       <c r="J10" t="n">
-        <v>8.343076470731845</v>
+        <v>3.970707435044414</v>
       </c>
       <c r="K10" t="n">
-        <v>8.826934627586152</v>
+        <v>4.200979430628908</v>
       </c>
       <c r="L10" t="n">
-        <v>8.228853109614048</v>
+        <v>3.916409930212428</v>
       </c>
       <c r="M10" t="n">
-        <v>8.459295982390689</v>
+        <v>4.026032030028675</v>
       </c>
       <c r="N10" t="n">
-        <v>8.054364319916029</v>
+        <v>3.833248247660938</v>
       </c>
       <c r="O10" t="n">
-        <v>9.156042290368937</v>
+        <v>4.357483086426114</v>
       </c>
       <c r="P10" t="n">
-        <v>7.347386754773876</v>
+        <v>3.496733330821899</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.942853291275272</v>
+        <v>4.255967435641963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.216503027510152</v>
+        <v>4.386282890591949</v>
       </c>
       <c r="B11" t="n">
-        <v>9.17035015883226</v>
+        <v>4.364326601389574</v>
       </c>
       <c r="C11" t="n">
-        <v>9.203372469347702</v>
+        <v>4.380047604675945</v>
       </c>
       <c r="D11" t="n">
-        <v>8.789294058116125</v>
+        <v>4.182944443458153</v>
       </c>
       <c r="E11" t="n">
-        <v>8.988101189850688</v>
+        <v>4.277630146799126</v>
       </c>
       <c r="F11" t="n">
-        <v>8.610758984534989</v>
+        <v>4.098030241425363</v>
       </c>
       <c r="G11" t="n">
-        <v>8.749875695502428</v>
+        <v>4.164231946285321</v>
       </c>
       <c r="H11" t="n">
-        <v>8.495613669961589</v>
+        <v>4.043271152233206</v>
       </c>
       <c r="I11" t="n">
-        <v>8.581722909618385</v>
+        <v>4.084259785682254</v>
       </c>
       <c r="J11" t="n">
-        <v>8.433646266778453</v>
+        <v>4.013817220387479</v>
       </c>
       <c r="K11" t="n">
-        <v>8.878328073801161</v>
+        <v>4.225417710030626</v>
       </c>
       <c r="L11" t="n">
-        <v>8.33645114336634</v>
+        <v>3.967508098294086</v>
       </c>
       <c r="M11" t="n">
-        <v>8.556560252311973</v>
+        <v>4.07224502479753</v>
       </c>
       <c r="N11" t="n">
-        <v>8.219196253714919</v>
+        <v>3.911722784961587</v>
       </c>
       <c r="O11" t="n">
-        <v>9.209621736751052</v>
+        <v>4.382972704314226</v>
       </c>
       <c r="P11" t="n">
-        <v>7.582816667887345</v>
+        <v>3.608817791233679</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.916600060078611</v>
+        <v>4.243405066545079</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.279537955747143</v>
+        <v>4.416364969759585</v>
       </c>
       <c r="B12" t="n">
-        <v>9.242479066121804</v>
+        <v>4.398724595359533</v>
       </c>
       <c r="C12" t="n">
-        <v>9.278680296414102</v>
+        <v>4.415972666354036</v>
       </c>
       <c r="D12" t="n">
-        <v>8.836836529009007</v>
+        <v>4.205731238104063</v>
       </c>
       <c r="E12" t="n">
-        <v>9.066862096537323</v>
+        <v>4.315165990672186</v>
       </c>
       <c r="F12" t="n">
-        <v>8.678275091804879</v>
+        <v>4.130267824293684</v>
       </c>
       <c r="G12" t="n">
-        <v>8.851298460747149</v>
+        <v>4.212568402313349</v>
       </c>
       <c r="H12" t="n">
-        <v>8.605485653388262</v>
+        <v>4.09557740696109</v>
       </c>
       <c r="I12" t="n">
-        <v>8.742735408608103</v>
+        <v>4.160880768776113</v>
       </c>
       <c r="J12" t="n">
-        <v>8.529224332353303</v>
+        <v>4.059172863342884</v>
       </c>
       <c r="K12" t="n">
-        <v>8.987763342433075</v>
+        <v>4.277529978085568</v>
       </c>
       <c r="L12" t="n">
-        <v>8.400634267584556</v>
+        <v>3.998096794442397</v>
       </c>
       <c r="M12" t="n">
-        <v>8.637704893920006</v>
+        <v>4.110854146125946</v>
       </c>
       <c r="N12" t="n">
-        <v>8.3974274465847</v>
+        <v>3.996686927015834</v>
       </c>
       <c r="O12" t="n">
-        <v>9.328445766921979</v>
+        <v>4.43957841961771</v>
       </c>
       <c r="P12" t="n">
-        <v>7.856601057850608</v>
+        <v>3.739249869123947</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.874314543527651</v>
+        <v>4.223321961153303</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.397975614634374</v>
+        <v>4.472740614559594</v>
       </c>
       <c r="B13" t="n">
-        <v>9.377053336675415</v>
+        <v>4.462783498027153</v>
       </c>
       <c r="C13" t="n">
-        <v>9.390780131842376</v>
+        <v>4.469316403377388</v>
       </c>
       <c r="D13" t="n">
-        <v>8.950656535489976</v>
+        <v>4.259825230131846</v>
       </c>
       <c r="E13" t="n">
-        <v>9.241856140990945</v>
+        <v>4.398407634992136</v>
       </c>
       <c r="F13" t="n">
-        <v>8.759456126312475</v>
+        <v>4.168800447901372</v>
       </c>
       <c r="G13" t="n">
-        <v>9.020558197326244</v>
+        <v>4.293107223391098</v>
       </c>
       <c r="H13" t="n">
-        <v>8.756167421288604</v>
+        <v>4.167258946661026</v>
       </c>
       <c r="I13" t="n">
-        <v>8.760684993221064</v>
+        <v>4.169422821810395</v>
       </c>
       <c r="J13" t="n">
-        <v>8.937311259220102</v>
+        <v>4.253427999984412</v>
       </c>
       <c r="K13" t="n">
-        <v>9.066879079890452</v>
+        <v>4.3151602172593</v>
       </c>
       <c r="L13" t="n">
-        <v>8.48129124433844</v>
+        <v>4.036399924887898</v>
       </c>
       <c r="M13" t="n">
-        <v>8.741996632746968</v>
+        <v>4.160525126542385</v>
       </c>
       <c r="N13" t="n">
-        <v>8.710794573758021</v>
+        <v>4.145703909654171</v>
       </c>
       <c r="O13" t="n">
-        <v>9.434776114672813</v>
+        <v>4.490257726594548</v>
       </c>
       <c r="P13" t="n">
-        <v>8.120004373213431</v>
+        <v>3.86457305395211</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.89056518627933</v>
+        <v>4.231287538910999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.446731182179368</v>
+        <v>4.495839173501305</v>
       </c>
       <c r="B14" t="n">
-        <v>9.421021418282853</v>
+        <v>4.483606177609521</v>
       </c>
       <c r="C14" t="n">
-        <v>9.451918990012121</v>
+        <v>4.498315101617118</v>
       </c>
       <c r="D14" t="n">
-        <v>8.981644482919826</v>
+        <v>4.274521163960451</v>
       </c>
       <c r="E14" t="n">
-        <v>9.272771302621669</v>
+        <v>4.413083939216932</v>
       </c>
       <c r="F14" t="n">
-        <v>8.781923282857898</v>
+        <v>4.17950146868407</v>
       </c>
       <c r="G14" t="n">
-        <v>9.085945926520006</v>
+        <v>4.32419618576591</v>
       </c>
       <c r="H14" t="n">
-        <v>8.689356123173589</v>
+        <v>4.135371521284192</v>
       </c>
       <c r="I14" t="n">
-        <v>8.859753744412362</v>
+        <v>4.216604883932029</v>
       </c>
       <c r="J14" t="n">
-        <v>8.752065941507816</v>
+        <v>4.165187734788464</v>
       </c>
       <c r="K14" t="n">
-        <v>8.827008019933604</v>
+        <v>4.201018978507172</v>
       </c>
       <c r="L14" t="n">
-        <v>8.546964657793774</v>
+        <v>4.067703946892684</v>
       </c>
       <c r="M14" t="n">
-        <v>8.828626897415846</v>
+        <v>4.201754799979389</v>
       </c>
       <c r="N14" t="n">
-        <v>8.818453262342917</v>
+        <v>4.196921298711908</v>
       </c>
       <c r="O14" t="n">
-        <v>9.5714053709551</v>
+        <v>4.555308790266488</v>
       </c>
       <c r="P14" t="n">
-        <v>8.372437655551213</v>
+        <v>3.984711136668086</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.02827045929204</v>
+        <v>4.296879860040925</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.532542000059745</v>
+        <v>4.536729947601948</v>
       </c>
       <c r="B15" t="n">
-        <v>9.504472763174874</v>
+        <v>4.523391054472007</v>
       </c>
       <c r="C15" t="n">
-        <v>9.527321438617385</v>
+        <v>4.534243627342941</v>
       </c>
       <c r="D15" t="n">
-        <v>9.074624095465854</v>
+        <v>4.318867325672881</v>
       </c>
       <c r="E15" t="n">
-        <v>9.341175396640905</v>
+        <v>4.445708052077916</v>
       </c>
       <c r="F15" t="n">
-        <v>8.852452722211632</v>
+        <v>4.213190487551728</v>
       </c>
       <c r="G15" t="n">
-        <v>9.201561922594426</v>
+        <v>4.379333433502047</v>
       </c>
       <c r="H15" t="n">
-        <v>8.742764522927754</v>
+        <v>4.160915697924068</v>
       </c>
       <c r="I15" t="n">
-        <v>8.972172624260145</v>
+        <v>4.270076790721433</v>
       </c>
       <c r="J15" t="n">
-        <v>8.868043440384564</v>
+        <v>4.220460657727402</v>
       </c>
       <c r="K15" t="n">
-        <v>8.959121523928408</v>
+        <v>4.263799070220722</v>
       </c>
       <c r="L15" t="n">
-        <v>8.671771680652913</v>
+        <v>4.127171831634001</v>
       </c>
       <c r="M15" t="n">
-        <v>8.977474463178195</v>
+        <v>4.272660970328843</v>
       </c>
       <c r="N15" t="n">
-        <v>8.942164858925199</v>
+        <v>4.255838977205267</v>
       </c>
       <c r="O15" t="n">
-        <v>9.658697379847705</v>
+        <v>4.596875631015987</v>
       </c>
       <c r="P15" t="n">
-        <v>8.533692167323029</v>
+        <v>4.061405730776231</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.191201470637072</v>
+        <v>4.374378113222689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.663814221526309</v>
+        <v>4.599226564742835</v>
       </c>
       <c r="B16" t="n">
-        <v>9.604814659302564</v>
+        <v>4.571147282505073</v>
       </c>
       <c r="C16" t="n">
-        <v>9.660415124707095</v>
+        <v>4.597590379531173</v>
       </c>
       <c r="D16" t="n">
-        <v>9.258957164495754</v>
+        <v>4.406520434778404</v>
       </c>
       <c r="E16" t="n">
-        <v>9.385948367877019</v>
+        <v>4.466978459829531</v>
       </c>
       <c r="F16" t="n">
-        <v>8.995787976786788</v>
+        <v>4.281307522136347</v>
       </c>
       <c r="G16" t="n">
-        <v>9.260252751720209</v>
+        <v>4.407131261861657</v>
       </c>
       <c r="H16" t="n">
-        <v>8.913784462749062</v>
+        <v>4.242306097402383</v>
       </c>
       <c r="I16" t="n">
-        <v>9.062694502988995</v>
+        <v>4.313137790725619</v>
       </c>
       <c r="J16" t="n">
-        <v>9.095698010506327</v>
+        <v>4.328904692644427</v>
       </c>
       <c r="K16" t="n">
-        <v>9.100658969265135</v>
+        <v>4.331323752643321</v>
       </c>
       <c r="L16" t="n">
-        <v>8.813672448436948</v>
+        <v>4.194619727665227</v>
       </c>
       <c r="M16" t="n">
-        <v>9.057869411055222</v>
+        <v>4.310794939776809</v>
       </c>
       <c r="N16" t="n">
-        <v>9.056200190061919</v>
+        <v>4.310157266323639</v>
       </c>
       <c r="O16" t="n">
-        <v>9.804247142361289</v>
+        <v>4.666070273115626</v>
       </c>
       <c r="P16" t="n">
-        <v>8.562082268272382</v>
+        <v>4.075032139867855</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.387934207096524</v>
+        <v>4.468035283058165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9.756237629257344</v>
+        <v>4.643255477417223</v>
       </c>
       <c r="B17" t="n">
-        <v>9.697478260170715</v>
+        <v>4.615299168873914</v>
       </c>
       <c r="C17" t="n">
-        <v>9.746384251700572</v>
+        <v>4.638596333218875</v>
       </c>
       <c r="D17" t="n">
-        <v>9.302734183380485</v>
+        <v>4.427494666449009</v>
       </c>
       <c r="E17" t="n">
-        <v>9.552710944997743</v>
+        <v>4.546411961010411</v>
       </c>
       <c r="F17" t="n">
-        <v>9.054797850332077</v>
+        <v>4.309493901183131</v>
       </c>
       <c r="G17" t="n">
-        <v>9.358637922948043</v>
+        <v>4.45415195709315</v>
       </c>
       <c r="H17" t="n">
-        <v>9.182022574818873</v>
+        <v>4.369063686661872</v>
       </c>
       <c r="I17" t="n">
-        <v>9.187707145730666</v>
+        <v>4.372763578309345</v>
       </c>
       <c r="J17" t="n">
-        <v>9.233934013304335</v>
+        <v>4.394732857690713</v>
       </c>
       <c r="K17" t="n">
-        <v>9.403972557934084</v>
+        <v>4.474353417449072</v>
       </c>
       <c r="L17" t="n">
-        <v>8.911948440966093</v>
+        <v>4.24142824997319</v>
       </c>
       <c r="M17" t="n">
-        <v>9.211719787410876</v>
+        <v>4.384095055779107</v>
       </c>
       <c r="N17" t="n">
-        <v>9.10563266553879</v>
+        <v>4.333712502224568</v>
       </c>
       <c r="O17" t="n">
-        <v>10.00646671497824</v>
+        <v>4.76243603960619</v>
       </c>
       <c r="P17" t="n">
-        <v>8.591178998021592</v>
+        <v>4.08869723082581</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.662668451738391</v>
+        <v>4.598815209074766</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.843458671995799</v>
+        <v>4.684738315009242</v>
       </c>
       <c r="B18" t="n">
-        <v>9.798333902730574</v>
+        <v>4.66326612647729</v>
       </c>
       <c r="C18" t="n">
-        <v>9.824915883119957</v>
+        <v>4.675920870180337</v>
       </c>
       <c r="D18" t="n">
-        <v>9.336702102736245</v>
+        <v>4.443594405620648</v>
       </c>
       <c r="E18" t="n">
-        <v>9.694429748283961</v>
+        <v>4.61383907275525</v>
       </c>
       <c r="F18" t="n">
-        <v>9.128873777748259</v>
+        <v>4.344786196809006</v>
       </c>
       <c r="G18" t="n">
-        <v>9.438186735910223</v>
+        <v>4.491947893216687</v>
       </c>
       <c r="H18" t="n">
-        <v>9.115457535324238</v>
+        <v>4.338485382656755</v>
       </c>
       <c r="I18" t="n">
-        <v>9.29348250176316</v>
+        <v>4.423069634143156</v>
       </c>
       <c r="J18" t="n">
-        <v>9.27815927140202</v>
+        <v>4.415565063404342</v>
       </c>
       <c r="K18" t="n">
-        <v>9.309521459149046</v>
+        <v>4.430814378857993</v>
       </c>
       <c r="L18" t="n">
-        <v>8.945845394167705</v>
+        <v>4.257605641548134</v>
       </c>
       <c r="M18" t="n">
-        <v>9.257843541769116</v>
+        <v>4.40605452035857</v>
       </c>
       <c r="N18" t="n">
-        <v>9.176939093298202</v>
+        <v>4.367650355187577</v>
       </c>
       <c r="O18" t="n">
-        <v>10.10044227987565</v>
+        <v>4.807039406862653</v>
       </c>
       <c r="P18" t="n">
-        <v>8.576594543521587</v>
+        <v>4.081976112215517</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.05072775942716</v>
+        <v>4.783334350897355</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.948858574614466</v>
+        <v>4.734876364528094</v>
       </c>
       <c r="B19" t="n">
-        <v>9.903249173236722</v>
+        <v>4.713162558666895</v>
       </c>
       <c r="C19" t="n">
-        <v>9.938104472793503</v>
+        <v>4.729761698053104</v>
       </c>
       <c r="D19" t="n">
-        <v>9.532253283056543</v>
+        <v>4.53664536710318</v>
       </c>
       <c r="E19" t="n">
-        <v>9.752686288808288</v>
+        <v>4.641472647518277</v>
       </c>
       <c r="F19" t="n">
-        <v>9.261610206873922</v>
+        <v>4.407824648749169</v>
       </c>
       <c r="G19" t="n">
-        <v>9.578632394260051</v>
+        <v>4.558653328350878</v>
       </c>
       <c r="H19" t="n">
-        <v>9.177469216535174</v>
+        <v>4.367712419376093</v>
       </c>
       <c r="I19" t="n">
-        <v>9.487003564836149</v>
+        <v>4.515057132972236</v>
       </c>
       <c r="J19" t="n">
-        <v>9.46681339070674</v>
+        <v>4.505362418055425</v>
       </c>
       <c r="K19" t="n">
-        <v>9.52002890809322</v>
+        <v>4.530797477191771</v>
       </c>
       <c r="L19" t="n">
-        <v>9.032225154377922</v>
+        <v>4.298623142061608</v>
       </c>
       <c r="M19" t="n">
-        <v>9.363967663089094</v>
+        <v>4.456474601096862</v>
       </c>
       <c r="N19" t="n">
-        <v>9.180191405422512</v>
+        <v>4.369042902375485</v>
       </c>
       <c r="O19" t="n">
-        <v>10.21637246798297</v>
+        <v>4.862217068488986</v>
       </c>
       <c r="P19" t="n">
-        <v>8.58200677423498</v>
+        <v>4.084340324792002</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.41414118898332</v>
+        <v>4.956289058040264</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.06271194125337</v>
+        <v>4.789127970727642</v>
       </c>
       <c r="B20" t="n">
-        <v>10.00724491648057</v>
+        <v>4.762716916143054</v>
       </c>
       <c r="C20" t="n">
-        <v>10.02686129589353</v>
+        <v>4.772097268728266</v>
       </c>
       <c r="D20" t="n">
-        <v>9.622813374329935</v>
+        <v>4.579771895343613</v>
       </c>
       <c r="E20" t="n">
-        <v>9.804427893762455</v>
+        <v>4.666179679289801</v>
       </c>
       <c r="F20" t="n">
-        <v>9.312657313994753</v>
+        <v>4.432161316084108</v>
       </c>
       <c r="G20" t="n">
-        <v>9.665849191160225</v>
+        <v>4.600193900071749</v>
       </c>
       <c r="H20" t="n">
-        <v>9.170967018479859</v>
+        <v>4.364769999499156</v>
       </c>
       <c r="I20" t="n">
-        <v>9.605882790904747</v>
+        <v>4.571688251292414</v>
       </c>
       <c r="J20" t="n">
-        <v>9.431451016749378</v>
+        <v>4.48871940073129</v>
       </c>
       <c r="K20" t="n">
-        <v>9.719654880067958</v>
+        <v>4.625803316277229</v>
       </c>
       <c r="L20" t="n">
-        <v>9.096908074416808</v>
+        <v>4.329490405381629</v>
       </c>
       <c r="M20" t="n">
-        <v>9.46236314563847</v>
+        <v>4.503410427158943</v>
       </c>
       <c r="N20" t="n">
-        <v>9.225367731295453</v>
+        <v>4.390575134401444</v>
       </c>
       <c r="O20" t="n">
-        <v>10.30284321044209</v>
+        <v>4.903513713515459</v>
       </c>
       <c r="P20" t="n">
-        <v>8.691819922474025</v>
+        <v>4.136672271207225</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.65437193209752</v>
+        <v>5.070773526188417</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.13173774730681</v>
+        <v>4.821944338237703</v>
       </c>
       <c r="B21" t="n">
-        <v>10.07970499915614</v>
+        <v>4.797197469917271</v>
       </c>
       <c r="C21" t="n">
-        <v>10.0891950542656</v>
+        <v>4.801718629547663</v>
       </c>
       <c r="D21" t="n">
-        <v>9.714096471207984</v>
+        <v>4.623196331688921</v>
       </c>
       <c r="E21" t="n">
-        <v>9.965778846718111</v>
+        <v>4.743006484553018</v>
       </c>
       <c r="F21" t="n">
-        <v>9.389636788247762</v>
+        <v>4.468771104530383</v>
       </c>
       <c r="G21" t="n">
-        <v>9.87546925990338</v>
+        <v>4.700000331971241</v>
       </c>
       <c r="H21" t="n">
-        <v>9.060011739742851</v>
+        <v>4.311852051676087</v>
       </c>
       <c r="I21" t="n">
-        <v>9.794115359122859</v>
+        <v>4.661242833931675</v>
       </c>
       <c r="J21" t="n">
-        <v>9.408965663754174</v>
+        <v>4.477996440979627</v>
       </c>
       <c r="K21" t="n">
-        <v>9.930942350159439</v>
+        <v>4.726273690658517</v>
       </c>
       <c r="L21" t="n">
-        <v>9.198080335202867</v>
+        <v>4.377630854042205</v>
       </c>
       <c r="M21" t="n">
-        <v>9.600341365397904</v>
+        <v>4.569077802656376</v>
       </c>
       <c r="N21" t="n">
-        <v>9.399583574246746</v>
+        <v>4.473542252938703</v>
       </c>
       <c r="O21" t="n">
-        <v>10.40250637899293</v>
+        <v>4.950743117622751</v>
       </c>
       <c r="P21" t="n">
-        <v>8.70118563517665</v>
+        <v>4.141051404880641</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.74978683617266</v>
+        <v>5.115923924315753</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.1329223361876</v>
+        <v>4.822333466266165</v>
       </c>
       <c r="B22" t="n">
-        <v>10.07499818414595</v>
+        <v>4.794768595116472</v>
       </c>
       <c r="C22" t="n">
-        <v>10.10342831728482</v>
+        <v>4.808305516308375</v>
       </c>
       <c r="D22" t="n">
-        <v>9.847597151224477</v>
+        <v>4.686601106676649</v>
       </c>
       <c r="E22" t="n">
-        <v>9.937838198078364</v>
+        <v>4.729499007766828</v>
       </c>
       <c r="F22" t="n">
-        <v>9.495067018282731</v>
+        <v>4.518925030934668</v>
       </c>
       <c r="G22" t="n">
-        <v>9.838097391341796</v>
+        <v>4.682110834805193</v>
       </c>
       <c r="H22" t="n">
-        <v>9.154352446732547</v>
+        <v>4.35687889876768</v>
       </c>
       <c r="I22" t="n">
-        <v>9.966058465496422</v>
+        <v>4.743061331975427</v>
       </c>
       <c r="J22" t="n">
-        <v>9.324545054637115</v>
+        <v>4.437835137597028</v>
       </c>
       <c r="K22" t="n">
-        <v>10.32337608437572</v>
+        <v>4.913103352317759</v>
       </c>
       <c r="L22" t="n">
-        <v>9.33052440803537</v>
+        <v>4.440656315803375</v>
       </c>
       <c r="M22" t="n">
-        <v>9.623425988139251</v>
+        <v>4.580006295906752</v>
       </c>
       <c r="N22" t="n">
-        <v>9.566810767385229</v>
+        <v>4.553178112241208</v>
       </c>
       <c r="O22" t="n">
-        <v>10.50208099148815</v>
+        <v>4.998112815663154</v>
       </c>
       <c r="P22" t="n">
-        <v>8.721619035184807</v>
+        <v>4.150972726253195</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.7513032069878</v>
+        <v>5.116717768587467</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.30446269447266</v>
+        <v>4.904110107066499</v>
       </c>
       <c r="B23" t="n">
-        <v>10.218258833277</v>
+        <v>4.863090008517228</v>
       </c>
       <c r="C23" t="n">
-        <v>10.25598613915765</v>
+        <v>4.881045322590166</v>
       </c>
       <c r="D23" t="n">
-        <v>9.789862242260558</v>
+        <v>4.659225892140235</v>
       </c>
       <c r="E23" t="n">
-        <v>10.16158174459372</v>
+        <v>4.836077364310003</v>
       </c>
       <c r="F23" t="n">
-        <v>9.529803434367604</v>
+        <v>4.535504540717066</v>
       </c>
       <c r="G23" t="n">
-        <v>9.927611186752742</v>
+        <v>4.72475990180002</v>
       </c>
       <c r="H23" t="n">
-        <v>9.187177629042019</v>
+        <v>4.372573921696067</v>
       </c>
       <c r="I23" t="n">
-        <v>10.13648277486154</v>
+        <v>4.824151802654355</v>
       </c>
       <c r="J23" t="n">
-        <v>9.426803036926813</v>
+        <v>4.48650529688982</v>
       </c>
       <c r="K23" t="n">
-        <v>10.65348879773478</v>
+        <v>5.07022274259917</v>
       </c>
       <c r="L23" t="n">
-        <v>9.356883178640764</v>
+        <v>4.453222437618635</v>
       </c>
       <c r="M23" t="n">
-        <v>9.62768699012979</v>
+        <v>4.58207462107287</v>
       </c>
       <c r="N23" t="n">
-        <v>9.812054632414275</v>
+        <v>4.669853013238003</v>
       </c>
       <c r="O23" t="n">
-        <v>10.51315777701858</v>
+        <v>5.003537514410078</v>
       </c>
       <c r="P23" t="n">
-        <v>8.728170970202859</v>
+        <v>4.153995107898591</v>
       </c>
       <c r="Q23" t="n">
-        <v>10.74662914558722</v>
+        <v>5.114679753838995</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.33664736174982</v>
+        <v>4.91951126327903</v>
       </c>
       <c r="B24" t="n">
-        <v>10.25799017482694</v>
+        <v>4.882082804885635</v>
       </c>
       <c r="C24" t="n">
-        <v>10.28441020681327</v>
+        <v>4.894642864617365</v>
       </c>
       <c r="D24" t="n">
-        <v>9.811808980342224</v>
+        <v>4.669720513412288</v>
       </c>
       <c r="E24" t="n">
-        <v>10.20283430934541</v>
+        <v>4.855789527923905</v>
       </c>
       <c r="F24" t="n">
-        <v>9.590130730877085</v>
+        <v>4.564196959403237</v>
       </c>
       <c r="G24" t="n">
-        <v>9.966029351176772</v>
+        <v>4.743070858106687</v>
       </c>
       <c r="H24" t="n">
-        <v>9.401831442343108</v>
+        <v>4.474445792055235</v>
       </c>
       <c r="I24" t="n">
-        <v>10.24995219641005</v>
+        <v>4.87817882309267</v>
       </c>
       <c r="J24" t="n">
-        <v>9.839064229373529</v>
+        <v>4.68258367732049</v>
       </c>
       <c r="K24" t="n">
-        <v>10.86345763176542</v>
+        <v>5.170136848648971</v>
       </c>
       <c r="L24" t="n">
-        <v>9.346875737809174</v>
+        <v>4.448336686964543</v>
       </c>
       <c r="M24" t="n">
-        <v>9.605317487864863</v>
+        <v>4.571289019791403</v>
       </c>
       <c r="N24" t="n">
-        <v>9.969744459673862</v>
+        <v>4.744873894950731</v>
       </c>
       <c r="O24" t="n">
-        <v>10.56557325716299</v>
+        <v>5.028330858704235</v>
       </c>
       <c r="P24" t="n">
-        <v>8.749118116643185</v>
+        <v>4.163900263715067</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.75580258247048</v>
+        <v>5.118709018691568</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.2624216168971</v>
+        <v>4.884147377333379</v>
       </c>
       <c r="B25" t="n">
-        <v>10.19921078964555</v>
+        <v>4.854066741518965</v>
       </c>
       <c r="C25" t="n">
-        <v>10.21263249100451</v>
+        <v>4.860444630733234</v>
       </c>
       <c r="D25" t="n">
-        <v>9.807133099296662</v>
+        <v>4.667461376950313</v>
       </c>
       <c r="E25" t="n">
-        <v>10.11794787111394</v>
+        <v>4.815384875188196</v>
       </c>
       <c r="F25" t="n">
-        <v>9.585218295984362</v>
+        <v>4.561970442724063</v>
       </c>
       <c r="G25" t="n">
-        <v>9.900445706873693</v>
+        <v>4.71184333382263</v>
       </c>
       <c r="H25" t="n">
-        <v>9.558483465416813</v>
+        <v>4.549429435254855</v>
       </c>
       <c r="I25" t="n">
-        <v>10.20219136811979</v>
+        <v>4.855412524062502</v>
       </c>
       <c r="J25" t="n">
-        <v>10.16141858309401</v>
+        <v>4.836332549159528</v>
       </c>
       <c r="K25" t="n">
-        <v>10.8347424209133</v>
+        <v>5.156476376421324</v>
       </c>
       <c r="L25" t="n">
-        <v>9.386799355178475</v>
+        <v>4.467522315323317</v>
       </c>
       <c r="M25" t="n">
-        <v>9.627866528434303</v>
+        <v>4.582176810480938</v>
       </c>
       <c r="N25" t="n">
-        <v>9.971100701730922</v>
+        <v>4.745589509477851</v>
       </c>
       <c r="O25" t="n">
-        <v>10.54889803058308</v>
+        <v>5.020601990874832</v>
       </c>
       <c r="P25" t="n">
-        <v>8.758385568516989</v>
+        <v>4.16846356925952</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.75996593018053</v>
+        <v>5.12098489805091</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10.19477085589883</v>
+        <v>4.851932888116599</v>
       </c>
       <c r="B26" t="n">
-        <v>10.12079804169807</v>
+        <v>4.816730369061089</v>
       </c>
       <c r="C26" t="n">
-        <v>10.12798867210346</v>
+        <v>4.820170457128729</v>
       </c>
       <c r="D26" t="n">
-        <v>9.739009230604063</v>
+        <v>4.635073974017621</v>
       </c>
       <c r="E26" t="n">
-        <v>9.981785657042716</v>
+        <v>4.750584666306117</v>
       </c>
       <c r="F26" t="n">
-        <v>9.501722673064538</v>
+        <v>4.522115707565668</v>
       </c>
       <c r="G26" t="n">
-        <v>9.81645938635809</v>
+        <v>4.671909502907707</v>
       </c>
       <c r="H26" t="n">
-        <v>9.148826184933855</v>
+        <v>4.354150095167495</v>
       </c>
       <c r="I26" t="n">
-        <v>10.03017486939877</v>
+        <v>4.773642811357631</v>
       </c>
       <c r="J26" t="n">
-        <v>9.0937000403203</v>
+        <v>4.327882509893104</v>
       </c>
       <c r="K26" t="n">
-        <v>10.77785910579916</v>
+        <v>5.129447566658021</v>
       </c>
       <c r="L26" t="n">
-        <v>9.389725950851693</v>
+        <v>4.468819601198618</v>
       </c>
       <c r="M26" t="n">
-        <v>9.601504725087279</v>
+        <v>4.569605781264727</v>
       </c>
       <c r="N26" t="n">
-        <v>9.826772527546012</v>
+        <v>4.676885318802808</v>
       </c>
       <c r="O26" t="n">
-        <v>10.54487176279472</v>
+        <v>5.018611318112019</v>
       </c>
       <c r="P26" t="n">
-        <v>8.732135370061958</v>
+        <v>4.155844332045718</v>
       </c>
       <c r="Q26" t="n">
-        <v>10.77380372369116</v>
+        <v>5.127634137670783</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.10031854401714</v>
+        <v>4.807067407915147</v>
       </c>
       <c r="B27" t="n">
-        <v>10.01849820757388</v>
+        <v>4.768132954770651</v>
       </c>
       <c r="C27" t="n">
-        <v>10.03032589993196</v>
+        <v>4.773745289436343</v>
       </c>
       <c r="D27" t="n">
-        <v>9.623365333306646</v>
+        <v>4.580004563882886</v>
       </c>
       <c r="E27" t="n">
-        <v>9.874202786998575</v>
+        <v>4.699426743401097</v>
       </c>
       <c r="F27" t="n">
-        <v>9.397166479167415</v>
+        <v>4.472354950578864</v>
       </c>
       <c r="G27" t="n">
-        <v>9.67411219900608</v>
+        <v>4.604129924306227</v>
       </c>
       <c r="H27" t="n">
-        <v>9.099034026299632</v>
+        <v>4.330538568490935</v>
       </c>
       <c r="I27" t="n">
-        <v>9.722360692150492</v>
+        <v>4.627142748066592</v>
       </c>
       <c r="J27" t="n">
-        <v>8.959157916827971</v>
+        <v>4.26393792080061</v>
       </c>
       <c r="K27" t="n">
-        <v>10.25231894797832</v>
+        <v>4.879444932538392</v>
       </c>
       <c r="L27" t="n">
-        <v>9.357777230873371</v>
+        <v>4.453580966558805</v>
       </c>
       <c r="M27" t="n">
-        <v>9.592015883074467</v>
+        <v>4.56503006288257</v>
       </c>
       <c r="N27" t="n">
-        <v>9.713153288560969</v>
+        <v>4.62287504126186</v>
       </c>
       <c r="O27" t="n">
-        <v>10.55973704916969</v>
+        <v>5.025664119292566</v>
       </c>
       <c r="P27" t="n">
-        <v>8.644820312332962</v>
+        <v>4.114417785229329</v>
       </c>
       <c r="Q27" t="n">
-        <v>10.77808838106641</v>
+        <v>5.129458536142502</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9.882519171097123</v>
+        <v>4.703350354797872</v>
       </c>
       <c r="B28" t="n">
-        <v>9.825100273811078</v>
+        <v>4.67604240052157</v>
       </c>
       <c r="C28" t="n">
-        <v>9.844277512235974</v>
+        <v>4.685149670677312</v>
       </c>
       <c r="D28" t="n">
-        <v>9.474820435158998</v>
+        <v>4.509324711318531</v>
       </c>
       <c r="E28" t="n">
-        <v>9.738516713363305</v>
+        <v>4.634836109406751</v>
       </c>
       <c r="F28" t="n">
-        <v>9.230716274434609</v>
+        <v>4.393210120042244</v>
       </c>
       <c r="G28" t="n">
-        <v>9.521517984233686</v>
+        <v>4.531474698523204</v>
       </c>
       <c r="H28" t="n">
-        <v>8.908092006709031</v>
+        <v>4.239755403589706</v>
       </c>
       <c r="I28" t="n">
-        <v>9.532780373551885</v>
+        <v>4.536810198041052</v>
       </c>
       <c r="J28" t="n">
-        <v>8.871704566080634</v>
+        <v>4.222354625824389</v>
       </c>
       <c r="K28" t="n">
-        <v>10.05016670222556</v>
+        <v>4.783094465591975</v>
       </c>
       <c r="L28" t="n">
-        <v>9.287992632864032</v>
+        <v>4.420417905604988</v>
       </c>
       <c r="M28" t="n">
-        <v>9.547708740952762</v>
+        <v>4.543925929422048</v>
       </c>
       <c r="N28" t="n">
-        <v>9.633549886249444</v>
+        <v>4.584832291737481</v>
       </c>
       <c r="O28" t="n">
-        <v>10.45942851319993</v>
+        <v>4.977896055763086</v>
       </c>
       <c r="P28" t="n">
-        <v>8.554423989107605</v>
+        <v>4.071360826614163</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.78709926299829</v>
+        <v>5.133625208221744</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.746974423221824</v>
+        <v>4.638833331817812</v>
       </c>
       <c r="B29" t="n">
-        <v>9.709365394264752</v>
+        <v>4.620965484950084</v>
       </c>
       <c r="C29" t="n">
-        <v>9.709531588506092</v>
+        <v>4.621012249594454</v>
       </c>
       <c r="D29" t="n">
-        <v>9.309963026330415</v>
+        <v>4.430805718738665</v>
       </c>
       <c r="E29" t="n">
-        <v>9.590017306340114</v>
+        <v>4.564144132675337</v>
       </c>
       <c r="F29" t="n">
-        <v>9.101137535894393</v>
+        <v>4.331445860325843</v>
       </c>
       <c r="G29" t="n">
-        <v>9.295350064059084</v>
+        <v>4.423906490340864</v>
       </c>
       <c r="H29" t="n">
-        <v>8.729161463619308</v>
+        <v>4.154586305378035</v>
       </c>
       <c r="I29" t="n">
-        <v>9.20735385255993</v>
+        <v>4.382095434226321</v>
       </c>
       <c r="J29" t="n">
-        <v>8.894822548979915</v>
+        <v>4.233355864077118</v>
       </c>
       <c r="K29" t="n">
-        <v>9.689842423294003</v>
+        <v>4.61161544278252</v>
       </c>
       <c r="L29" t="n">
-        <v>9.198910699861237</v>
+        <v>4.377967155342767</v>
       </c>
       <c r="M29" t="n">
-        <v>9.422068320693624</v>
+        <v>4.484213540645043</v>
       </c>
       <c r="N29" t="n">
-        <v>9.435986178583294</v>
+        <v>4.490712382859257</v>
       </c>
       <c r="O29" t="n">
-        <v>10.41200735197226</v>
+        <v>4.955307000508493</v>
       </c>
       <c r="P29" t="n">
-        <v>8.520244384386052</v>
+        <v>4.054923054118096</v>
       </c>
       <c r="Q29" t="n">
-        <v>10.80424759727253</v>
+        <v>5.14180151554975</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9.444479068244723</v>
+        <v>4.494816702079338</v>
       </c>
       <c r="B30" t="n">
-        <v>9.404201833201332</v>
+        <v>4.475653590030817</v>
       </c>
       <c r="C30" t="n">
-        <v>9.436993048804545</v>
+        <v>4.491278177322005</v>
       </c>
       <c r="D30" t="n">
-        <v>9.148515025642588</v>
+        <v>4.353956974506485</v>
       </c>
       <c r="E30" t="n">
-        <v>9.254243070905652</v>
+        <v>4.404324228516878</v>
       </c>
       <c r="F30" t="n">
-        <v>8.84991128472546</v>
+        <v>4.21181756996763</v>
       </c>
       <c r="G30" t="n">
-        <v>9.038718254208346</v>
+        <v>4.301767631389526</v>
       </c>
       <c r="H30" t="n">
-        <v>8.506553982118652</v>
+        <v>4.048366189104386</v>
       </c>
       <c r="I30" t="n">
-        <v>9.050239033113444</v>
+        <v>4.307236208074378</v>
       </c>
       <c r="J30" t="n">
-        <v>8.666861671953493</v>
+        <v>4.124776442627937</v>
       </c>
       <c r="K30" t="n">
-        <v>9.453816879724348</v>
+        <v>4.499293983771802</v>
       </c>
       <c r="L30" t="n">
-        <v>9.065037599172546</v>
+        <v>4.314218284947081</v>
       </c>
       <c r="M30" t="n">
-        <v>9.274311328821524</v>
+        <v>4.41387403077027</v>
       </c>
       <c r="N30" t="n">
-        <v>9.194153541339984</v>
+        <v>4.375772103763818</v>
       </c>
       <c r="O30" t="n">
-        <v>10.11259568868483</v>
+        <v>4.812971588602186</v>
       </c>
       <c r="P30" t="n">
-        <v>8.486824178168719</v>
+        <v>4.039221680435535</v>
       </c>
       <c r="Q30" t="n">
-        <v>10.72329037909725</v>
+        <v>5.103478178159151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.280194847584262</v>
+        <v>4.416640650224853</v>
       </c>
       <c r="B31" t="n">
-        <v>9.230099414787011</v>
+        <v>4.392799053044818</v>
       </c>
       <c r="C31" t="n">
-        <v>9.263384967275959</v>
+        <v>4.408651112803684</v>
       </c>
       <c r="D31" t="n">
-        <v>8.921500364004814</v>
+        <v>4.24597567863221</v>
       </c>
       <c r="E31" t="n">
-        <v>9.085992024192787</v>
+        <v>4.324223320806471</v>
       </c>
       <c r="F31" t="n">
-        <v>8.72072983533881</v>
+        <v>4.150390477563723</v>
       </c>
       <c r="G31" t="n">
-        <v>8.892651712520962</v>
+        <v>4.232289803387868</v>
       </c>
       <c r="H31" t="n">
-        <v>8.384256856232732</v>
+        <v>3.990229653374394</v>
       </c>
       <c r="I31" t="n">
-        <v>8.893135131536829</v>
+        <v>4.232642558915153</v>
       </c>
       <c r="J31" t="n">
-        <v>8.590556072890733</v>
+        <v>4.088286163828385</v>
       </c>
       <c r="K31" t="n">
-        <v>9.166504035896743</v>
+        <v>4.362749016318696</v>
       </c>
       <c r="L31" t="n">
-        <v>8.961382736087943</v>
+        <v>4.264907565494679</v>
       </c>
       <c r="M31" t="n">
-        <v>9.163928025155986</v>
+        <v>4.361335396173757</v>
       </c>
       <c r="N31" t="n">
-        <v>8.970044246184015</v>
+        <v>4.269124466266021</v>
       </c>
       <c r="O31" t="n">
-        <v>9.941461717778219</v>
+        <v>4.731404522689584</v>
       </c>
       <c r="P31" t="n">
-        <v>8.395103759947583</v>
+        <v>3.995526759696555</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.51662116796036</v>
+        <v>5.005039756442804</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.065668409431645</v>
+        <v>4.314526585195151</v>
       </c>
       <c r="B32" t="n">
-        <v>9.028067872151137</v>
+        <v>4.296631025945573</v>
       </c>
       <c r="C32" t="n">
-        <v>9.036396993764532</v>
+        <v>4.300617567542797</v>
       </c>
       <c r="D32" t="n">
-        <v>8.640291215982305</v>
+        <v>4.112087924459511</v>
       </c>
       <c r="E32" t="n">
-        <v>8.878796935657203</v>
+        <v>4.225621222834829</v>
       </c>
       <c r="F32" t="n">
-        <v>8.391156343441613</v>
+        <v>3.99364982316758</v>
       </c>
       <c r="G32" t="n">
-        <v>8.642593066879687</v>
+        <v>4.113252421838454</v>
       </c>
       <c r="H32" t="n">
-        <v>8.242759443085523</v>
+        <v>3.923159915887148</v>
       </c>
       <c r="I32" t="n">
-        <v>8.819178087592553</v>
+        <v>4.197295415866868</v>
       </c>
       <c r="J32" t="n">
-        <v>8.525438257702064</v>
+        <v>4.057446612890212</v>
       </c>
       <c r="K32" t="n">
-        <v>9.243794062892693</v>
+        <v>4.399314926827043</v>
       </c>
       <c r="L32" t="n">
-        <v>8.634555088462799</v>
+        <v>4.109416854988178</v>
       </c>
       <c r="M32" t="n">
-        <v>8.87447467228573</v>
+        <v>4.223589270169887</v>
       </c>
       <c r="N32" t="n">
-        <v>8.951549981174256</v>
+        <v>4.260180295024285</v>
       </c>
       <c r="O32" t="n">
-        <v>9.67655112982515</v>
+        <v>4.605395167740016</v>
       </c>
       <c r="P32" t="n">
-        <v>8.383122004314682</v>
+        <v>3.989744975362682</v>
       </c>
       <c r="Q32" t="n">
-        <v>10.10969760078293</v>
+        <v>4.811524193991869</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8.526942497550682</v>
+        <v>4.058124411562933</v>
       </c>
       <c r="B33" t="n">
-        <v>8.484937206326359</v>
+        <v>4.038129928058946</v>
       </c>
       <c r="C33" t="n">
-        <v>8.519182924815453</v>
+        <v>4.054452232297309</v>
       </c>
       <c r="D33" t="n">
-        <v>8.097273974694501</v>
+        <v>3.853675159790027</v>
       </c>
       <c r="E33" t="n">
-        <v>8.298982227072587</v>
+        <v>3.949634478013472</v>
       </c>
       <c r="F33" t="n">
-        <v>7.970944515536963</v>
+        <v>3.7935288990347</v>
       </c>
       <c r="G33" t="n">
-        <v>8.107744818447197</v>
+        <v>3.858586024790169</v>
       </c>
       <c r="H33" t="n">
-        <v>8.638525553805158</v>
+        <v>4.111321792569647</v>
       </c>
       <c r="I33" t="n">
-        <v>8.767536563112188</v>
+        <v>4.17266401580414</v>
       </c>
       <c r="J33" t="n">
-        <v>9.355156335556485</v>
+        <v>4.452454862375549</v>
       </c>
       <c r="K33" t="n">
-        <v>9.596404866761803</v>
+        <v>4.567107048168016</v>
       </c>
       <c r="L33" t="n">
-        <v>8.175737672701368</v>
+        <v>3.891023945085606</v>
       </c>
       <c r="M33" t="n">
-        <v>8.300965640098788</v>
+        <v>3.950604988719473</v>
       </c>
       <c r="N33" t="n">
-        <v>8.582211787569186</v>
+        <v>4.08443847281105</v>
       </c>
       <c r="O33" t="n">
-        <v>8.869676268478305</v>
+        <v>4.2212980912664</v>
       </c>
       <c r="P33" t="n">
-        <v>8.281022937686409</v>
+        <v>3.941137746270339</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.619973666704425</v>
+        <v>4.10255717446864</v>
       </c>
     </row>
   </sheetData>
@@ -2259,1698 +2259,1698 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.468458349767002</v>
+        <v>2.602548009175685</v>
       </c>
       <c r="B2" t="n">
-        <v>5.385748206929421</v>
+        <v>2.563190364866704</v>
       </c>
       <c r="C2" t="n">
-        <v>5.373574782025487</v>
+        <v>2.557391260294176</v>
       </c>
       <c r="D2" t="n">
-        <v>5.378137845082402</v>
+        <v>2.559565238916094</v>
       </c>
       <c r="E2" t="n">
-        <v>5.430448392366407</v>
+        <v>2.584480979563418</v>
       </c>
       <c r="F2" t="n">
-        <v>5.840432602397109</v>
+        <v>2.779555363493353</v>
       </c>
       <c r="G2" t="n">
-        <v>5.990993060632238</v>
+        <v>2.851241521923597</v>
       </c>
       <c r="H2" t="n">
-        <v>6.329313585939482</v>
+        <v>3.012247285088675</v>
       </c>
       <c r="I2" t="n">
-        <v>6.820296259431637</v>
+        <v>3.245860354709828</v>
       </c>
       <c r="J2" t="n">
-        <v>6.754691992485473</v>
+        <v>3.214686234494958</v>
       </c>
       <c r="K2" t="n">
-        <v>7.241479777754628</v>
+        <v>3.446360592069265</v>
       </c>
       <c r="L2" t="n">
-        <v>6.986625154499231</v>
+        <v>3.325087456380062</v>
       </c>
       <c r="M2" t="n">
-        <v>7.082962618578303</v>
+        <v>3.370947118280343</v>
       </c>
       <c r="N2" t="n">
-        <v>7.6893593075523</v>
+        <v>3.65954819291455</v>
       </c>
       <c r="O2" t="n">
-        <v>7.774532643141993</v>
+        <v>3.700091696230149</v>
       </c>
       <c r="P2" t="n">
-        <v>8.333469958343777</v>
+        <v>3.966108334340072</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.667038177516377</v>
+        <v>4.124811371775892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.708607208857183</v>
+        <v>2.71677440576787</v>
       </c>
       <c r="B3" t="n">
-        <v>5.636811903146969</v>
+        <v>2.682615142420714</v>
       </c>
       <c r="C3" t="n">
-        <v>5.605987723765155</v>
+        <v>2.667946632303313</v>
       </c>
       <c r="D3" t="n">
-        <v>5.555180809781441</v>
+        <v>2.643838014777339</v>
       </c>
       <c r="E3" t="n">
-        <v>5.660685038712189</v>
+        <v>2.694041303861793</v>
       </c>
       <c r="F3" t="n">
-        <v>5.95232863758783</v>
+        <v>2.832877450218386</v>
       </c>
       <c r="G3" t="n">
-        <v>6.140736498272171</v>
+        <v>2.922521520757368</v>
       </c>
       <c r="H3" t="n">
-        <v>6.536734310452359</v>
+        <v>3.111101681203399</v>
       </c>
       <c r="I3" t="n">
-        <v>7.003333134688757</v>
+        <v>3.333072086400279</v>
       </c>
       <c r="J3" t="n">
-        <v>7.089570356042351</v>
+        <v>3.374222664080755</v>
       </c>
       <c r="K3" t="n">
-        <v>7.602155248166973</v>
+        <v>3.618023498079113</v>
       </c>
       <c r="L3" t="n">
-        <v>7.121391094323875</v>
+        <v>3.389246816431883</v>
       </c>
       <c r="M3" t="n">
-        <v>7.223170509984316</v>
+        <v>3.437667852958679</v>
       </c>
       <c r="N3" t="n">
-        <v>7.659509851330456</v>
+        <v>3.645396980591662</v>
       </c>
       <c r="O3" t="n">
-        <v>7.693693095341967</v>
+        <v>3.661616229410025</v>
       </c>
       <c r="P3" t="n">
-        <v>8.321880032929508</v>
+        <v>3.960687965652812</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.587811441715331</v>
+        <v>4.08717102912961</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.684359226426461</v>
+        <v>2.705364121212226</v>
       </c>
       <c r="B4" t="n">
-        <v>5.613910458000092</v>
+        <v>2.671837623917287</v>
       </c>
       <c r="C4" t="n">
-        <v>5.58913053268742</v>
+        <v>2.660035613297382</v>
       </c>
       <c r="D4" t="n">
-        <v>5.561286931779842</v>
+        <v>2.64678476471394</v>
       </c>
       <c r="E4" t="n">
-        <v>5.649486336968226</v>
+        <v>2.688779415358231</v>
       </c>
       <c r="F4" t="n">
-        <v>5.98827572413151</v>
+        <v>2.850023331804822</v>
       </c>
       <c r="G4" t="n">
-        <v>6.142590716504923</v>
+        <v>2.923447287513508</v>
       </c>
       <c r="H4" t="n">
-        <v>6.611311246785863</v>
+        <v>3.146502516991515</v>
       </c>
       <c r="I4" t="n">
-        <v>7.026244284608851</v>
+        <v>3.343966516514631</v>
       </c>
       <c r="J4" t="n">
-        <v>7.161079370942666</v>
+        <v>3.408117793788414</v>
       </c>
       <c r="K4" t="n">
-        <v>7.645570764249374</v>
+        <v>3.638653634341761</v>
       </c>
       <c r="L4" t="n">
-        <v>7.0926582935703</v>
+        <v>3.375638016249559</v>
       </c>
       <c r="M4" t="n">
-        <v>7.178334457722293</v>
+        <v>3.416390517111602</v>
       </c>
       <c r="N4" t="n">
-        <v>7.659209003360733</v>
+        <v>3.645291904477152</v>
       </c>
       <c r="O4" t="n">
-        <v>7.67633489534691</v>
+        <v>3.653336866662019</v>
       </c>
       <c r="P4" t="n">
-        <v>8.297488905093838</v>
+        <v>3.94906435349106</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.606765470356239</v>
+        <v>4.096059198266359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.698578538834181</v>
+        <v>2.712116704922744</v>
       </c>
       <c r="B5" t="n">
-        <v>5.634821818089182</v>
+        <v>2.68177857489365</v>
       </c>
       <c r="C5" t="n">
-        <v>5.608218608508387</v>
+        <v>2.669110552340968</v>
       </c>
       <c r="D5" t="n">
-        <v>5.590324219793097</v>
+        <v>2.660581489485677</v>
       </c>
       <c r="E5" t="n">
-        <v>5.683830316286141</v>
+        <v>2.70510345162046</v>
       </c>
       <c r="F5" t="n">
-        <v>5.997176214268048</v>
+        <v>2.85421078817045</v>
       </c>
       <c r="G5" t="n">
-        <v>6.145109105154705</v>
+        <v>2.924623331718221</v>
       </c>
       <c r="H5" t="n">
-        <v>6.640551728488346</v>
+        <v>3.160441556390872</v>
       </c>
       <c r="I5" t="n">
-        <v>6.987157703929508</v>
+        <v>3.325410190160344</v>
       </c>
       <c r="J5" t="n">
-        <v>7.221424257353602</v>
+        <v>3.436835326820635</v>
       </c>
       <c r="K5" t="n">
-        <v>7.590905596363622</v>
+        <v>3.612770558365524</v>
       </c>
       <c r="L5" t="n">
-        <v>7.110190572934934</v>
+        <v>3.383933544553644</v>
       </c>
       <c r="M5" t="n">
-        <v>7.193338643663928</v>
+        <v>3.423507114504531</v>
       </c>
       <c r="N5" t="n">
-        <v>7.670344624078786</v>
+        <v>3.650548885579761</v>
       </c>
       <c r="O5" t="n">
-        <v>7.716319167548815</v>
+        <v>3.672375561662864</v>
       </c>
       <c r="P5" t="n">
-        <v>8.313033525593989</v>
+        <v>3.956450569265727</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.629902862801954</v>
+        <v>4.107183410213542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.817949069046883</v>
+        <v>2.768875126997042</v>
       </c>
       <c r="B6" t="n">
-        <v>5.740637812859522</v>
+        <v>2.732074527254911</v>
       </c>
       <c r="C6" t="n">
-        <v>5.715346567307986</v>
+        <v>2.720043889484753</v>
       </c>
       <c r="D6" t="n">
-        <v>5.630998743990054</v>
+        <v>2.679894998939857</v>
       </c>
       <c r="E6" t="n">
-        <v>5.726773937770871</v>
+        <v>2.725468876902322</v>
       </c>
       <c r="F6" t="n">
-        <v>6.004694380769506</v>
+        <v>2.85777009721417</v>
       </c>
       <c r="G6" t="n">
-        <v>6.17404813233914</v>
+        <v>2.938338940038921</v>
       </c>
       <c r="H6" t="n">
-        <v>6.627145797385868</v>
+        <v>3.154063667176604</v>
       </c>
       <c r="I6" t="n">
-        <v>6.958623244478552</v>
+        <v>3.311763574123621</v>
       </c>
       <c r="J6" t="n">
-        <v>7.256611945393061</v>
+        <v>3.453625277502699</v>
       </c>
       <c r="K6" t="n">
-        <v>7.571204300185013</v>
+        <v>3.603357585997511</v>
       </c>
       <c r="L6" t="n">
-        <v>7.102356394755601</v>
+        <v>3.380217776020736</v>
       </c>
       <c r="M6" t="n">
-        <v>7.2193686650766</v>
+        <v>3.435875785599116</v>
       </c>
       <c r="N6" t="n">
-        <v>7.671793061481407</v>
+        <v>3.651257860682062</v>
       </c>
       <c r="O6" t="n">
-        <v>7.782761077733262</v>
+        <v>3.703921200996895</v>
       </c>
       <c r="P6" t="n">
-        <v>8.247646402948552</v>
+        <v>3.925352946771587</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.693315064097753</v>
+        <v>4.137260293309581</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.735027240843508</v>
+        <v>2.729470140702402</v>
       </c>
       <c r="B7" t="n">
-        <v>5.658715576297486</v>
+        <v>2.693138342086549</v>
       </c>
       <c r="C7" t="n">
-        <v>5.635619429137945</v>
+        <v>2.682159331473428</v>
       </c>
       <c r="D7" t="n">
-        <v>5.586336771097608</v>
+        <v>2.658678861269363</v>
       </c>
       <c r="E7" t="n">
-        <v>5.678682540642908</v>
+        <v>2.70259865644022</v>
       </c>
       <c r="F7" t="n">
-        <v>5.983787266518699</v>
+        <v>2.84780229986789</v>
       </c>
       <c r="G7" t="n">
-        <v>6.162319307358205</v>
+        <v>2.932763555215694</v>
       </c>
       <c r="H7" t="n">
-        <v>6.566689912631262</v>
+        <v>3.12530052418259</v>
       </c>
       <c r="I7" t="n">
-        <v>6.95973080172193</v>
+        <v>3.312254891560151</v>
       </c>
       <c r="J7" t="n">
-        <v>7.201107314624047</v>
+        <v>3.427189685913349</v>
       </c>
       <c r="K7" t="n">
-        <v>7.583953945998699</v>
+        <v>3.60937088418808</v>
       </c>
       <c r="L7" t="n">
-        <v>7.085929852989366</v>
+        <v>3.372310798403825</v>
       </c>
       <c r="M7" t="n">
-        <v>7.204705359294208</v>
+        <v>3.42884203668109</v>
       </c>
       <c r="N7" t="n">
-        <v>7.665532876208188</v>
+        <v>3.648174858201371</v>
       </c>
       <c r="O7" t="n">
-        <v>7.789658138748839</v>
+        <v>3.707326071245935</v>
       </c>
       <c r="P7" t="n">
-        <v>8.226766583372418</v>
+        <v>3.915376777976624</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.685297101775625</v>
+        <v>4.133490543366197</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.671285683806661</v>
+        <v>2.699013078367873</v>
       </c>
       <c r="B8" t="n">
-        <v>5.60449076249645</v>
+        <v>2.667214274878827</v>
       </c>
       <c r="C8" t="n">
-        <v>5.57921225445976</v>
+        <v>2.655185657803179</v>
       </c>
       <c r="D8" t="n">
-        <v>5.55528392299687</v>
+        <v>2.643771909199804</v>
       </c>
       <c r="E8" t="n">
-        <v>5.652229755046975</v>
+        <v>2.689921685097566</v>
       </c>
       <c r="F8" t="n">
-        <v>5.92940293050791</v>
+        <v>2.821851097619608</v>
       </c>
       <c r="G8" t="n">
-        <v>6.128256159915253</v>
+        <v>2.91653882165509</v>
       </c>
       <c r="H8" t="n">
-        <v>6.917043750179121</v>
+        <v>3.291987325626693</v>
       </c>
       <c r="I8" t="n">
-        <v>6.437210648016519</v>
+        <v>3.063633835143948</v>
       </c>
       <c r="J8" t="n">
-        <v>7.544618073957348</v>
+        <v>3.590721317215697</v>
       </c>
       <c r="K8" t="n">
-        <v>7.033420357854414</v>
+        <v>3.34746145200468</v>
       </c>
       <c r="L8" t="n">
-        <v>7.034208870678286</v>
+        <v>3.347772638959192</v>
       </c>
       <c r="M8" t="n">
-        <v>7.143268685896372</v>
+        <v>3.399682837563152</v>
       </c>
       <c r="N8" t="n">
-        <v>7.691417326022607</v>
+        <v>3.660618583663464</v>
       </c>
       <c r="O8" t="n">
-        <v>7.805402920196588</v>
+        <v>3.714807837003853</v>
       </c>
       <c r="P8" t="n">
-        <v>8.251580475391348</v>
+        <v>3.927258750364988</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.688866638674462</v>
+        <v>4.13525143429618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.644085024124702</v>
+        <v>2.686236226982305</v>
       </c>
       <c r="B9" t="n">
-        <v>5.568079059935012</v>
+        <v>2.65006897063368</v>
       </c>
       <c r="C9" t="n">
-        <v>5.546268188678381</v>
+        <v>2.639685487559666</v>
       </c>
       <c r="D9" t="n">
-        <v>5.515172882194819</v>
+        <v>2.624898622478119</v>
       </c>
       <c r="E9" t="n">
-        <v>5.606397750433568</v>
+        <v>2.668328254895024</v>
       </c>
       <c r="F9" t="n">
-        <v>5.91854510892319</v>
+        <v>2.816840063905907</v>
       </c>
       <c r="G9" t="n">
-        <v>6.115571414772454</v>
+        <v>2.91060404187976</v>
       </c>
       <c r="H9" t="n">
-        <v>6.877761254390462</v>
+        <v>3.273310046272461</v>
       </c>
       <c r="I9" t="n">
-        <v>6.411211560568475</v>
+        <v>3.051374281552892</v>
       </c>
       <c r="J9" t="n">
-        <v>7.562186139673219</v>
+        <v>3.599038207147456</v>
       </c>
       <c r="K9" t="n">
-        <v>6.831047328510971</v>
+        <v>3.2512273193279</v>
       </c>
       <c r="L9" t="n">
-        <v>7.065437011245255</v>
+        <v>3.362684498429704</v>
       </c>
       <c r="M9" t="n">
-        <v>7.169614112438593</v>
+        <v>3.412242897294882</v>
       </c>
       <c r="N9" t="n">
-        <v>7.656450421573832</v>
+        <v>3.644001835367956</v>
       </c>
       <c r="O9" t="n">
-        <v>7.795779424455391</v>
+        <v>3.710197478144384</v>
       </c>
       <c r="P9" t="n">
-        <v>8.32859330980229</v>
+        <v>3.964020668240788</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.680521140256264</v>
+        <v>4.131284233632122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.566816226320164</v>
+        <v>2.649472288411995</v>
       </c>
       <c r="B10" t="n">
-        <v>5.486459490987677</v>
+        <v>2.611221696023749</v>
       </c>
       <c r="C10" t="n">
-        <v>5.465762242457686</v>
+        <v>2.601370521617751</v>
       </c>
       <c r="D10" t="n">
-        <v>5.433813522479364</v>
+        <v>2.586154980629478</v>
       </c>
       <c r="E10" t="n">
-        <v>5.510563114916797</v>
+        <v>2.622677590541187</v>
       </c>
       <c r="F10" t="n">
-        <v>5.887496506660734</v>
+        <v>2.802065900332707</v>
       </c>
       <c r="G10" t="n">
-        <v>6.013084763763833</v>
+        <v>2.861844394687248</v>
       </c>
       <c r="H10" t="n">
-        <v>6.79963661689786</v>
+        <v>3.236183826043606</v>
       </c>
       <c r="I10" t="n">
-        <v>6.598582830163588</v>
+        <v>3.140553303683971</v>
       </c>
       <c r="J10" t="n">
-        <v>7.445476536966922</v>
+        <v>3.543575050253951</v>
       </c>
       <c r="K10" t="n">
-        <v>6.999463962916848</v>
+        <v>3.33128232840587</v>
       </c>
       <c r="L10" t="n">
-        <v>7.038315202845682</v>
+        <v>3.349772549182622</v>
       </c>
       <c r="M10" t="n">
-        <v>7.121303751364923</v>
+        <v>3.389261827305385</v>
       </c>
       <c r="N10" t="n">
-        <v>7.718839375843576</v>
+        <v>3.673653795275645</v>
       </c>
       <c r="O10" t="n">
-        <v>7.824035478224688</v>
+        <v>3.723630189233711</v>
       </c>
       <c r="P10" t="n">
-        <v>8.425539748400722</v>
+        <v>4.010059883281798</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.693945874356849</v>
+        <v>4.13760785276527</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.469949245552447</v>
+        <v>2.603271995151488</v>
       </c>
       <c r="B11" t="n">
-        <v>5.391166503126074</v>
+        <v>2.565782049910866</v>
       </c>
       <c r="C11" t="n">
-        <v>5.369535776722283</v>
+        <v>2.555486034042063</v>
       </c>
       <c r="D11" t="n">
-        <v>5.360227686110635</v>
+        <v>2.55103733074338</v>
       </c>
       <c r="E11" t="n">
-        <v>5.431833748743118</v>
+        <v>2.58512904515978</v>
       </c>
       <c r="F11" t="n">
-        <v>5.822108170918646</v>
+        <v>2.770862913053412</v>
       </c>
       <c r="G11" t="n">
-        <v>5.929231883879963</v>
+        <v>2.821875634624369</v>
       </c>
       <c r="H11" t="n">
-        <v>6.746063842547333</v>
+        <v>3.21071354908866</v>
       </c>
       <c r="I11" t="n">
-        <v>6.532361097021499</v>
+        <v>3.109004488972853</v>
       </c>
       <c r="J11" t="n">
-        <v>7.422180835408108</v>
+        <v>3.532512902495283</v>
       </c>
       <c r="K11" t="n">
-        <v>6.828829181282586</v>
+        <v>3.250111607287837</v>
       </c>
       <c r="L11" t="n">
-        <v>7.028431497872607</v>
+        <v>3.345038350616766</v>
       </c>
       <c r="M11" t="n">
-        <v>7.092874831322701</v>
+        <v>3.375712493275778</v>
       </c>
       <c r="N11" t="n">
-        <v>7.781766945026857</v>
+        <v>3.703524567531683</v>
       </c>
       <c r="O11" t="n">
-        <v>7.806924143398335</v>
+        <v>3.715476398215958</v>
       </c>
       <c r="P11" t="n">
-        <v>8.548386407070048</v>
+        <v>4.06840916927661</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.658278406591482</v>
+        <v>4.120677030808808</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.42792757752332</v>
+        <v>2.583128557595062</v>
       </c>
       <c r="B12" t="n">
-        <v>5.355753785657649</v>
+        <v>2.548762606066616</v>
       </c>
       <c r="C12" t="n">
-        <v>5.331397231076564</v>
+        <v>2.537179696465704</v>
       </c>
       <c r="D12" t="n">
-        <v>5.327400684156184</v>
+        <v>2.535294099817401</v>
       </c>
       <c r="E12" t="n">
-        <v>5.404380764957519</v>
+        <v>2.571911682371071</v>
       </c>
       <c r="F12" t="n">
-        <v>5.753673749483107</v>
+        <v>2.738222057295061</v>
       </c>
       <c r="G12" t="n">
-        <v>5.880917883516337</v>
+        <v>2.798767549551398</v>
       </c>
       <c r="H12" t="n">
-        <v>6.681642344836977</v>
+        <v>3.179882080928527</v>
       </c>
       <c r="I12" t="n">
-        <v>6.457952174574313</v>
+        <v>3.073473462724176</v>
       </c>
       <c r="J12" t="n">
-        <v>7.344809530936467</v>
+        <v>3.495529862905981</v>
       </c>
       <c r="K12" t="n">
-        <v>6.782453102820708</v>
+        <v>3.227951805281258</v>
       </c>
       <c r="L12" t="n">
-        <v>6.975186866166476</v>
+        <v>3.319558836201204</v>
       </c>
       <c r="M12" t="n">
-        <v>7.039809737921083</v>
+        <v>3.350301393802905</v>
       </c>
       <c r="N12" t="n">
-        <v>7.779879366636172</v>
+        <v>3.702537891269604</v>
       </c>
       <c r="O12" t="n">
-        <v>7.76337397358755</v>
+        <v>3.694649677244569</v>
       </c>
       <c r="P12" t="n">
-        <v>8.675030058260482</v>
+        <v>4.128601617335018</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.60482633535784</v>
+        <v>4.095129678791844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.382895003603656</v>
+        <v>2.56183938625157</v>
       </c>
       <c r="B13" t="n">
-        <v>5.310369413708871</v>
+        <v>2.527312645174271</v>
       </c>
       <c r="C13" t="n">
-        <v>5.297457212943802</v>
+        <v>2.521165403804766</v>
       </c>
       <c r="D13" t="n">
-        <v>5.300126632126772</v>
+        <v>2.522446524123989</v>
       </c>
       <c r="E13" t="n">
-        <v>5.345202270977587</v>
+        <v>2.54390774317146</v>
       </c>
       <c r="F13" t="n">
-        <v>5.696012839414966</v>
+        <v>2.710922763138087</v>
       </c>
       <c r="G13" t="n">
-        <v>5.767971306624887</v>
+        <v>2.745190855318129</v>
       </c>
       <c r="H13" t="n">
-        <v>6.330309538290865</v>
+        <v>3.01269154921019</v>
       </c>
       <c r="I13" t="n">
-        <v>6.405875754944165</v>
+        <v>3.048720532320215</v>
       </c>
       <c r="J13" t="n">
-        <v>6.859521739677647</v>
+        <v>3.264594213510335</v>
       </c>
       <c r="K13" t="n">
-        <v>6.715927488967265</v>
+        <v>3.1961711880428</v>
       </c>
       <c r="L13" t="n">
-        <v>6.90446697063836</v>
+        <v>3.286140013056573</v>
       </c>
       <c r="M13" t="n">
-        <v>6.956419047861667</v>
+        <v>3.310873025186081</v>
       </c>
       <c r="N13" t="n">
-        <v>7.749636867099045</v>
+        <v>3.688300655094726</v>
       </c>
       <c r="O13" t="n">
-        <v>7.734913513032373</v>
+        <v>3.681276720978605</v>
       </c>
       <c r="P13" t="n">
-        <v>8.591744301061475</v>
+        <v>4.089091266255225</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.572126708551862</v>
+        <v>4.079654334223738</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.33559272584789</v>
+        <v>2.539485308901405</v>
       </c>
       <c r="B14" t="n">
-        <v>5.26372463433855</v>
+        <v>2.50529025039436</v>
       </c>
       <c r="C14" t="n">
-        <v>5.244994422029957</v>
+        <v>2.496364265403213</v>
       </c>
       <c r="D14" t="n">
-        <v>5.254285529288475</v>
+        <v>2.500791607074221</v>
       </c>
       <c r="E14" t="n">
-        <v>5.330010661603201</v>
+        <v>2.536866777487327</v>
       </c>
       <c r="F14" t="n">
-        <v>5.669713510545525</v>
+        <v>2.698471820909887</v>
       </c>
       <c r="G14" t="n">
-        <v>5.847608675642672</v>
+        <v>2.783203871766149</v>
       </c>
       <c r="H14" t="n">
-        <v>6.288437687698275</v>
+        <v>2.992896537121385</v>
       </c>
       <c r="I14" t="n">
-        <v>6.628325533880045</v>
+        <v>3.154741754519969</v>
       </c>
       <c r="J14" t="n">
-        <v>6.948963355837793</v>
+        <v>3.307193051813061</v>
       </c>
       <c r="K14" t="n">
-        <v>7.294636459953481</v>
+        <v>3.471733009675807</v>
       </c>
       <c r="L14" t="n">
-        <v>6.86884742019075</v>
+        <v>3.269109022386553</v>
       </c>
       <c r="M14" t="n">
-        <v>6.954032280198638</v>
+        <v>3.309673598659183</v>
       </c>
       <c r="N14" t="n">
-        <v>7.694108580945315</v>
+        <v>3.66175277062476</v>
       </c>
       <c r="O14" t="n">
-        <v>7.686384794561324</v>
+        <v>3.658079436676558</v>
       </c>
       <c r="P14" t="n">
-        <v>8.601298650293501</v>
+        <v>4.093461451138668</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.505455523100165</v>
+        <v>4.047773836942365</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.307817664901156</v>
+        <v>2.526153921208214</v>
       </c>
       <c r="B15" t="n">
-        <v>5.235560169366489</v>
+        <v>2.491771804123689</v>
       </c>
       <c r="C15" t="n">
-        <v>5.221943765994869</v>
+        <v>2.485298653596815</v>
       </c>
       <c r="D15" t="n">
-        <v>5.256527331901576</v>
+        <v>2.501810903119101</v>
       </c>
       <c r="E15" t="n">
-        <v>5.3097252593866</v>
+        <v>2.527099894909452</v>
       </c>
       <c r="F15" t="n">
-        <v>5.696935399418896</v>
+        <v>2.71137972876795</v>
       </c>
       <c r="G15" t="n">
-        <v>5.842888516569309</v>
+        <v>2.780826957681317</v>
       </c>
       <c r="H15" t="n">
-        <v>6.364659583092041</v>
+        <v>3.029117197539198</v>
       </c>
       <c r="I15" t="n">
-        <v>6.637557805950936</v>
+        <v>3.158957500608734</v>
       </c>
       <c r="J15" t="n">
-        <v>6.983068961663568</v>
+        <v>3.32348187025669</v>
       </c>
       <c r="K15" t="n">
-        <v>7.26300435820136</v>
+        <v>3.456638710358123</v>
       </c>
       <c r="L15" t="n">
-        <v>6.905388924093964</v>
+        <v>3.286568977633943</v>
       </c>
       <c r="M15" t="n">
-        <v>6.973761477600246</v>
+        <v>3.31908281830882</v>
       </c>
       <c r="N15" t="n">
-        <v>7.72734682266483</v>
+        <v>3.677675843362112</v>
       </c>
       <c r="O15" t="n">
-        <v>7.676475614558555</v>
+        <v>3.653440788093953</v>
       </c>
       <c r="P15" t="n">
-        <v>8.632889506759451</v>
+        <v>4.108683342881115</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.445421189432169</v>
+        <v>4.019310334077093</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.203746709664878</v>
+        <v>2.476807983937211</v>
       </c>
       <c r="B16" t="n">
-        <v>5.130145709587998</v>
+        <v>2.441776646573746</v>
       </c>
       <c r="C16" t="n">
-        <v>5.116960562076203</v>
+        <v>2.435496328037237</v>
       </c>
       <c r="D16" t="n">
-        <v>5.184914597237506</v>
+        <v>2.467807810590489</v>
       </c>
       <c r="E16" t="n">
-        <v>5.231921485958482</v>
+        <v>2.490194507723455</v>
       </c>
       <c r="F16" t="n">
-        <v>5.696145066950046</v>
+        <v>2.711130317331309</v>
       </c>
       <c r="G16" t="n">
-        <v>5.810594064045135</v>
+        <v>2.765596694490187</v>
       </c>
       <c r="H16" t="n">
-        <v>6.37166400316133</v>
+        <v>3.032608668981517</v>
       </c>
       <c r="I16" t="n">
-        <v>6.665229753682241</v>
+        <v>3.172289465643214</v>
       </c>
       <c r="J16" t="n">
-        <v>7.322788793959021</v>
+        <v>3.4850265815146</v>
       </c>
       <c r="K16" t="n">
-        <v>6.923134101921045</v>
+        <v>3.294975644136067</v>
       </c>
       <c r="L16" t="n">
-        <v>6.914004943065583</v>
+        <v>3.290755567987638</v>
       </c>
       <c r="M16" t="n">
-        <v>6.964555893655701</v>
+        <v>3.314803564678318</v>
       </c>
       <c r="N16" t="n">
-        <v>7.773531838404002</v>
+        <v>3.699743848103816</v>
       </c>
       <c r="O16" t="n">
-        <v>7.650420118116188</v>
+        <v>3.641098674698639</v>
       </c>
       <c r="P16" t="n">
-        <v>8.667336599292796</v>
+        <v>4.125129198155221</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.491688695743683</v>
+        <v>4.041463496658854</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.254477805107834</v>
+        <v>2.500646405740158</v>
       </c>
       <c r="B17" t="n">
-        <v>5.189589265186416</v>
+        <v>2.469756914780529</v>
       </c>
       <c r="C17" t="n">
-        <v>5.168405564898927</v>
+        <v>2.459667298422372</v>
       </c>
       <c r="D17" t="n">
-        <v>5.205469306910875</v>
+        <v>2.477269279626737</v>
       </c>
       <c r="E17" t="n">
-        <v>5.300732573904502</v>
+        <v>2.522617128474747</v>
       </c>
       <c r="F17" t="n">
-        <v>5.597922450673595</v>
+        <v>2.664316021610462</v>
       </c>
       <c r="G17" t="n">
-        <v>5.857116927201918</v>
+        <v>2.787473599265391</v>
       </c>
       <c r="H17" t="n">
-        <v>5.689747195206812</v>
+        <v>2.70956889781651</v>
       </c>
       <c r="I17" t="n">
-        <v>6.667833665645998</v>
+        <v>3.173403156988767</v>
       </c>
       <c r="J17" t="n">
-        <v>7.255870743338621</v>
+        <v>3.453112887109138</v>
       </c>
       <c r="K17" t="n">
-        <v>5.521744226759305</v>
+        <v>2.631963547825726</v>
       </c>
       <c r="L17" t="n">
-        <v>6.957154790981172</v>
+        <v>3.311143220909107</v>
       </c>
       <c r="M17" t="n">
-        <v>7.04464938701468</v>
+        <v>3.352742392770763</v>
       </c>
       <c r="N17" t="n">
-        <v>7.766150145275906</v>
+        <v>3.6960586786592</v>
       </c>
       <c r="O17" t="n">
-        <v>7.679914137018963</v>
+        <v>3.655001630267463</v>
       </c>
       <c r="P17" t="n">
-        <v>8.649081314323503</v>
+        <v>4.116251998502954</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.624192816860466</v>
+        <v>4.104275630813917</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.372968840247757</v>
+        <v>2.557064773795518</v>
       </c>
       <c r="B18" t="n">
-        <v>5.302725085155594</v>
+        <v>2.523634115154473</v>
       </c>
       <c r="C18" t="n">
-        <v>5.275748241805949</v>
+        <v>2.510790292179436</v>
       </c>
       <c r="D18" t="n">
-        <v>5.267639297234913</v>
+        <v>2.5069628081072</v>
       </c>
       <c r="E18" t="n">
-        <v>5.372709844112531</v>
+        <v>2.556975285895798</v>
       </c>
       <c r="F18" t="n">
-        <v>5.746826425430267</v>
+        <v>2.735079011320364</v>
       </c>
       <c r="G18" t="n">
-        <v>5.877020203973104</v>
+        <v>2.797047938523545</v>
       </c>
       <c r="H18" t="n">
-        <v>6.408698630853627</v>
+        <v>3.050143101255125</v>
       </c>
       <c r="I18" t="n">
-        <v>6.717216404160133</v>
+        <v>3.196913071598547</v>
       </c>
       <c r="J18" t="n">
-        <v>7.358544817779994</v>
+        <v>3.50209885208675</v>
       </c>
       <c r="K18" t="n">
-        <v>6.958274479191071</v>
+        <v>3.311477790185804</v>
       </c>
       <c r="L18" t="n">
-        <v>6.983978177604325</v>
+        <v>3.323906504774396</v>
       </c>
       <c r="M18" t="n">
-        <v>7.048141285727781</v>
+        <v>3.354430250027749</v>
       </c>
       <c r="N18" t="n">
-        <v>7.78221397114316</v>
+        <v>3.703734719760704</v>
       </c>
       <c r="O18" t="n">
-        <v>7.71411800367356</v>
+        <v>3.671311232997479</v>
       </c>
       <c r="P18" t="n">
-        <v>8.621268040832227</v>
+        <v>4.103071585556711</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.788972587503315</v>
+        <v>4.182803572183754</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.473046887853612</v>
+        <v>2.604597859420572</v>
       </c>
       <c r="B19" t="n">
-        <v>5.399006140240342</v>
+        <v>2.569358679193241</v>
       </c>
       <c r="C19" t="n">
-        <v>5.377010878292591</v>
+        <v>2.558891770303036</v>
       </c>
       <c r="D19" t="n">
-        <v>5.351848220986178</v>
+        <v>2.546919444003019</v>
       </c>
       <c r="E19" t="n">
-        <v>5.434998717908476</v>
+        <v>2.58649936470808</v>
       </c>
       <c r="F19" t="n">
-        <v>5.779836604979185</v>
+        <v>2.750588130353848</v>
       </c>
       <c r="G19" t="n">
-        <v>5.926442974676759</v>
+        <v>2.820439786839823</v>
       </c>
       <c r="H19" t="n">
-        <v>6.348222730004262</v>
+        <v>3.021061843211138</v>
       </c>
       <c r="I19" t="n">
-        <v>6.746422312608032</v>
+        <v>3.210684970694878</v>
       </c>
       <c r="J19" t="n">
-        <v>6.914007369258887</v>
+        <v>3.290338150236039</v>
       </c>
       <c r="K19" t="n">
-        <v>7.340615855810118</v>
+        <v>3.493426608591907</v>
       </c>
       <c r="L19" t="n">
-        <v>7.021749154964454</v>
+        <v>3.341730473704197</v>
       </c>
       <c r="M19" t="n">
-        <v>7.087563287631434</v>
+        <v>3.37308645642495</v>
       </c>
       <c r="N19" t="n">
-        <v>7.867904085906653</v>
+        <v>3.744427177128741</v>
       </c>
       <c r="O19" t="n">
-        <v>7.846699156427752</v>
+        <v>3.734356613033104</v>
       </c>
       <c r="P19" t="n">
-        <v>8.650027529712149</v>
+        <v>4.11669568528318</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.8370621649863</v>
+        <v>4.205608841750897</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.593026999134</v>
+        <v>2.661917168556665</v>
       </c>
       <c r="B20" t="n">
-        <v>5.51166824596687</v>
+        <v>2.623185650875083</v>
       </c>
       <c r="C20" t="n">
-        <v>5.479181517623338</v>
+        <v>2.607729069898854</v>
       </c>
       <c r="D20" t="n">
-        <v>5.422714294660874</v>
+        <v>2.580826120536448</v>
       </c>
       <c r="E20" t="n">
-        <v>5.532790078325101</v>
+        <v>2.633215223739235</v>
       </c>
       <c r="F20" t="n">
-        <v>5.834612771208607</v>
+        <v>2.776844168802469</v>
       </c>
       <c r="G20" t="n">
-        <v>6.044489409893683</v>
+        <v>2.876753078780673</v>
       </c>
       <c r="H20" t="n">
-        <v>6.354224525690582</v>
+        <v>3.024151485116647</v>
       </c>
       <c r="I20" t="n">
-        <v>6.855338375872842</v>
+        <v>3.262627789081639</v>
       </c>
       <c r="J20" t="n">
-        <v>6.84154849967997</v>
+        <v>3.256119709406809</v>
       </c>
       <c r="K20" t="n">
-        <v>7.280643996619706</v>
+        <v>3.465101956306523</v>
       </c>
       <c r="L20" t="n">
-        <v>7.097046670709311</v>
+        <v>3.377589718475397</v>
       </c>
       <c r="M20" t="n">
-        <v>7.212314508044575</v>
+        <v>3.43245965719495</v>
       </c>
       <c r="N20" t="n">
-        <v>7.924092296639131</v>
+        <v>3.77123890656756</v>
       </c>
       <c r="O20" t="n">
-        <v>7.943512760942776</v>
+        <v>3.780455005556188</v>
       </c>
       <c r="P20" t="n">
-        <v>8.69228999742672</v>
+        <v>4.136902053040055</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.953695342603515</v>
+        <v>4.261169280651518</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.763113461081509</v>
+        <v>2.742761403176041</v>
       </c>
       <c r="B21" t="n">
-        <v>5.658842344897632</v>
+        <v>2.693135455380106</v>
       </c>
       <c r="C21" t="n">
-        <v>5.688410362696186</v>
+        <v>2.707213922700641</v>
       </c>
       <c r="D21" t="n">
-        <v>5.604406452279128</v>
+        <v>2.667203016723701</v>
       </c>
       <c r="E21" t="n">
-        <v>5.698071464433598</v>
+        <v>2.711798012531481</v>
       </c>
       <c r="F21" t="n">
-        <v>5.982336402922774</v>
+        <v>2.847045405438641</v>
       </c>
       <c r="G21" t="n">
-        <v>6.183012310049914</v>
+        <v>2.942613286268471</v>
       </c>
       <c r="H21" t="n">
-        <v>6.379622523747504</v>
+        <v>3.036099274411902</v>
       </c>
       <c r="I21" t="n">
-        <v>6.964711776575498</v>
+        <v>3.314608134652154</v>
       </c>
       <c r="J21" t="n">
-        <v>6.747819193402938</v>
+        <v>3.21117917483785</v>
       </c>
       <c r="K21" t="n">
-        <v>7.259315937830616</v>
+        <v>3.454552776282704</v>
       </c>
       <c r="L21" t="n">
-        <v>7.23778589844895</v>
+        <v>3.444688034356425</v>
       </c>
       <c r="M21" t="n">
-        <v>7.342817626233701</v>
+        <v>3.494695316073427</v>
       </c>
       <c r="N21" t="n">
-        <v>7.94613547590464</v>
+        <v>3.781832830541239</v>
       </c>
       <c r="O21" t="n">
-        <v>8.054222387607732</v>
+        <v>3.833222844644243</v>
       </c>
       <c r="P21" t="n">
-        <v>8.601258011555656</v>
+        <v>4.093652551105168</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.048971347111989</v>
+        <v>4.306612390812133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.136357825906376</v>
+        <v>2.920431545292929</v>
       </c>
       <c r="B22" t="n">
-        <v>6.048794689912024</v>
+        <v>2.878764535829872</v>
       </c>
       <c r="C22" t="n">
-        <v>6.020364556773151</v>
+        <v>2.865237429439873</v>
       </c>
       <c r="D22" t="n">
-        <v>5.838909559550384</v>
+        <v>2.778885070257383</v>
       </c>
       <c r="E22" t="n">
-        <v>5.941478094583023</v>
+        <v>2.827695812153929</v>
       </c>
       <c r="F22" t="n">
-        <v>6.103284565331547</v>
+        <v>2.904651653195129</v>
       </c>
       <c r="G22" t="n">
-        <v>6.341649565794799</v>
+        <v>3.018116536627758</v>
       </c>
       <c r="H22" t="n">
-        <v>6.392002781630623</v>
+        <v>3.042125851452107</v>
       </c>
       <c r="I22" t="n">
-        <v>7.167705911404822</v>
+        <v>3.411251890973139</v>
       </c>
       <c r="J22" t="n">
-        <v>6.676969496533046</v>
+        <v>3.177688472702799</v>
       </c>
       <c r="K22" t="n">
-        <v>7.503767044197509</v>
+        <v>3.571192748131543</v>
       </c>
       <c r="L22" t="n">
-        <v>7.377052426852925</v>
+        <v>3.510887141180585</v>
       </c>
       <c r="M22" t="n">
-        <v>7.506840424565632</v>
+        <v>3.572650534885053</v>
       </c>
       <c r="N22" t="n">
-        <v>7.99344321259534</v>
+        <v>3.804278416485634</v>
       </c>
       <c r="O22" t="n">
-        <v>8.001331980124018</v>
+        <v>3.807991875653388</v>
       </c>
       <c r="P22" t="n">
-        <v>8.40858672268747</v>
+        <v>4.001939866729423</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.039053675432655</v>
+        <v>4.301799962501684</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.006077917501239</v>
+        <v>2.858518042853446</v>
       </c>
       <c r="B23" t="n">
-        <v>5.901561755793636</v>
+        <v>2.808757285866642</v>
       </c>
       <c r="C23" t="n">
-        <v>5.934118237194665</v>
+        <v>2.824263229523039</v>
       </c>
       <c r="D23" t="n">
-        <v>5.823641525086915</v>
+        <v>2.771634241014874</v>
       </c>
       <c r="E23" t="n">
-        <v>5.939046442343867</v>
+        <v>2.826581254796443</v>
       </c>
       <c r="F23" t="n">
-        <v>6.231957727220964</v>
+        <v>2.965939606348503</v>
       </c>
       <c r="G23" t="n">
-        <v>6.393582233471672</v>
+        <v>3.042950006141468</v>
       </c>
       <c r="H23" t="n">
-        <v>6.663648482196215</v>
+        <v>3.171452609445506</v>
       </c>
       <c r="I23" t="n">
-        <v>7.273752394539064</v>
+        <v>3.461811110961964</v>
       </c>
       <c r="J23" t="n">
-        <v>7.099144721369138</v>
+        <v>3.378622870711202</v>
       </c>
       <c r="K23" t="n">
-        <v>7.77226657859585</v>
+        <v>3.699006005937089</v>
       </c>
       <c r="L23" t="n">
-        <v>7.450954881447855</v>
+        <v>3.546132383491445</v>
       </c>
       <c r="M23" t="n">
-        <v>7.548837830661715</v>
+        <v>3.592761929999967</v>
       </c>
       <c r="N23" t="n">
-        <v>7.969616781251228</v>
+        <v>3.792896710323772</v>
       </c>
       <c r="O23" t="n">
-        <v>7.932445073637242</v>
+        <v>3.775288378365232</v>
       </c>
       <c r="P23" t="n">
-        <v>8.25677920109397</v>
+        <v>3.929689645860297</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.043229154109222</v>
+        <v>4.303798140701248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.021592817133413</v>
+        <v>2.865905990651978</v>
       </c>
       <c r="B24" t="n">
-        <v>5.927415271643426</v>
+        <v>2.821081213011368</v>
       </c>
       <c r="C24" t="n">
-        <v>5.957534641870365</v>
+        <v>2.835412267145629</v>
       </c>
       <c r="D24" t="n">
-        <v>5.896279326422018</v>
+        <v>2.806264326182817</v>
       </c>
       <c r="E24" t="n">
-        <v>6.004468138243888</v>
+        <v>2.857753931658091</v>
       </c>
       <c r="F24" t="n">
-        <v>6.307641614249518</v>
+        <v>3.002058654699536</v>
       </c>
       <c r="G24" t="n">
-        <v>6.462137358024096</v>
+        <v>3.075614821563293</v>
       </c>
       <c r="H24" t="n">
-        <v>6.806368090220424</v>
+        <v>3.239376523369116</v>
       </c>
       <c r="I24" t="n">
-        <v>7.353238126475334</v>
+        <v>3.499624944665446</v>
       </c>
       <c r="J24" t="n">
-        <v>7.272200237372688</v>
+        <v>3.460981471530363</v>
       </c>
       <c r="K24" t="n">
-        <v>7.736753780653626</v>
+        <v>3.682127722037882</v>
       </c>
       <c r="L24" t="n">
-        <v>7.516373544606246</v>
+        <v>3.57722827396172</v>
       </c>
       <c r="M24" t="n">
-        <v>7.617949766577459</v>
+        <v>3.625582050228403</v>
       </c>
       <c r="N24" t="n">
-        <v>7.976034669089221</v>
+        <v>3.795941896950065</v>
       </c>
       <c r="O24" t="n">
-        <v>7.978299520538712</v>
+        <v>3.797083300677467</v>
       </c>
       <c r="P24" t="n">
-        <v>8.185658377122332</v>
+        <v>3.895823960558352</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.036161046465695</v>
+        <v>4.300412322714728</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.159816082416573</v>
+        <v>2.931573654820057</v>
       </c>
       <c r="B25" t="n">
-        <v>6.05865837879034</v>
+        <v>2.883428010087884</v>
       </c>
       <c r="C25" t="n">
-        <v>6.094354960875358</v>
+        <v>2.900416566173198</v>
       </c>
       <c r="D25" t="n">
-        <v>5.979126549181289</v>
+        <v>2.845606093606364</v>
       </c>
       <c r="E25" t="n">
-        <v>6.093805428091952</v>
+        <v>2.900184474975214</v>
       </c>
       <c r="F25" t="n">
-        <v>6.350647710211833</v>
+        <v>3.02247228797899</v>
       </c>
       <c r="G25" t="n">
-        <v>6.497725974507077</v>
+        <v>3.092461351691631</v>
       </c>
       <c r="H25" t="n">
-        <v>6.857031252250863</v>
+        <v>3.263523245420132</v>
       </c>
       <c r="I25" t="n">
-        <v>7.313716044097883</v>
+        <v>3.480861930129869</v>
       </c>
       <c r="J25" t="n">
-        <v>7.224845189912555</v>
+        <v>3.438511925922494</v>
       </c>
       <c r="K25" t="n">
-        <v>7.559825453588211</v>
+        <v>3.597954537548906</v>
       </c>
       <c r="L25" t="n">
-        <v>7.539819063601596</v>
+        <v>3.588508656727448</v>
       </c>
       <c r="M25" t="n">
-        <v>7.639070385839037</v>
+        <v>3.635734308116365</v>
       </c>
       <c r="N25" t="n">
-        <v>8.070456653554608</v>
+        <v>3.840976538149052</v>
       </c>
       <c r="O25" t="n">
-        <v>8.015039972292872</v>
+        <v>3.814562596858022</v>
       </c>
       <c r="P25" t="n">
-        <v>8.254863721480287</v>
+        <v>3.928783220037322</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.037678023829161</v>
+        <v>4.301269963198822</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.031567504355396</v>
+        <v>2.870473337585452</v>
       </c>
       <c r="B26" t="n">
-        <v>5.960277453400788</v>
+        <v>2.836530865892135</v>
       </c>
       <c r="C26" t="n">
-        <v>5.932560621093355</v>
+        <v>2.823334864731101</v>
       </c>
       <c r="D26" t="n">
-        <v>5.885796351702801</v>
+        <v>2.801069697939368</v>
       </c>
       <c r="E26" t="n">
-        <v>5.965234772869639</v>
+        <v>2.83889507846862</v>
       </c>
       <c r="F26" t="n">
-        <v>6.332591373093486</v>
+        <v>3.013768002042633</v>
       </c>
       <c r="G26" t="n">
-        <v>6.375043690434111</v>
+        <v>3.034033258610937</v>
       </c>
       <c r="H26" t="n">
-        <v>6.826164007937898</v>
+        <v>3.248812878059313</v>
       </c>
       <c r="I26" t="n">
-        <v>7.192197119714291</v>
+        <v>3.422972785142007</v>
       </c>
       <c r="J26" t="n">
-        <v>7.205566657917207</v>
+        <v>3.429445069656948</v>
       </c>
       <c r="K26" t="n">
-        <v>7.387975149108533</v>
+        <v>3.516207052483643</v>
       </c>
       <c r="L26" t="n">
-        <v>7.535538045516296</v>
+        <v>3.586347090943233</v>
       </c>
       <c r="M26" t="n">
-        <v>7.57207651667788</v>
+        <v>3.603774426407822</v>
       </c>
       <c r="N26" t="n">
-        <v>8.177290436416071</v>
+        <v>3.891765251300064</v>
       </c>
       <c r="O26" t="n">
-        <v>7.964543004503773</v>
+        <v>3.790617366916699</v>
       </c>
       <c r="P26" t="n">
-        <v>8.312751480622373</v>
+        <v>3.95632875025385</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.06640111980952</v>
+        <v>4.314967385268935</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.904956000226242</v>
+        <v>2.810209876548555</v>
       </c>
       <c r="B27" t="n">
-        <v>5.808682830269734</v>
+        <v>2.764397267963289</v>
       </c>
       <c r="C27" t="n">
-        <v>5.830310523931895</v>
+        <v>2.774685489724696</v>
       </c>
       <c r="D27" t="n">
-        <v>5.797809238428536</v>
+        <v>2.759241032915526</v>
       </c>
       <c r="E27" t="n">
-        <v>5.861076474674409</v>
+        <v>2.789356020536607</v>
       </c>
       <c r="F27" t="n">
-        <v>6.292672001562469</v>
+        <v>2.994766834225542</v>
       </c>
       <c r="G27" t="n">
-        <v>6.300567441122733</v>
+        <v>2.998557368455313</v>
       </c>
       <c r="H27" t="n">
-        <v>6.817800919618245</v>
+        <v>3.244765138285507</v>
       </c>
       <c r="I27" t="n">
-        <v>7.095159698866953</v>
+        <v>3.376784327377913</v>
       </c>
       <c r="J27" t="n">
-        <v>7.186025490496677</v>
+        <v>3.419948960143389</v>
       </c>
       <c r="K27" t="n">
-        <v>7.255936857106161</v>
+        <v>3.453321307314293</v>
       </c>
       <c r="L27" t="n">
-        <v>7.473884834366058</v>
+        <v>3.557012957414873</v>
       </c>
       <c r="M27" t="n">
-        <v>7.50390533721585</v>
+        <v>3.571324093274681</v>
       </c>
       <c r="N27" t="n">
-        <v>8.219957471864118</v>
+        <v>3.912007125546183</v>
       </c>
       <c r="O27" t="n">
-        <v>8.00671812925939</v>
+        <v>3.810570281847914</v>
       </c>
       <c r="P27" t="n">
-        <v>8.435771612112951</v>
+        <v>4.014779936986085</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.095087822890315</v>
+        <v>4.328527977453668</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.973823497166586</v>
+        <v>2.843034038166012</v>
       </c>
       <c r="B28" t="n">
-        <v>5.87300121476466</v>
+        <v>2.795054090383645</v>
       </c>
       <c r="C28" t="n">
-        <v>5.90281427808694</v>
+        <v>2.809242829890287</v>
       </c>
       <c r="D28" t="n">
-        <v>5.798803371134942</v>
+        <v>2.759772475571608</v>
       </c>
       <c r="E28" t="n">
-        <v>5.878418904412988</v>
+        <v>2.797674353821588</v>
       </c>
       <c r="F28" t="n">
-        <v>6.216622972441629</v>
+        <v>2.958658466688346</v>
       </c>
       <c r="G28" t="n">
-        <v>6.257831259165513</v>
+        <v>2.978290957204432</v>
       </c>
       <c r="H28" t="n">
-        <v>6.784431663460301</v>
+        <v>3.228883345450284</v>
       </c>
       <c r="I28" t="n">
-        <v>6.983744656498794</v>
+        <v>3.323757262051314</v>
       </c>
       <c r="J28" t="n">
-        <v>7.136932075534069</v>
+        <v>3.396604453812769</v>
       </c>
       <c r="K28" t="n">
-        <v>7.096099848772338</v>
+        <v>3.377174321418308</v>
       </c>
       <c r="L28" t="n">
-        <v>7.427320119374776</v>
+        <v>3.534869320964374</v>
       </c>
       <c r="M28" t="n">
-        <v>7.489566534787897</v>
+        <v>3.564494723172791</v>
       </c>
       <c r="N28" t="n">
-        <v>8.132657577843275</v>
+        <v>3.870578846705929</v>
       </c>
       <c r="O28" t="n">
-        <v>8.007298596007425</v>
+        <v>3.810891860945619</v>
       </c>
       <c r="P28" t="n">
-        <v>8.593568798426249</v>
+        <v>4.090015300987499</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.08839031627401</v>
+        <v>4.325446706996843</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.801587427951536</v>
+        <v>2.761084194979122</v>
       </c>
       <c r="B29" t="n">
-        <v>5.69750373520041</v>
+        <v>2.711550910459995</v>
       </c>
       <c r="C29" t="n">
-        <v>5.727688006098237</v>
+        <v>2.725908810964173</v>
       </c>
       <c r="D29" t="n">
-        <v>5.624070749009848</v>
+        <v>2.676618587127512</v>
       </c>
       <c r="E29" t="n">
-        <v>5.712424824021376</v>
+        <v>2.718662600451972</v>
       </c>
       <c r="F29" t="n">
-        <v>6.057490166714357</v>
+        <v>2.882912732987881</v>
       </c>
       <c r="G29" t="n">
-        <v>6.122485459141161</v>
+        <v>2.913840328472553</v>
       </c>
       <c r="H29" t="n">
-        <v>6.666428899722852</v>
+        <v>3.172732575082152</v>
       </c>
       <c r="I29" t="n">
-        <v>6.83720440056876</v>
+        <v>3.253998557512791</v>
       </c>
       <c r="J29" t="n">
-        <v>6.907651955898478</v>
+        <v>3.287534580938991</v>
       </c>
       <c r="K29" t="n">
-        <v>6.913624637265146</v>
+        <v>3.29038837892814</v>
       </c>
       <c r="L29" t="n">
-        <v>7.318830459583183</v>
+        <v>3.483233070801816</v>
       </c>
       <c r="M29" t="n">
-        <v>7.399363093930226</v>
+        <v>3.521537933271182</v>
       </c>
       <c r="N29" t="n">
-        <v>8.0952626604453</v>
+        <v>3.852791250277304</v>
       </c>
       <c r="O29" t="n">
-        <v>8.009771493532755</v>
+        <v>3.812063286420023</v>
       </c>
       <c r="P29" t="n">
-        <v>8.694488128560344</v>
+        <v>4.13809108742376</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.042205300534839</v>
+        <v>4.303446539856539</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.899440656297419</v>
+        <v>2.807797744645124</v>
       </c>
       <c r="B30" t="n">
-        <v>5.811141777183563</v>
+        <v>2.765781732373157</v>
       </c>
       <c r="C30" t="n">
-        <v>5.789130138431008</v>
+        <v>2.755304142669115</v>
       </c>
       <c r="D30" t="n">
-        <v>5.639683909470842</v>
+        <v>2.684164149097811</v>
       </c>
       <c r="E30" t="n">
-        <v>5.704050817831853</v>
+        <v>2.714812600069483</v>
       </c>
       <c r="F30" t="n">
-        <v>5.992885491409532</v>
+        <v>2.852214053324107</v>
       </c>
       <c r="G30" t="n">
-        <v>6.080127156791074</v>
+        <v>2.893794461593886</v>
       </c>
       <c r="H30" t="n">
-        <v>6.57390541151802</v>
+        <v>3.128743498956672</v>
       </c>
       <c r="I30" t="n">
-        <v>6.770876521469612</v>
+        <v>3.222491022703802</v>
       </c>
       <c r="J30" t="n">
-        <v>6.785820659126967</v>
+        <v>3.229550751979811</v>
       </c>
       <c r="K30" t="n">
-        <v>6.801744978879229</v>
+        <v>3.236996433907196</v>
       </c>
       <c r="L30" t="n">
-        <v>7.201855188710073</v>
+        <v>3.427510110328477</v>
       </c>
       <c r="M30" t="n">
-        <v>7.284815836006316</v>
+        <v>3.467027100833089</v>
       </c>
       <c r="N30" t="n">
-        <v>8.099913066461168</v>
+        <v>3.854896525285889</v>
       </c>
       <c r="O30" t="n">
-        <v>7.98518263094279</v>
+        <v>3.800368083938495</v>
       </c>
       <c r="P30" t="n">
-        <v>8.735191160528625</v>
+        <v>4.157346574078444</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.91955273732985</v>
+        <v>4.245045581816405</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.639648123119605</v>
+        <v>2.684137302727894</v>
       </c>
       <c r="B31" t="n">
-        <v>5.561525305271982</v>
+        <v>2.646966049878535</v>
       </c>
       <c r="C31" t="n">
-        <v>5.542420852646211</v>
+        <v>2.637867728512764</v>
       </c>
       <c r="D31" t="n">
-        <v>5.50552815726221</v>
+        <v>2.620329832191425</v>
       </c>
       <c r="E31" t="n">
-        <v>5.562230114426858</v>
+        <v>2.647330929572878</v>
       </c>
       <c r="F31" t="n">
-        <v>5.95225645833703</v>
+        <v>2.832921328156314</v>
       </c>
       <c r="G31" t="n">
-        <v>6.007953971473729</v>
+        <v>2.859456511117934</v>
       </c>
       <c r="H31" t="n">
-        <v>6.529168226633143</v>
+        <v>3.107476555252788</v>
       </c>
       <c r="I31" t="n">
-        <v>6.634108972168985</v>
+        <v>3.157450062504411</v>
       </c>
       <c r="J31" t="n">
-        <v>6.857449770595841</v>
+        <v>3.263671910801925</v>
       </c>
       <c r="K31" t="n">
-        <v>6.770605394367865</v>
+        <v>3.222291551288619</v>
       </c>
       <c r="L31" t="n">
-        <v>7.145190230993316</v>
+        <v>3.400558375627191</v>
       </c>
       <c r="M31" t="n">
-        <v>7.215737260248506</v>
+        <v>3.434139431673896</v>
       </c>
       <c r="N31" t="n">
-        <v>8.01064249692897</v>
+        <v>3.812468002663275</v>
       </c>
       <c r="O31" t="n">
-        <v>7.982051021935365</v>
+        <v>3.798858047798374</v>
       </c>
       <c r="P31" t="n">
-        <v>8.721694247177238</v>
+        <v>4.150880640317676</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.850292803622549</v>
+        <v>4.21206294001525</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.488487182041681</v>
+        <v>2.612112533631934</v>
       </c>
       <c r="B32" t="n">
-        <v>5.412898523100317</v>
+        <v>2.576153697488464</v>
       </c>
       <c r="C32" t="n">
-        <v>5.390346449789247</v>
+        <v>2.565412840156858</v>
       </c>
       <c r="D32" t="n">
-        <v>5.369182765596518</v>
+        <v>2.55534285340251</v>
       </c>
       <c r="E32" t="n">
-        <v>5.435650757358985</v>
+        <v>2.587001940299735</v>
       </c>
       <c r="F32" t="n">
-        <v>5.847657806057082</v>
+        <v>2.783019122553823</v>
       </c>
       <c r="G32" t="n">
-        <v>5.907596305089562</v>
+        <v>2.811581350779432</v>
       </c>
       <c r="H32" t="n">
-        <v>6.525483445552355</v>
+        <v>3.105590958604485</v>
       </c>
       <c r="I32" t="n">
-        <v>6.669553230150365</v>
+        <v>3.174150525286755</v>
       </c>
       <c r="J32" t="n">
-        <v>6.604055715709586</v>
+        <v>3.142993436639897</v>
       </c>
       <c r="K32" t="n">
-        <v>6.661365434296942</v>
+        <v>3.170309473694238</v>
       </c>
       <c r="L32" t="n">
-        <v>7.096010079620083</v>
+        <v>3.377069245303798</v>
       </c>
       <c r="M32" t="n">
-        <v>7.176816873810502</v>
+        <v>3.415523061825602</v>
       </c>
       <c r="N32" t="n">
-        <v>7.978471173714985</v>
+        <v>3.797008246309959</v>
       </c>
       <c r="O32" t="n">
-        <v>7.939986895523416</v>
+        <v>3.778748962048615</v>
       </c>
       <c r="P32" t="n">
-        <v>8.802571400973481</v>
+        <v>4.189190987529284</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.928462932239606</v>
+        <v>4.248980740038951</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.338524780456043</v>
+        <v>2.54071908723497</v>
       </c>
       <c r="B33" t="n">
-        <v>5.255120746333453</v>
+        <v>2.501026296308003</v>
       </c>
       <c r="C33" t="n">
-        <v>5.243949945812489</v>
+        <v>2.495712158417831</v>
       </c>
       <c r="D33" t="n">
-        <v>5.218052758483223</v>
+        <v>2.483388231273105</v>
       </c>
       <c r="E33" t="n">
-        <v>5.255800687006961</v>
+        <v>2.501357978878258</v>
       </c>
       <c r="F33" t="n">
-        <v>5.658871459217282</v>
+        <v>2.693174137246437</v>
       </c>
       <c r="G33" t="n">
-        <v>5.703776657988477</v>
+        <v>2.714580220200854</v>
       </c>
       <c r="H33" t="n">
-        <v>6.15105327875005</v>
+        <v>2.927385043771852</v>
       </c>
       <c r="I33" t="n">
-        <v>6.184347929463889</v>
+        <v>2.943309559862425</v>
       </c>
       <c r="J33" t="n">
-        <v>6.40857368189846</v>
+        <v>3.049979713670475</v>
       </c>
       <c r="K33" t="n">
-        <v>6.386012510362499</v>
+        <v>3.039294281102566</v>
       </c>
       <c r="L33" t="n">
-        <v>6.903486788543455</v>
+        <v>3.285499452896961</v>
       </c>
       <c r="M33" t="n">
-        <v>6.975299077606797</v>
+        <v>3.319693356721429</v>
       </c>
       <c r="N33" t="n">
-        <v>7.799224012399061</v>
+        <v>3.711793538136495</v>
       </c>
       <c r="O33" t="n">
-        <v>7.817338578156709</v>
+        <v>3.720365324247136</v>
       </c>
       <c r="P33" t="n">
-        <v>8.773212642347415</v>
+        <v>4.175271000392447</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.872325671566516</v>
+        <v>4.222429391521253</v>
       </c>
     </row>
   </sheetData>
@@ -4027,1698 +4027,1698 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.92450520441209</v>
+        <v>8.741055070997824</v>
       </c>
       <c r="B2" t="n">
-        <v>12.97336509826917</v>
+        <v>8.781140454000983</v>
       </c>
       <c r="C2" t="n">
-        <v>12.87525833272299</v>
+        <v>8.748736596841567</v>
       </c>
       <c r="D2" t="n">
-        <v>13.03645825514546</v>
+        <v>8.873896682755724</v>
       </c>
       <c r="E2" t="n">
-        <v>12.78086728222224</v>
+        <v>8.779092624450605</v>
       </c>
       <c r="F2" t="n">
-        <v>13.14797701727738</v>
+        <v>8.979364812001078</v>
       </c>
       <c r="G2" t="n">
-        <v>12.64436600763675</v>
+        <v>8.649728339273453</v>
       </c>
       <c r="H2" t="n">
-        <v>13.19525018071349</v>
+        <v>8.991264393298742</v>
       </c>
       <c r="I2" t="n">
-        <v>12.5217377063648</v>
+        <v>8.509098393533431</v>
       </c>
       <c r="J2" t="n">
-        <v>12.90319958791107</v>
+        <v>8.92697224475056</v>
       </c>
       <c r="K2" t="n">
-        <v>12.68078559532642</v>
+        <v>8.239085110353736</v>
       </c>
       <c r="L2" t="n">
-        <v>13.0039521172555</v>
+        <v>8.829844387759152</v>
       </c>
       <c r="M2" t="n">
-        <v>12.67631290797009</v>
+        <v>8.571327701657735</v>
       </c>
       <c r="N2" t="n">
-        <v>12.90515631281092</v>
+        <v>8.818566603029224</v>
       </c>
       <c r="O2" t="n">
-        <v>12.65169796380211</v>
+        <v>8.314015349484167</v>
       </c>
       <c r="P2" t="n">
-        <v>12.88629872535386</v>
+        <v>8.796624747359061</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.70822220230722</v>
+        <v>8.144351487685816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12.92831554099637</v>
+        <v>8.693307214413441</v>
       </c>
       <c r="B3" t="n">
-        <v>12.97768614854399</v>
+        <v>8.742100058730042</v>
       </c>
       <c r="C3" t="n">
-        <v>12.87859920090291</v>
+        <v>8.69032582399953</v>
       </c>
       <c r="D3" t="n">
-        <v>13.03887716986977</v>
+        <v>8.837132744185416</v>
       </c>
       <c r="E3" t="n">
-        <v>12.78016611235732</v>
+        <v>8.692641539907779</v>
       </c>
       <c r="F3" t="n">
-        <v>13.14397137213211</v>
+        <v>8.916107259041922</v>
       </c>
       <c r="G3" t="n">
-        <v>12.63791839893078</v>
+        <v>8.575518044729805</v>
       </c>
       <c r="H3" t="n">
-        <v>13.20447214146284</v>
+        <v>8.945867470441209</v>
       </c>
       <c r="I3" t="n">
-        <v>12.51221247145242</v>
+        <v>8.42590351385785</v>
       </c>
       <c r="J3" t="n">
-        <v>12.91726544359229</v>
+        <v>8.891406289353927</v>
       </c>
       <c r="K3" t="n">
-        <v>12.69166707229586</v>
+        <v>8.179778303831915</v>
       </c>
       <c r="L3" t="n">
-        <v>12.98900191411488</v>
+        <v>8.77562915406078</v>
       </c>
       <c r="M3" t="n">
-        <v>12.66057055271565</v>
+        <v>8.50734038930989</v>
       </c>
       <c r="N3" t="n">
-        <v>12.875896421562</v>
+        <v>8.785819805144428</v>
       </c>
       <c r="O3" t="n">
-        <v>12.63348331757066</v>
+        <v>8.23634678062229</v>
       </c>
       <c r="P3" t="n">
-        <v>12.8544585775259</v>
+        <v>8.810629314994666</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.69270912232002</v>
+        <v>8.047308499863819</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12.92455130208487</v>
+        <v>8.662112887253473</v>
       </c>
       <c r="B4" t="n">
-        <v>12.97328018150352</v>
+        <v>8.711082975345651</v>
       </c>
       <c r="C4" t="n">
-        <v>12.8749162394671</v>
+        <v>8.662415414088658</v>
       </c>
       <c r="D4" t="n">
-        <v>13.0352136179804</v>
+        <v>8.799146574107311</v>
       </c>
       <c r="E4" t="n">
-        <v>12.77926114225484</v>
+        <v>8.664320062999481</v>
       </c>
       <c r="F4" t="n">
-        <v>13.1423324785551</v>
+        <v>8.880361173163271</v>
       </c>
       <c r="G4" t="n">
-        <v>12.64248206853602</v>
+        <v>8.529760283566947</v>
       </c>
       <c r="H4" t="n">
-        <v>13.20185913127419</v>
+        <v>8.910635795650629</v>
       </c>
       <c r="I4" t="n">
-        <v>12.51267102198692</v>
+        <v>8.373374694063243</v>
       </c>
       <c r="J4" t="n">
-        <v>12.89735852753115</v>
+        <v>8.863972763347373</v>
       </c>
       <c r="K4" t="n">
-        <v>12.68664242596282</v>
+        <v>8.128763272895803</v>
       </c>
       <c r="L4" t="n">
-        <v>12.98809937020571</v>
+        <v>8.758575069739219</v>
       </c>
       <c r="M4" t="n">
-        <v>12.66459560740735</v>
+        <v>8.482749691808003</v>
       </c>
       <c r="N4" t="n">
-        <v>12.87797566922372</v>
+        <v>8.769593628230604</v>
       </c>
       <c r="O4" t="n">
-        <v>12.6390502181072</v>
+        <v>8.196266016349439</v>
       </c>
       <c r="P4" t="n">
-        <v>12.85784675647525</v>
+        <v>8.810700327973153</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.69809891074535</v>
+        <v>8.027872882727118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12.9176730440674</v>
+        <v>8.719290459103236</v>
       </c>
       <c r="B5" t="n">
-        <v>12.96707033974137</v>
+        <v>8.74738677290901</v>
       </c>
       <c r="C5" t="n">
-        <v>12.86743992480014</v>
+        <v>8.694548498183757</v>
       </c>
       <c r="D5" t="n">
-        <v>13.03042431239786</v>
+        <v>8.764626183784186</v>
       </c>
       <c r="E5" t="n">
-        <v>12.77238167114072</v>
+        <v>8.632782795114133</v>
       </c>
       <c r="F5" t="n">
-        <v>13.1401161509717</v>
+        <v>8.840425321553839</v>
       </c>
       <c r="G5" t="n">
-        <v>12.63717113139308</v>
+        <v>8.47817079804876</v>
       </c>
       <c r="H5" t="n">
-        <v>13.20907826945091</v>
+        <v>8.860704434313067</v>
       </c>
       <c r="I5" t="n">
-        <v>12.51893181380847</v>
+        <v>8.299678233266377</v>
       </c>
       <c r="J5" t="n">
-        <v>12.92302280030321</v>
+        <v>8.819370262102842</v>
       </c>
       <c r="K5" t="n">
-        <v>12.68771116411333</v>
+        <v>8.068331228202661</v>
       </c>
       <c r="L5" t="n">
-        <v>12.98995783427674</v>
+        <v>8.699206487699527</v>
       </c>
       <c r="M5" t="n">
-        <v>12.66336552740211</v>
+        <v>8.422884596260186</v>
       </c>
       <c r="N5" t="n">
-        <v>12.88049527097016</v>
+        <v>8.717497237061096</v>
       </c>
       <c r="O5" t="n">
-        <v>12.63419297911214</v>
+        <v>8.168146031550835</v>
       </c>
       <c r="P5" t="n">
-        <v>12.86145329282197</v>
+        <v>8.782449864043343</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.68934763149702</v>
+        <v>8.018562099767173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.90858573704644</v>
+        <v>8.632725060985281</v>
       </c>
       <c r="B6" t="n">
-        <v>12.95922160440221</v>
+        <v>8.661849619625908</v>
       </c>
       <c r="C6" t="n">
-        <v>12.86010311624817</v>
+        <v>8.622078887624992</v>
       </c>
       <c r="D6" t="n">
-        <v>13.02666492587297</v>
+        <v>8.688129040396714</v>
       </c>
       <c r="E6" t="n">
-        <v>12.77144394742864</v>
+        <v>8.594013172907509</v>
       </c>
       <c r="F6" t="n">
-        <v>13.13675587324535</v>
+        <v>8.772569822572919</v>
       </c>
       <c r="G6" t="n">
-        <v>12.63840848997823</v>
+        <v>8.439565140768075</v>
       </c>
       <c r="H6" t="n">
-        <v>13.21293470370797</v>
+        <v>8.825856114138064</v>
       </c>
       <c r="I6" t="n">
-        <v>12.51523672140614</v>
+        <v>8.24415474420822</v>
       </c>
       <c r="J6" t="n">
-        <v>12.94456133136145</v>
+        <v>8.775409764371144</v>
       </c>
       <c r="K6" t="n">
-        <v>12.67633231751652</v>
+        <v>8.010697556734968</v>
       </c>
       <c r="L6" t="n">
-        <v>12.98170392465578</v>
+        <v>8.643778259953978</v>
       </c>
       <c r="M6" t="n">
-        <v>12.66083864707576</v>
+        <v>8.383422164507339</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87846454717452</v>
+        <v>8.666475278029523</v>
       </c>
       <c r="O6" t="n">
-        <v>12.64128838143034</v>
+        <v>8.121096180584273</v>
       </c>
       <c r="P6" t="n">
-        <v>12.85740518929388</v>
+        <v>8.742809611173632</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.69661529353982</v>
+        <v>7.990630328228626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.91248826897628</v>
+        <v>8.681085476676783</v>
       </c>
       <c r="B7" t="n">
-        <v>12.96384714193671</v>
+        <v>8.71489169582601</v>
       </c>
       <c r="C7" t="n">
-        <v>12.8622757723521</v>
+        <v>8.640935431449311</v>
       </c>
       <c r="D7" t="n">
-        <v>13.03129288960077</v>
+        <v>8.731327447627567</v>
       </c>
       <c r="E7" t="n">
-        <v>12.77005616485862</v>
+        <v>8.528563455075847</v>
       </c>
       <c r="F7" t="n">
-        <v>13.14067053614171</v>
+        <v>8.754795793664574</v>
       </c>
       <c r="G7" t="n">
-        <v>12.63587918345858</v>
+        <v>8.383325171170867</v>
       </c>
       <c r="H7" t="n">
-        <v>13.21268237960433</v>
+        <v>8.796756958514131</v>
       </c>
       <c r="I7" t="n">
-        <v>12.51374339942739</v>
+        <v>8.200784289273388</v>
       </c>
       <c r="J7" t="n">
-        <v>12.93377568902753</v>
+        <v>8.761816841074253</v>
       </c>
       <c r="K7" t="n">
-        <v>12.6852243159765</v>
+        <v>7.983269804141297</v>
       </c>
       <c r="L7" t="n">
-        <v>12.98769662211721</v>
+        <v>8.61038137577831</v>
       </c>
       <c r="M7" t="n">
-        <v>12.6616659789925</v>
+        <v>8.336987759354336</v>
       </c>
       <c r="N7" t="n">
-        <v>12.88163436872649</v>
+        <v>8.623833427800802</v>
       </c>
       <c r="O7" t="n">
-        <v>12.64289694759104</v>
+        <v>8.066663289220129</v>
       </c>
       <c r="P7" t="n">
-        <v>12.86257055483856</v>
+        <v>8.674765898932655</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.7042759988979</v>
+        <v>7.996549231118522</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.90609888890961</v>
+        <v>8.499633460449452</v>
       </c>
       <c r="B8" t="n">
-        <v>12.96044319273088</v>
+        <v>8.545204163034828</v>
       </c>
       <c r="C8" t="n">
-        <v>12.85691024585982</v>
+        <v>8.496620316264671</v>
       </c>
       <c r="D8" t="n">
-        <v>13.0390918879772</v>
+        <v>8.627595383636791</v>
       </c>
       <c r="E8" t="n">
-        <v>12.77140148904581</v>
+        <v>8.492102043340722</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15188561469048</v>
+        <v>8.706926118068314</v>
       </c>
       <c r="G8" t="n">
-        <v>12.63883064761316</v>
+        <v>8.343724177508776</v>
       </c>
       <c r="H8" t="n">
-        <v>13.19573178008438</v>
+        <v>8.750082956726395</v>
       </c>
       <c r="I8" t="n">
-        <v>12.54145780554152</v>
+        <v>8.1673331350166</v>
       </c>
       <c r="J8" t="n">
-        <v>12.98570229122114</v>
+        <v>8.713831697220289</v>
       </c>
       <c r="K8" t="n">
-        <v>12.67747748075612</v>
+        <v>7.946793381532671</v>
       </c>
       <c r="L8" t="n">
-        <v>13.01471228455972</v>
+        <v>8.549595998216592</v>
       </c>
       <c r="M8" t="n">
-        <v>12.6833573602289</v>
+        <v>8.27958156035432</v>
       </c>
       <c r="N8" t="n">
-        <v>12.88763677096114</v>
+        <v>8.564730422753829</v>
       </c>
       <c r="O8" t="n">
-        <v>12.6563793037826</v>
+        <v>8.02218029762232</v>
       </c>
       <c r="P8" t="n">
-        <v>12.8342338301419</v>
+        <v>8.537889248909295</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.69669535791886</v>
+        <v>7.985269714364728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12.90453763351835</v>
+        <v>8.410850494442297</v>
       </c>
       <c r="B9" t="n">
-        <v>12.95690580289333</v>
+        <v>8.454026962704186</v>
       </c>
       <c r="C9" t="n">
-        <v>12.85501781508252</v>
+        <v>8.422252984890546</v>
       </c>
       <c r="D9" t="n">
-        <v>13.0298711403245</v>
+        <v>8.566054266328402</v>
       </c>
       <c r="E9" t="n">
-        <v>12.76869749660826</v>
+        <v>8.458522719317882</v>
       </c>
       <c r="F9" t="n">
-        <v>13.1422135950832</v>
+        <v>8.676242737948686</v>
       </c>
       <c r="G9" t="n">
-        <v>12.6397974856449</v>
+        <v>8.309649494660388</v>
       </c>
       <c r="H9" t="n">
-        <v>13.21747047209021</v>
+        <v>8.717550929800929</v>
       </c>
       <c r="I9" t="n">
-        <v>12.51971183495577</v>
+        <v>8.130867681892456</v>
       </c>
       <c r="J9" t="n">
-        <v>12.94365150887236</v>
+        <v>8.67543792419249</v>
       </c>
       <c r="K9" t="n">
-        <v>12.66024665590953</v>
+        <v>7.922082597042771</v>
       </c>
       <c r="L9" t="n">
-        <v>12.99435167035069</v>
+        <v>8.504640741444776</v>
       </c>
       <c r="M9" t="n">
-        <v>12.67115846029527</v>
+        <v>8.233588821287036</v>
       </c>
       <c r="N9" t="n">
-        <v>12.89819677731776</v>
+        <v>8.489432417222611</v>
       </c>
       <c r="O9" t="n">
-        <v>12.65082089492263</v>
+        <v>7.978084702029109</v>
       </c>
       <c r="P9" t="n">
-        <v>12.87087662761557</v>
+        <v>8.420135874385547</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.6971502691634</v>
+        <v>7.970169352963515</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.90783968260539</v>
+        <v>8.424045629591397</v>
       </c>
       <c r="B10" t="n">
-        <v>12.96063971438852</v>
+        <v>8.457973667752501</v>
       </c>
       <c r="C10" t="n">
-        <v>12.85483827677801</v>
+        <v>8.424672622230728</v>
       </c>
       <c r="D10" t="n">
-        <v>13.03084768312945</v>
+        <v>8.531132046468468</v>
       </c>
       <c r="E10" t="n">
-        <v>12.7597011718362</v>
+        <v>8.435563010956061</v>
       </c>
       <c r="F10" t="n">
-        <v>13.14010887239179</v>
+        <v>8.645211798373369</v>
       </c>
       <c r="G10" t="n">
-        <v>12.62889417293572</v>
+        <v>8.271438738821049</v>
       </c>
       <c r="H10" t="n">
-        <v>13.22707941067158</v>
+        <v>8.684226790627616</v>
       </c>
       <c r="I10" t="n">
-        <v>12.52086427677528</v>
+        <v>8.103378153780914</v>
       </c>
       <c r="J10" t="n">
-        <v>12.96227011628896</v>
+        <v>8.632565137448362</v>
       </c>
       <c r="K10" t="n">
-        <v>12.6147142861692</v>
+        <v>7.913144199213921</v>
       </c>
       <c r="L10" t="n">
-        <v>12.99369174577194</v>
+        <v>8.467993425814747</v>
       </c>
       <c r="M10" t="n">
-        <v>12.66472055636252</v>
+        <v>8.192860280088466</v>
       </c>
       <c r="N10" t="n">
-        <v>12.90920441633902</v>
+        <v>8.462411690237346</v>
       </c>
       <c r="O10" t="n">
-        <v>12.65183868301375</v>
+        <v>7.915946036487103</v>
       </c>
       <c r="P10" t="n">
-        <v>12.89526229651631</v>
+        <v>8.328911909410532</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.70518824758029</v>
+        <v>7.939530428123103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12.90327601300015</v>
+        <v>8.365719148577481</v>
       </c>
       <c r="B11" t="n">
-        <v>12.95716419248023</v>
+        <v>8.400179495406601</v>
       </c>
       <c r="C11" t="n">
-        <v>12.85117472488863</v>
+        <v>8.369702803468263</v>
       </c>
       <c r="D11" t="n">
-        <v>13.03040490285143</v>
+        <v>8.491270671885255</v>
       </c>
       <c r="E11" t="n">
-        <v>12.75681036251422</v>
+        <v>8.400615965420721</v>
       </c>
       <c r="F11" t="n">
-        <v>13.13908744501071</v>
+        <v>8.612487516798828</v>
       </c>
       <c r="G11" t="n">
-        <v>12.62507170538492</v>
+        <v>8.241834986910952</v>
       </c>
       <c r="H11" t="n">
-        <v>13.2389265125761</v>
+        <v>8.653604608684569</v>
       </c>
       <c r="I11" t="n">
-        <v>12.51500623304224</v>
+        <v>8.080159219180548</v>
       </c>
       <c r="J11" t="n">
-        <v>13.00368038360542</v>
+        <v>8.604713039007631</v>
       </c>
       <c r="K11" t="n">
-        <v>12.60536737646468</v>
+        <v>7.890271092045377</v>
       </c>
       <c r="L11" t="n">
-        <v>12.98633674077019</v>
+        <v>8.418108829121557</v>
       </c>
       <c r="M11" t="n">
-        <v>12.65699798307518</v>
+        <v>8.141587754937675</v>
       </c>
       <c r="N11" t="n">
-        <v>12.90397718286507</v>
+        <v>8.411836016021798</v>
       </c>
       <c r="O11" t="n">
-        <v>12.65182897824053</v>
+        <v>7.851196056297127</v>
       </c>
       <c r="P11" t="n">
-        <v>12.8833666707457</v>
+        <v>8.276582849701752</v>
       </c>
       <c r="Q11" t="n">
-        <v>12.70615872490198</v>
+        <v>7.808764935638715</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12.89755262299549</v>
+        <v>8.306384629673813</v>
       </c>
       <c r="B12" t="n">
-        <v>12.95217351285344</v>
+        <v>8.34812351812729</v>
       </c>
       <c r="C12" t="n">
-        <v>12.84594991760799</v>
+        <v>8.319812433362186</v>
       </c>
       <c r="D12" t="n">
-        <v>13.02793018568112</v>
+        <v>8.459283077794863</v>
       </c>
       <c r="E12" t="n">
-        <v>12.75684190302718</v>
+        <v>8.359282370551783</v>
       </c>
       <c r="F12" t="n">
-        <v>13.13419138692279</v>
+        <v>8.558239374647011</v>
       </c>
       <c r="G12" t="n">
-        <v>12.6449980309925</v>
+        <v>8.206734945934153</v>
       </c>
       <c r="H12" t="n">
-        <v>13.24426413784539</v>
+        <v>8.62871484839523</v>
       </c>
       <c r="I12" t="n">
-        <v>12.53336159848533</v>
+        <v>8.062177924749625</v>
       </c>
       <c r="J12" t="n">
-        <v>13.02454564602173</v>
+        <v>8.571821905800707</v>
       </c>
       <c r="K12" t="n">
-        <v>12.53633004599304</v>
+        <v>7.84968573148636</v>
       </c>
       <c r="L12" t="n">
-        <v>12.97098136334777</v>
+        <v>8.370984501128774</v>
       </c>
       <c r="M12" t="n">
-        <v>12.65848281337736</v>
+        <v>8.102707860544944</v>
       </c>
       <c r="N12" t="n">
-        <v>12.89586156626245</v>
+        <v>8.328731778928516</v>
       </c>
       <c r="O12" t="n">
-        <v>12.65079178060298</v>
+        <v>7.812896967240645</v>
       </c>
       <c r="P12" t="n">
-        <v>12.88886199857977</v>
+        <v>8.285864188255983</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.70564437192148</v>
+        <v>7.667915022867767</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.89834962749593</v>
+        <v>8.274380292686052</v>
       </c>
       <c r="B13" t="n">
-        <v>12.95452570726188</v>
+        <v>8.313415491885396</v>
       </c>
       <c r="C13" t="n">
-        <v>12.84995434965661</v>
+        <v>8.291040630248844</v>
       </c>
       <c r="D13" t="n">
-        <v>13.03360990420631</v>
+        <v>8.416066772984065</v>
       </c>
       <c r="E13" t="n">
-        <v>12.76639867845251</v>
+        <v>8.331026710550377</v>
       </c>
       <c r="F13" t="n">
-        <v>13.14975177767942</v>
+        <v>8.516523579845073</v>
       </c>
       <c r="G13" t="n">
-        <v>12.63429245303762</v>
+        <v>8.167210738663435</v>
       </c>
       <c r="H13" t="n">
-        <v>13.21483683925848</v>
+        <v>8.603514478492666</v>
       </c>
       <c r="I13" t="n">
-        <v>12.51103940698983</v>
+        <v>8.026757459357698</v>
       </c>
       <c r="J13" t="n">
-        <v>13.03346797189801</v>
+        <v>8.570983028908488</v>
       </c>
       <c r="K13" t="n">
-        <v>12.5256742050009</v>
+        <v>7.834074423044808</v>
       </c>
       <c r="L13" t="n">
-        <v>13.00653480002784</v>
+        <v>8.324421348868432</v>
       </c>
       <c r="M13" t="n">
-        <v>12.67628015436048</v>
+        <v>8.050829704382497</v>
       </c>
       <c r="N13" t="n">
-        <v>12.90231524045168</v>
+        <v>8.306213159311122</v>
       </c>
       <c r="O13" t="n">
-        <v>12.65105866186644</v>
+        <v>7.754842413973623</v>
       </c>
       <c r="P13" t="n">
-        <v>12.8545192323585</v>
+        <v>8.307840684403457</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.69771921149324</v>
+        <v>7.560797429561116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.90089713046536</v>
+        <v>8.245031148284193</v>
       </c>
       <c r="B14" t="n">
-        <v>12.95683665638416</v>
+        <v>8.279272682764962</v>
       </c>
       <c r="C14" t="n">
-        <v>12.85283181491542</v>
+        <v>8.259002230125063</v>
       </c>
       <c r="D14" t="n">
-        <v>13.03536161577195</v>
+        <v>8.367079364653232</v>
       </c>
       <c r="E14" t="n">
-        <v>12.77057537022572</v>
+        <v>8.299682851996684</v>
       </c>
       <c r="F14" t="n">
-        <v>13.14729161766893</v>
+        <v>8.470686722925688</v>
       </c>
       <c r="G14" t="n">
-        <v>12.64464987225334</v>
+        <v>8.126411761827667</v>
       </c>
       <c r="H14" t="n">
-        <v>13.22632850384392</v>
+        <v>8.588699901029269</v>
       </c>
       <c r="I14" t="n">
-        <v>12.52496333036276</v>
+        <v>7.968368048143335</v>
       </c>
       <c r="J14" t="n">
-        <v>13.11457318786485</v>
+        <v>8.539191730856192</v>
       </c>
       <c r="K14" t="n">
-        <v>12.49341068644135</v>
+        <v>7.752955085301454</v>
       </c>
       <c r="L14" t="n">
-        <v>13.00950688682551</v>
+        <v>8.258432971614582</v>
       </c>
       <c r="M14" t="n">
-        <v>12.68939008987985</v>
+        <v>7.983832134556315</v>
       </c>
       <c r="N14" t="n">
-        <v>12.90667025743276</v>
+        <v>8.324545477245465</v>
       </c>
       <c r="O14" t="n">
-        <v>12.65652487538086</v>
+        <v>7.670993983959439</v>
       </c>
       <c r="P14" t="n">
-        <v>12.86233521408806</v>
+        <v>8.286588751573074</v>
       </c>
       <c r="Q14" t="n">
-        <v>12.70992539000678</v>
+        <v>7.54110200884458</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12.90167593851602</v>
+        <v>8.308026010957072</v>
       </c>
       <c r="B15" t="n">
-        <v>12.95807401496931</v>
+        <v>8.331595391719569</v>
       </c>
       <c r="C15" t="n">
-        <v>12.85426690825486</v>
+        <v>8.296633335310727</v>
       </c>
       <c r="D15" t="n">
-        <v>13.03866245176235</v>
+        <v>8.355630109560613</v>
       </c>
       <c r="E15" t="n">
-        <v>12.77380948590025</v>
+        <v>8.267386957658223</v>
       </c>
       <c r="F15" t="n">
-        <v>13.15253583449601</v>
+        <v>8.428506168386495</v>
       </c>
       <c r="G15" t="n">
-        <v>12.64926206572467</v>
+        <v>8.068804648059245</v>
       </c>
       <c r="H15" t="n">
-        <v>13.23270696604072</v>
+        <v>8.528482627295455</v>
       </c>
       <c r="I15" t="n">
-        <v>12.51714128314995</v>
+        <v>7.88705818777477</v>
       </c>
       <c r="J15" t="n">
-        <v>13.11376769168785</v>
+        <v>8.471093748534095</v>
       </c>
       <c r="K15" t="n">
-        <v>12.46463846004659</v>
+        <v>7.681906888995023</v>
       </c>
       <c r="L15" t="n">
-        <v>13.00863709652595</v>
+        <v>8.227217860168228</v>
       </c>
       <c r="M15" t="n">
-        <v>12.68884783567635</v>
+        <v>7.946075168969753</v>
       </c>
       <c r="N15" t="n">
-        <v>12.89600349857074</v>
+        <v>8.295379927373352</v>
       </c>
       <c r="O15" t="n">
-        <v>12.65182897824053</v>
+        <v>7.623000757327436</v>
       </c>
       <c r="P15" t="n">
-        <v>12.85384717681323</v>
+        <v>8.272736602037639</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.70642803235875</v>
+        <v>7.534238575606667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12.89976167199898</v>
+        <v>8.253443010857913</v>
       </c>
       <c r="B16" t="n">
-        <v>12.95363772051254</v>
+        <v>8.278523871113753</v>
       </c>
       <c r="C16" t="n">
-        <v>12.85084961498587</v>
+        <v>8.241919856080363</v>
       </c>
       <c r="D16" t="n">
-        <v>13.03091319034866</v>
+        <v>8.304129534600857</v>
       </c>
       <c r="E16" t="n">
-        <v>12.76488352073402</v>
+        <v>8.200794681416582</v>
       </c>
       <c r="F16" t="n">
-        <v>13.14469073844681</v>
+        <v>8.371865523935055</v>
       </c>
       <c r="G16" t="n">
-        <v>12.63723542551564</v>
+        <v>8.004876224522832</v>
       </c>
       <c r="H16" t="n">
-        <v>13.26792680114146</v>
+        <v>8.422134629926399</v>
       </c>
       <c r="I16" t="n">
-        <v>12.50526870621574</v>
+        <v>7.826709280227172</v>
       </c>
       <c r="J16" t="n">
-        <v>13.08773221134024</v>
+        <v>8.347069870275742</v>
       </c>
       <c r="K16" t="n">
-        <v>12.44160782010626</v>
+        <v>7.614782304085368</v>
       </c>
       <c r="L16" t="n">
-        <v>12.99029507514603</v>
+        <v>8.18006466511102</v>
       </c>
       <c r="M16" t="n">
-        <v>12.66930970099745</v>
+        <v>7.886603820180705</v>
       </c>
       <c r="N16" t="n">
-        <v>12.92375065829448</v>
+        <v>8.236155103314502</v>
       </c>
       <c r="O16" t="n">
-        <v>12.63240851393689</v>
+        <v>7.519254837145734</v>
       </c>
       <c r="P16" t="n">
-        <v>12.89211794999403</v>
+        <v>8.269796202855213</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.72005110776195</v>
+        <v>7.392940068654539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12.89923640114862</v>
+        <v>8.204997725997</v>
       </c>
       <c r="B17" t="n">
-        <v>12.95331139751312</v>
+        <v>8.232736088203893</v>
       </c>
       <c r="C17" t="n">
-        <v>12.85079987802313</v>
+        <v>8.18609557221089</v>
       </c>
       <c r="D17" t="n">
-        <v>13.03101266427414</v>
+        <v>8.254348281998311</v>
       </c>
       <c r="E17" t="n">
-        <v>12.76672500145193</v>
+        <v>8.121256104121192</v>
       </c>
       <c r="F17" t="n">
-        <v>13.14966564781712</v>
+        <v>8.291114529933775</v>
       </c>
       <c r="G17" t="n">
-        <v>12.63858681518609</v>
+        <v>7.942112875706647</v>
       </c>
       <c r="H17" t="n">
-        <v>13.2657626367141</v>
+        <v>8.353854207757129</v>
       </c>
       <c r="I17" t="n">
-        <v>12.5005606781089</v>
+        <v>7.763264668690536</v>
       </c>
       <c r="J17" t="n">
-        <v>13.0782870408069</v>
+        <v>8.292548068353167</v>
       </c>
       <c r="K17" t="n">
-        <v>12.43976997867831</v>
+        <v>7.564205475187243</v>
       </c>
       <c r="L17" t="n">
-        <v>12.99551260384676</v>
+        <v>8.113320548110499</v>
       </c>
       <c r="M17" t="n">
-        <v>12.6720064148551</v>
+        <v>7.826767591697313</v>
       </c>
       <c r="N17" t="n">
-        <v>12.93545097550409</v>
+        <v>8.162697084469794</v>
       </c>
       <c r="O17" t="n">
-        <v>12.63944326142248</v>
+        <v>7.436234891880575</v>
       </c>
       <c r="P17" t="n">
-        <v>12.90013409267118</v>
+        <v>8.276758361453462</v>
       </c>
       <c r="Q17" t="n">
-        <v>12.72473972632236</v>
+        <v>7.269353237751596</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12.90165410277628</v>
+        <v>7.955261246211379</v>
       </c>
       <c r="B18" t="n">
-        <v>12.95515894371429</v>
+        <v>8.001006883207177</v>
       </c>
       <c r="C18" t="n">
-        <v>12.85315328552823</v>
+        <v>7.974154162536872</v>
       </c>
       <c r="D18" t="n">
-        <v>13.03246110167676</v>
+        <v>8.116886207908392</v>
       </c>
       <c r="E18" t="n">
-        <v>12.7685774000397</v>
+        <v>8.025325075620884</v>
       </c>
       <c r="F18" t="n">
-        <v>13.14972508955307</v>
+        <v>8.198420654038191</v>
       </c>
       <c r="G18" t="n">
-        <v>12.6389919894679</v>
+        <v>7.851695456511695</v>
       </c>
       <c r="H18" t="n">
-        <v>13.26550546022385</v>
+        <v>8.28844605849824</v>
       </c>
       <c r="I18" t="n">
-        <v>12.49950892331152</v>
+        <v>7.650027257725585</v>
       </c>
       <c r="J18" t="n">
-        <v>13.07474358548609</v>
+        <v>8.174959236096647</v>
       </c>
       <c r="K18" t="n">
-        <v>12.42790953271062</v>
+        <v>7.426310972472223</v>
       </c>
       <c r="L18" t="n">
-        <v>12.99600148179756</v>
+        <v>8.017767100812883</v>
       </c>
       <c r="M18" t="n">
-        <v>12.67296233501696</v>
+        <v>7.725189588054</v>
       </c>
       <c r="N18" t="n">
-        <v>12.93040570652796</v>
+        <v>8.091756850984316</v>
       </c>
       <c r="O18" t="n">
-        <v>12.64033124817183</v>
+        <v>7.413591566544862</v>
       </c>
       <c r="P18" t="n">
-        <v>12.89643414788224</v>
+        <v>8.290470217055788</v>
       </c>
       <c r="Q18" t="n">
-        <v>12.72303289933284</v>
+        <v>7.159187282441565</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12.90247658230641</v>
+        <v>7.863724362257988</v>
       </c>
       <c r="B19" t="n">
-        <v>12.95643754758561</v>
+        <v>7.902948352058677</v>
       </c>
       <c r="C19" t="n">
-        <v>12.85370039211833</v>
+        <v>7.880182630369797</v>
       </c>
       <c r="D19" t="n">
-        <v>13.03350557789422</v>
+        <v>8.008933779098543</v>
       </c>
       <c r="E19" t="n">
-        <v>12.76826563420011</v>
+        <v>7.927838112348017</v>
       </c>
       <c r="F19" t="n">
-        <v>13.15004656016588</v>
+        <v>8.082581165885884</v>
       </c>
       <c r="G19" t="n">
-        <v>12.64072307839046</v>
+        <v>7.749430416735046</v>
       </c>
       <c r="H19" t="n">
-        <v>13.26772178780726</v>
+        <v>8.234737153109899</v>
       </c>
       <c r="I19" t="n">
-        <v>12.51052384091269</v>
+        <v>7.530451794095271</v>
       </c>
       <c r="J19" t="n">
-        <v>13.07228585166891</v>
+        <v>8.05876121900417</v>
       </c>
       <c r="K19" t="n">
-        <v>12.43517234236681</v>
+        <v>7.289580389794858</v>
       </c>
       <c r="L19" t="n">
-        <v>12.99630718215389</v>
+        <v>7.944330443595849</v>
       </c>
       <c r="M19" t="n">
-        <v>12.67385881344287</v>
+        <v>7.656399950868257</v>
       </c>
       <c r="N19" t="n">
-        <v>12.92943158991632</v>
+        <v>8.040557070835879</v>
       </c>
       <c r="O19" t="n">
-        <v>12.63620186716804</v>
+        <v>7.308549515170436</v>
       </c>
       <c r="P19" t="n">
-        <v>12.89639411569272</v>
+        <v>8.297847484040483</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.72178462287782</v>
+        <v>7.077748097624371</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12.90396505189855</v>
+        <v>7.750507158238134</v>
       </c>
       <c r="B20" t="n">
-        <v>12.95798545891371</v>
+        <v>7.795685846088607</v>
       </c>
       <c r="C20" t="n">
-        <v>12.85568623133783</v>
+        <v>7.761842099755626</v>
       </c>
       <c r="D20" t="n">
-        <v>13.03500375225958</v>
+        <v>7.910545586074297</v>
       </c>
       <c r="E20" t="n">
-        <v>12.77115523042543</v>
+        <v>7.796057653878413</v>
       </c>
       <c r="F20" t="n">
-        <v>13.1508035324768</v>
+        <v>7.976383277251844</v>
       </c>
       <c r="G20" t="n">
-        <v>12.64621598003122</v>
+        <v>7.639082021577842</v>
       </c>
       <c r="H20" t="n">
-        <v>13.26637161123346</v>
+        <v>8.136030267694393</v>
       </c>
       <c r="I20" t="n">
-        <v>12.51992776615985</v>
+        <v>7.442456321605656</v>
       </c>
       <c r="J20" t="n">
-        <v>13.06567447491491</v>
+        <v>7.968765258949836</v>
       </c>
       <c r="K20" t="n">
-        <v>12.43748329148908</v>
+        <v>7.191186423357728</v>
       </c>
       <c r="L20" t="n">
-        <v>12.9906480862718</v>
+        <v>7.834590566156744</v>
       </c>
       <c r="M20" t="n">
-        <v>12.67162186321638</v>
+        <v>7.547504723734255</v>
       </c>
       <c r="N20" t="n">
-        <v>12.91263384057453</v>
+        <v>7.952779833353324</v>
       </c>
       <c r="O20" t="n">
-        <v>12.62989133838376</v>
+        <v>7.227896091846916</v>
       </c>
       <c r="P20" t="n">
-        <v>12.88215357409359</v>
+        <v>8.217909386573437</v>
       </c>
       <c r="Q20" t="n">
-        <v>12.71586835050547</v>
+        <v>7.061744197106625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12.90661324189011</v>
+        <v>7.621978285905469</v>
       </c>
       <c r="B21" t="n">
-        <v>12.96088718610556</v>
+        <v>7.671127927138374</v>
       </c>
       <c r="C21" t="n">
-        <v>12.85856369659664</v>
+        <v>7.649631778942949</v>
       </c>
       <c r="D21" t="n">
-        <v>13.03794187235099</v>
+        <v>7.794561185258572</v>
       </c>
       <c r="E21" t="n">
-        <v>12.77298336708017</v>
+        <v>7.713195900126308</v>
       </c>
       <c r="F21" t="n">
-        <v>13.15147801421537</v>
+        <v>7.905218458005133</v>
       </c>
       <c r="G21" t="n">
-        <v>12.64554028519599</v>
+        <v>7.535455611042865</v>
       </c>
       <c r="H21" t="n">
-        <v>13.26235262202501</v>
+        <v>8.004875647181542</v>
       </c>
       <c r="I21" t="n">
-        <v>12.52364226810861</v>
+        <v>7.346927122642156</v>
       </c>
       <c r="J21" t="n">
-        <v>13.05669877278594</v>
+        <v>7.888070267053543</v>
       </c>
       <c r="K21" t="n">
-        <v>12.43604941124629</v>
+        <v>7.146097800748263</v>
       </c>
       <c r="L21" t="n">
-        <v>12.99005488200891</v>
+        <v>7.770484898844755</v>
       </c>
       <c r="M21" t="n">
-        <v>12.66985802068421</v>
+        <v>7.466379035236726</v>
       </c>
       <c r="N21" t="n">
-        <v>12.91133825335008</v>
+        <v>7.83749632486186</v>
       </c>
       <c r="O21" t="n">
-        <v>12.62575831809002</v>
+        <v>7.174297458644682</v>
       </c>
       <c r="P21" t="n">
-        <v>12.88160404131019</v>
+        <v>8.115685915369561</v>
       </c>
       <c r="Q21" t="n">
-        <v>12.71523147476312</v>
+        <v>7.063915000351456</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12.90858695014309</v>
+        <v>7.527846252860185</v>
       </c>
       <c r="B22" t="n">
-        <v>12.96234654137804</v>
+        <v>7.576407583320091</v>
       </c>
       <c r="C22" t="n">
-        <v>12.85999515064613</v>
+        <v>7.541606027789457</v>
       </c>
       <c r="D22" t="n">
-        <v>13.03772351495362</v>
+        <v>7.701971808136211</v>
       </c>
       <c r="E22" t="n">
-        <v>12.77298579327347</v>
+        <v>7.58897572582986</v>
       </c>
       <c r="F22" t="n">
-        <v>13.15148407969863</v>
+        <v>7.825815555912545</v>
       </c>
       <c r="G22" t="n">
-        <v>12.64185004518027</v>
+        <v>7.429830444967035</v>
       </c>
       <c r="H22" t="n">
-        <v>13.25980147976562</v>
+        <v>7.943883581438535</v>
       </c>
       <c r="I22" t="n">
-        <v>12.52336932136189</v>
+        <v>7.247223746162665</v>
       </c>
       <c r="J22" t="n">
-        <v>13.06118723039875</v>
+        <v>7.817005327849746</v>
       </c>
       <c r="K22" t="n">
-        <v>12.44313996117787</v>
+        <v>7.07517546484273</v>
       </c>
       <c r="L22" t="n">
-        <v>12.99686278042056</v>
+        <v>7.674079873146572</v>
       </c>
       <c r="M22" t="n">
-        <v>12.67420697218203</v>
+        <v>7.361384903189248</v>
       </c>
       <c r="N22" t="n">
-        <v>12.90878589799404</v>
+        <v>7.770796663140555</v>
       </c>
       <c r="O22" t="n">
-        <v>12.62412063760967</v>
+        <v>7.058228766000833</v>
       </c>
       <c r="P22" t="n">
-        <v>12.87591825730174</v>
+        <v>7.930186159368423</v>
       </c>
       <c r="Q22" t="n">
-        <v>12.70936857864346</v>
+        <v>7.042759483516257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12.91349271300423</v>
+        <v>7.427920599984614</v>
       </c>
       <c r="B23" t="n">
-        <v>12.97166312366626</v>
+        <v>7.473516705586686</v>
       </c>
       <c r="C23" t="n">
-        <v>12.86580588360975</v>
+        <v>7.448307675564795</v>
       </c>
       <c r="D23" t="n">
-        <v>13.05105180787036</v>
+        <v>7.60127829134691</v>
       </c>
       <c r="E23" t="n">
-        <v>12.78039538762456</v>
+        <v>7.504719692865981</v>
       </c>
       <c r="F23" t="n">
-        <v>13.15022245918044</v>
+        <v>7.721410889320644</v>
       </c>
       <c r="G23" t="n">
-        <v>12.65762636714097</v>
+        <v>7.365785398490339</v>
       </c>
       <c r="H23" t="n">
-        <v>13.22575470912748</v>
+        <v>7.824439751622005</v>
       </c>
       <c r="I23" t="n">
-        <v>12.54036601855462</v>
+        <v>7.187958508213618</v>
       </c>
       <c r="J23" t="n">
-        <v>13.0664193162593</v>
+        <v>7.77552682031739</v>
       </c>
       <c r="K23" t="n">
-        <v>12.46778280656886</v>
+        <v>6.99168036769712</v>
       </c>
       <c r="L23" t="n">
-        <v>12.98785068539203</v>
+        <v>7.594469128190117</v>
       </c>
       <c r="M23" t="n">
-        <v>12.67148235710138</v>
+        <v>7.305184770140948</v>
       </c>
       <c r="N23" t="n">
-        <v>12.90461891099404</v>
+        <v>7.740231637985073</v>
       </c>
       <c r="O23" t="n">
-        <v>12.65274607930953</v>
+        <v>6.966457481484304</v>
       </c>
       <c r="P23" t="n">
-        <v>12.91120966510496</v>
+        <v>7.78866768538537</v>
       </c>
       <c r="Q23" t="n">
-        <v>12.72640288183241</v>
+        <v>6.964996808024351</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12.91368923466187</v>
+        <v>7.358008611333989</v>
       </c>
       <c r="B24" t="n">
-        <v>12.9712009338418</v>
+        <v>7.408370091931497</v>
       </c>
       <c r="C24" t="n">
-        <v>12.8658070967064</v>
+        <v>7.354554955746068</v>
       </c>
       <c r="D24" t="n">
-        <v>13.04827260344037</v>
+        <v>7.522148471683791</v>
       </c>
       <c r="E24" t="n">
-        <v>12.7780310622496</v>
+        <v>7.364467905669938</v>
       </c>
       <c r="F24" t="n">
-        <v>13.14441415241013</v>
+        <v>7.618248661181636</v>
       </c>
       <c r="G24" t="n">
-        <v>12.65567570772438</v>
+        <v>7.249426303178365</v>
       </c>
       <c r="H24" t="n">
-        <v>13.22261521499181</v>
+        <v>7.753600552862018</v>
       </c>
       <c r="I24" t="n">
-        <v>12.54204130503118</v>
+        <v>7.050083057761119</v>
       </c>
       <c r="J24" t="n">
-        <v>13.0645196069021</v>
+        <v>7.734854858565096</v>
       </c>
       <c r="K24" t="n">
-        <v>12.47636425228589</v>
+        <v>6.873399880576955</v>
       </c>
       <c r="L24" t="n">
-        <v>12.97747143043656</v>
+        <v>7.446062972635033</v>
       </c>
       <c r="M24" t="n">
-        <v>12.66395145308508</v>
+        <v>7.153151179270099</v>
       </c>
       <c r="N24" t="n">
-        <v>12.88420370743566</v>
+        <v>7.704640279571746</v>
       </c>
       <c r="O24" t="n">
-        <v>12.64378493434038</v>
+        <v>6.826512262512465</v>
       </c>
       <c r="P24" t="n">
-        <v>12.89070347929767</v>
+        <v>7.619985303777501</v>
       </c>
       <c r="Q24" t="n">
-        <v>12.72382869073663</v>
+        <v>6.842553112872675</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12.91031197358239</v>
+        <v>7.313216742146824</v>
       </c>
       <c r="B25" t="n">
-        <v>12.96770478929042</v>
+        <v>7.349235333113655</v>
       </c>
       <c r="C25" t="n">
-        <v>12.86321228296753</v>
+        <v>7.294781657463125</v>
       </c>
       <c r="D25" t="n">
-        <v>13.04539513818156</v>
+        <v>7.408148970217994</v>
       </c>
       <c r="E25" t="n">
-        <v>12.7777423452464</v>
+        <v>7.264518581801538</v>
       </c>
       <c r="F25" t="n">
-        <v>13.14179992912483</v>
+        <v>7.497022001466158</v>
       </c>
       <c r="G25" t="n">
-        <v>12.6573546334909</v>
+        <v>7.115570880117824</v>
       </c>
       <c r="H25" t="n">
-        <v>13.2109731264215</v>
+        <v>7.652871240912829</v>
       </c>
       <c r="I25" t="n">
-        <v>12.54698831317849</v>
+        <v>6.817535760158573</v>
       </c>
       <c r="J25" t="n">
-        <v>13.04847761677458</v>
+        <v>7.637008211669482</v>
       </c>
       <c r="K25" t="n">
-        <v>12.49317413259419</v>
+        <v>6.525685697423225</v>
       </c>
       <c r="L25" t="n">
-        <v>12.97339906497543</v>
+        <v>7.361421853031713</v>
       </c>
       <c r="M25" t="n">
-        <v>12.66285845300153</v>
+        <v>7.064785631014543</v>
       </c>
       <c r="N25" t="n">
-        <v>12.88463920913377</v>
+        <v>7.545809072369875</v>
       </c>
       <c r="O25" t="n">
-        <v>12.64552936732612</v>
+        <v>6.712144994645882</v>
       </c>
       <c r="P25" t="n">
-        <v>12.88573463541062</v>
+        <v>7.617067998246615</v>
       </c>
       <c r="Q25" t="n">
-        <v>12.71839887012178</v>
+        <v>6.692249813843518</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12.90742480355037</v>
+        <v>7.047621274506874</v>
       </c>
       <c r="B26" t="n">
-        <v>12.96430690556786</v>
+        <v>7.087062344632047</v>
       </c>
       <c r="C26" t="n">
-        <v>12.85867044910203</v>
+        <v>7.065007330069334</v>
       </c>
       <c r="D26" t="n">
-        <v>13.04199968065231</v>
+        <v>7.204182375762289</v>
       </c>
       <c r="E26" t="n">
-        <v>12.77414430057624</v>
+        <v>7.138737854002223</v>
       </c>
       <c r="F26" t="n">
-        <v>13.14030418095277</v>
+        <v>7.376725438566485</v>
       </c>
       <c r="G26" t="n">
-        <v>12.65759603972467</v>
+        <v>6.96829515880566</v>
       </c>
       <c r="H26" t="n">
-        <v>13.21287768816532</v>
+        <v>7.635841404925385</v>
       </c>
       <c r="I26" t="n">
-        <v>12.550640947198</v>
+        <v>6.667271142995746</v>
       </c>
       <c r="J26" t="n">
-        <v>13.05745331890355</v>
+        <v>7.583158435006743</v>
       </c>
       <c r="K26" t="n">
-        <v>12.51038312170104</v>
+        <v>6.378546805996439</v>
       </c>
       <c r="L26" t="n">
-        <v>12.98166389246626</v>
+        <v>7.305751719286273</v>
       </c>
       <c r="M26" t="n">
-        <v>12.67177471339454</v>
+        <v>6.979182083483262</v>
       </c>
       <c r="N26" t="n">
-        <v>12.91398886953494</v>
+        <v>7.398142491005384</v>
       </c>
       <c r="O26" t="n">
-        <v>12.65928345716776</v>
+        <v>6.578738165766519</v>
       </c>
       <c r="P26" t="n">
-        <v>12.91704587309826</v>
+        <v>7.6881335147917</v>
       </c>
       <c r="Q26" t="n">
-        <v>12.71079032791974</v>
+        <v>6.485322613260288</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12.9080143685233</v>
+        <v>6.879237955686458</v>
       </c>
       <c r="B27" t="n">
-        <v>12.96508450052186</v>
+        <v>6.93200694945709</v>
       </c>
       <c r="C27" t="n">
-        <v>12.86007400192852</v>
+        <v>6.903938925374453</v>
       </c>
       <c r="D27" t="n">
-        <v>13.04266324452101</v>
+        <v>7.055909586044852</v>
       </c>
       <c r="E27" t="n">
-        <v>12.77522274349996</v>
+        <v>6.965618604592086</v>
       </c>
       <c r="F27" t="n">
-        <v>13.13921482015918</v>
+        <v>7.222108822770802</v>
       </c>
       <c r="G27" t="n">
-        <v>12.65606511174971</v>
+        <v>6.839422768406326</v>
       </c>
       <c r="H27" t="n">
-        <v>13.20871434045527</v>
+        <v>7.509777779894696</v>
       </c>
       <c r="I27" t="n">
-        <v>12.55109343224923</v>
+        <v>6.582771472008113</v>
       </c>
       <c r="J27" t="n">
-        <v>13.06171856673237</v>
+        <v>7.517651560387518</v>
       </c>
       <c r="K27" t="n">
-        <v>12.52023831890279</v>
+        <v>6.395320302451781</v>
       </c>
       <c r="L27" t="n">
-        <v>12.97285802386859</v>
+        <v>7.177930667373333</v>
       </c>
       <c r="M27" t="n">
-        <v>12.66441849529614</v>
+        <v>6.86396035050967</v>
       </c>
       <c r="N27" t="n">
-        <v>12.89286885682169</v>
+        <v>7.334501006089363</v>
       </c>
       <c r="O27" t="n">
-        <v>12.65751233605567</v>
+        <v>6.481716539572199</v>
       </c>
       <c r="P27" t="n">
-        <v>12.88630600393377</v>
+        <v>7.692397757548702</v>
       </c>
       <c r="Q27" t="n">
-        <v>12.71477292422862</v>
+        <v>6.294608888082536</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12.89661853857337</v>
+        <v>6.729245843611812</v>
       </c>
       <c r="B28" t="n">
-        <v>12.95287346962171</v>
+        <v>6.788190079804443</v>
       </c>
       <c r="C28" t="n">
-        <v>12.85115895463216</v>
+        <v>6.739155329487952</v>
       </c>
       <c r="D28" t="n">
-        <v>13.03008707152858</v>
+        <v>6.924141829083596</v>
       </c>
       <c r="E28" t="n">
-        <v>12.77766470706066</v>
+        <v>6.777478089537262</v>
       </c>
       <c r="F28" t="n">
-        <v>13.1450328317027</v>
+        <v>7.077773500641065</v>
       </c>
       <c r="G28" t="n">
-        <v>12.65167855425567</v>
+        <v>6.682182713795614</v>
       </c>
       <c r="H28" t="n">
-        <v>13.23579187082704</v>
+        <v>7.427574195211503</v>
       </c>
       <c r="I28" t="n">
-        <v>12.55545936710018</v>
+        <v>6.40364325446707</v>
       </c>
       <c r="J28" t="n">
-        <v>13.04788077322174</v>
+        <v>7.363086327966513</v>
       </c>
       <c r="K28" t="n">
-        <v>12.57161053592639</v>
+        <v>6.20833273795013</v>
       </c>
       <c r="L28" t="n">
-        <v>12.98858946125316</v>
+        <v>7.096861558322079</v>
       </c>
       <c r="M28" t="n">
-        <v>12.66319812006412</v>
+        <v>6.768245824992556</v>
       </c>
       <c r="N28" t="n">
-        <v>12.93802516659987</v>
+        <v>7.279898953727684</v>
       </c>
       <c r="O28" t="n">
-        <v>12.60561970056832</v>
+        <v>6.390242008477968</v>
       </c>
       <c r="P28" t="n">
-        <v>12.94765836711428</v>
+        <v>7.647544690184953</v>
       </c>
       <c r="Q28" t="n">
-        <v>12.63857832350953</v>
+        <v>6.147129942636813</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>12.90651862035124</v>
+        <v>6.564963957305034</v>
       </c>
       <c r="B29" t="n">
-        <v>12.96183704078416</v>
+        <v>6.607874848574205</v>
       </c>
       <c r="C29" t="n">
-        <v>12.8593449308406</v>
+        <v>6.566118639882072</v>
       </c>
       <c r="D29" t="n">
-        <v>13.0381444594919</v>
+        <v>6.711904243328568</v>
       </c>
       <c r="E29" t="n">
-        <v>12.77958989144756</v>
+        <v>6.611084288797082</v>
       </c>
       <c r="F29" t="n">
-        <v>13.1368432162043</v>
+        <v>6.920712421829793</v>
       </c>
       <c r="G29" t="n">
-        <v>12.65636838591273</v>
+        <v>6.548380406133616</v>
       </c>
       <c r="H29" t="n">
-        <v>13.22519061918424</v>
+        <v>7.26420624016445</v>
       </c>
       <c r="I29" t="n">
-        <v>12.55287911052114</v>
+        <v>6.251187049773026</v>
       </c>
       <c r="J29" t="n">
-        <v>13.03265155785114</v>
+        <v>7.282891890967366</v>
       </c>
       <c r="K29" t="n">
-        <v>12.59607141681956</v>
+        <v>5.949549320173416</v>
       </c>
       <c r="L29" t="n">
-        <v>12.97444111499959</v>
+        <v>6.991540651105298</v>
       </c>
       <c r="M29" t="n">
-        <v>12.6603995060877</v>
+        <v>6.676457797578659</v>
       </c>
       <c r="N29" t="n">
-        <v>12.97632262790701</v>
+        <v>7.222730619338537</v>
       </c>
       <c r="O29" t="n">
-        <v>12.6504872933433</v>
+        <v>6.280704200489845</v>
       </c>
       <c r="P29" t="n">
-        <v>12.99353283011051</v>
+        <v>7.54625131579688</v>
       </c>
       <c r="Q29" t="n">
-        <v>12.65211162976048</v>
+        <v>5.954700936490871</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>12.89716321897016</v>
+        <v>6.450801645595875</v>
       </c>
       <c r="B30" t="n">
-        <v>12.95302631979987</v>
+        <v>6.496344635799403</v>
       </c>
       <c r="C30" t="n">
-        <v>12.85273719337655</v>
+        <v>6.430251182431043</v>
       </c>
       <c r="D30" t="n">
-        <v>13.03232402175507</v>
+        <v>6.580964393775049</v>
       </c>
       <c r="E30" t="n">
-        <v>12.78069866178759</v>
+        <v>6.403133462109308</v>
       </c>
       <c r="F30" t="n">
-        <v>13.13918813203283</v>
+        <v>6.753453186498123</v>
       </c>
       <c r="G30" t="n">
-        <v>12.66135542624956</v>
+        <v>6.327523114941001</v>
       </c>
       <c r="H30" t="n">
-        <v>13.21440982923693</v>
+        <v>7.051288546371548</v>
       </c>
       <c r="I30" t="n">
-        <v>12.56320862851387</v>
+        <v>6.015975899465252</v>
       </c>
       <c r="J30" t="n">
-        <v>13.00836778906918</v>
+        <v>7.224464952569248</v>
       </c>
       <c r="K30" t="n">
-        <v>12.5744904273785</v>
+        <v>5.674913842637838</v>
       </c>
       <c r="L30" t="n">
-        <v>12.98598372964443</v>
+        <v>6.822378498886669</v>
       </c>
       <c r="M30" t="n">
-        <v>12.669569303681</v>
+        <v>6.488786660991402</v>
       </c>
       <c r="N30" t="n">
-        <v>12.98207149294137</v>
+        <v>7.067153307638759</v>
       </c>
       <c r="O30" t="n">
-        <v>12.64733324204781</v>
+        <v>6.143972463129903</v>
       </c>
       <c r="P30" t="n">
-        <v>13.01252507129596</v>
+        <v>7.428017593321085</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.64834253846237</v>
+        <v>5.823331545018692</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>12.89271479354687</v>
+        <v>6.220761741209365</v>
       </c>
       <c r="B31" t="n">
-        <v>12.94758679441181</v>
+        <v>6.271575857377072</v>
       </c>
       <c r="C31" t="n">
-        <v>12.84880554712706</v>
+        <v>6.227232582371085</v>
       </c>
       <c r="D31" t="n">
-        <v>13.02944534339961</v>
+        <v>6.409286765562343</v>
       </c>
       <c r="E31" t="n">
-        <v>12.7761944339183</v>
+        <v>6.292791417706278</v>
       </c>
       <c r="F31" t="n">
-        <v>13.14464949316064</v>
+        <v>6.592014706037301</v>
       </c>
       <c r="G31" t="n">
-        <v>12.66091021977824</v>
+        <v>6.228600303883587</v>
       </c>
       <c r="H31" t="n">
-        <v>13.2108590953362</v>
+        <v>6.973061688483672</v>
       </c>
       <c r="I31" t="n">
-        <v>12.56122642858432</v>
+        <v>5.909496845623702</v>
       </c>
       <c r="J31" t="n">
-        <v>13.04956697756817</v>
+        <v>7.152225701184603</v>
       </c>
       <c r="K31" t="n">
-        <v>12.53599523131706</v>
+        <v>5.564702277366013</v>
       </c>
       <c r="L31" t="n">
-        <v>12.99446691453264</v>
+        <v>6.646127172986317</v>
       </c>
       <c r="M31" t="n">
-        <v>12.67636749731944</v>
+        <v>6.347227773118153</v>
       </c>
       <c r="N31" t="n">
-        <v>12.95436557850381</v>
+        <v>6.922003934292211</v>
       </c>
       <c r="O31" t="n">
-        <v>12.63931224698405</v>
+        <v>6.05573046591009</v>
       </c>
       <c r="P31" t="n">
-        <v>12.97538005180833</v>
+        <v>7.345330196638113</v>
       </c>
       <c r="Q31" t="n">
-        <v>12.65664011956281</v>
+        <v>5.755786655650994</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.43308217683522</v>
+        <v>5.917158741863638</v>
       </c>
       <c r="B32" t="n">
-        <v>12.50503821785184</v>
+        <v>5.951401431026984</v>
       </c>
       <c r="C32" t="n">
-        <v>12.49472083082564</v>
+        <v>5.946514237019672</v>
       </c>
       <c r="D32" t="n">
-        <v>13.00198083519582</v>
+        <v>6.187908135186195</v>
       </c>
       <c r="E32" t="n">
-        <v>12.72885576326298</v>
+        <v>6.057970550109543</v>
       </c>
       <c r="F32" t="n">
-        <v>13.38802579589376</v>
+        <v>6.371659701765697</v>
       </c>
       <c r="G32" t="n">
-        <v>12.5767601312146</v>
+        <v>5.985571952529267</v>
       </c>
       <c r="H32" t="n">
-        <v>14.15604941731177</v>
+        <v>6.737162347359984</v>
       </c>
       <c r="I32" t="n">
-        <v>11.79982631488683</v>
+        <v>5.615808528225711</v>
       </c>
       <c r="J32" t="n">
-        <v>14.7198809709565</v>
+        <v>7.005598334139446</v>
       </c>
       <c r="K32" t="n">
-        <v>11.11286545105284</v>
+        <v>5.289147095157825</v>
       </c>
       <c r="L32" t="n">
-        <v>13.56438457408101</v>
+        <v>6.455550855035232</v>
       </c>
       <c r="M32" t="n">
-        <v>12.92166413205285</v>
+        <v>6.14970777149005</v>
       </c>
       <c r="N32" t="n">
-        <v>14.25245663444834</v>
+        <v>6.782937428761498</v>
       </c>
       <c r="O32" t="n">
-        <v>12.13578372791576</v>
+        <v>5.775892566023667</v>
       </c>
       <c r="P32" t="n">
-        <v>15.03694076433884</v>
+        <v>7.156162591431014</v>
       </c>
       <c r="Q32" t="n">
-        <v>11.77307146822453</v>
+        <v>5.603270407462944</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11.88486439019982</v>
+        <v>5.656345392116491</v>
       </c>
       <c r="B33" t="n">
-        <v>11.95886085978528</v>
+        <v>5.691564365398724</v>
       </c>
       <c r="C33" t="n">
-        <v>11.8959751424365</v>
+        <v>5.66160843530263</v>
       </c>
       <c r="D33" t="n">
-        <v>12.2316268551091</v>
+        <v>5.821358192494534</v>
       </c>
       <c r="E33" t="n">
-        <v>12.02624595261675</v>
+        <v>5.72354676341752</v>
       </c>
       <c r="F33" t="n">
-        <v>12.71609762577272</v>
+        <v>6.051933869596789</v>
       </c>
       <c r="G33" t="n">
-        <v>11.98436136450931</v>
+        <v>5.703646963884848</v>
       </c>
       <c r="H33" t="n">
-        <v>13.39115679835286</v>
+        <v>6.37319081086285</v>
       </c>
       <c r="I33" t="n">
-        <v>11.62317032801982</v>
+        <v>5.531692789194942</v>
       </c>
       <c r="J33" t="n">
-        <v>13.8782818244913</v>
+        <v>6.604871519191329</v>
       </c>
       <c r="K33" t="n">
-        <v>11.25444353512741</v>
+        <v>5.356192006969664</v>
       </c>
       <c r="L33" t="n">
-        <v>13.10286195278537</v>
+        <v>6.235975261503128</v>
       </c>
       <c r="M33" t="n">
-        <v>12.48823197683349</v>
+        <v>5.943452596166656</v>
       </c>
       <c r="N33" t="n">
-        <v>13.82271957163131</v>
+        <v>6.578582283618619</v>
       </c>
       <c r="O33" t="n">
-        <v>11.81193787186151</v>
+        <v>5.621651799406811</v>
       </c>
       <c r="P33" t="n">
-        <v>14.72753561083132</v>
+        <v>7.009201521121093</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.81851528190926</v>
+        <v>5.624858930264534</v>
       </c>
     </row>
   </sheetData>
@@ -5795,1698 +5795,1698 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.857455532804939</v>
+        <v>2.760123787745671</v>
       </c>
       <c r="B2" t="n">
-        <v>4.802915920422679</v>
+        <v>2.7378655490494</v>
       </c>
       <c r="C2" t="n">
-        <v>4.800401777611179</v>
+        <v>2.730232231203247</v>
       </c>
       <c r="D2" t="n">
-        <v>4.845119552949622</v>
+        <v>2.819911519560828</v>
       </c>
       <c r="E2" t="n">
-        <v>4.839536275608281</v>
+        <v>2.801180258796119</v>
       </c>
       <c r="F2" t="n">
-        <v>5.137478272301682</v>
+        <v>3.127551000525236</v>
       </c>
       <c r="G2" t="n">
-        <v>5.124185765736176</v>
+        <v>3.064688637678072</v>
       </c>
       <c r="H2" t="n">
-        <v>5.50461166274154</v>
+        <v>3.478182489209852</v>
       </c>
       <c r="I2" t="n">
-        <v>5.478134615212566</v>
+        <v>3.310424719675546</v>
       </c>
       <c r="J2" t="n">
-        <v>5.63196800821509</v>
+        <v>3.771964913237873</v>
       </c>
       <c r="K2" t="n">
-        <v>5.632055351174042</v>
+        <v>3.35307292065844</v>
       </c>
       <c r="L2" t="n">
-        <v>5.822929437352125</v>
+        <v>3.645624453059339</v>
       </c>
       <c r="M2" t="n">
-        <v>5.809217199344989</v>
+        <v>3.599115859550762</v>
       </c>
       <c r="N2" t="n">
-        <v>6.434048711592792</v>
+        <v>3.977970677124627</v>
       </c>
       <c r="O2" t="n">
-        <v>6.422281674067315</v>
+        <v>3.888023213738529</v>
       </c>
       <c r="P2" t="n">
-        <v>7.034509112099684</v>
+        <v>4.296323591709437</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.0290738325499</v>
+        <v>4.295633380199012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.864095417330269</v>
+        <v>2.753920832941824</v>
       </c>
       <c r="B3" t="n">
-        <v>4.81071188605747</v>
+        <v>2.73512144590507</v>
       </c>
       <c r="C3" t="n">
-        <v>4.807391033972316</v>
+        <v>2.727674609295108</v>
       </c>
       <c r="D3" t="n">
-        <v>4.855454529877282</v>
+        <v>2.825333908942598</v>
       </c>
       <c r="E3" t="n">
-        <v>4.847734989331573</v>
+        <v>2.803398981367898</v>
       </c>
       <c r="F3" t="n">
-        <v>5.151423424866024</v>
+        <v>3.128829811479306</v>
       </c>
       <c r="G3" t="n">
-        <v>5.135286206651318</v>
+        <v>3.066219169433936</v>
       </c>
       <c r="H3" t="n">
-        <v>5.503633300291614</v>
+        <v>3.488989452118994</v>
       </c>
       <c r="I3" t="n">
-        <v>5.480394614275449</v>
+        <v>3.325298185950371</v>
       </c>
       <c r="J3" t="n">
-        <v>5.62728727478292</v>
+        <v>3.797106971670296</v>
       </c>
       <c r="K3" t="n">
-        <v>5.646691968830088</v>
+        <v>3.372144812783375</v>
       </c>
       <c r="L3" t="n">
-        <v>5.849038916595511</v>
+        <v>3.650153406797126</v>
       </c>
       <c r="M3" t="n">
-        <v>5.833766029745433</v>
+        <v>3.607478648114959</v>
       </c>
       <c r="N3" t="n">
-        <v>6.449677642310264</v>
+        <v>3.988851539718699</v>
       </c>
       <c r="O3" t="n">
-        <v>6.435559016924669</v>
+        <v>3.90174834819049</v>
       </c>
       <c r="P3" t="n">
-        <v>7.037860898149466</v>
+        <v>4.286225603902596</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.031308356583089</v>
+        <v>4.294762172194638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.862913861191112</v>
+        <v>2.741334215510822</v>
       </c>
       <c r="B4" t="n">
-        <v>4.809197941435636</v>
+        <v>2.725428751682769</v>
       </c>
       <c r="C4" t="n">
-        <v>4.806652864659507</v>
+        <v>2.714186762112729</v>
       </c>
       <c r="D4" t="n">
-        <v>4.852301691678445</v>
+        <v>2.821079480987502</v>
       </c>
       <c r="E4" t="n">
-        <v>4.846514007551224</v>
+        <v>2.790597304306923</v>
       </c>
       <c r="F4" t="n">
-        <v>5.147192143743462</v>
+        <v>3.131005233454445</v>
       </c>
       <c r="G4" t="n">
-        <v>5.131107695233122</v>
+        <v>3.057158663922563</v>
       </c>
       <c r="H4" t="n">
-        <v>5.498100973009661</v>
+        <v>3.491304013344667</v>
       </c>
       <c r="I4" t="n">
-        <v>5.468387383612853</v>
+        <v>3.316326879668075</v>
       </c>
       <c r="J4" t="n">
-        <v>5.635100830319168</v>
+        <v>3.797130931333769</v>
       </c>
       <c r="K4" t="n">
-        <v>5.641172985611309</v>
+        <v>3.391431187196995</v>
       </c>
       <c r="L4" t="n">
-        <v>5.853961056261451</v>
+        <v>3.655192441563319</v>
       </c>
       <c r="M4" t="n">
-        <v>5.838105276470034</v>
+        <v>3.609034871558162</v>
       </c>
       <c r="N4" t="n">
-        <v>6.456537703877951</v>
+        <v>3.977227927556947</v>
       </c>
       <c r="O4" t="n">
-        <v>6.441982363697598</v>
+        <v>3.877389741886587</v>
       </c>
       <c r="P4" t="n">
-        <v>7.045752698419775</v>
+        <v>4.279722720299363</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.037677720554997</v>
+        <v>4.292745230403196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.866806688347737</v>
+        <v>2.828972891084133</v>
       </c>
       <c r="B5" t="n">
-        <v>4.813377665950485</v>
+        <v>2.802239968731196</v>
       </c>
       <c r="C5" t="n">
-        <v>4.811187419945099</v>
+        <v>2.794975571968406</v>
       </c>
       <c r="D5" t="n">
-        <v>4.856587562150353</v>
+        <v>2.856805359921054</v>
       </c>
       <c r="E5" t="n">
-        <v>4.852042695543219</v>
+        <v>2.836676067226197</v>
       </c>
       <c r="F5" t="n">
-        <v>5.149112475743753</v>
+        <v>3.148510798663628</v>
       </c>
       <c r="G5" t="n">
-        <v>5.139638797439092</v>
+        <v>3.076161852434165</v>
       </c>
       <c r="H5" t="n">
-        <v>5.50220063314547</v>
+        <v>3.486142293554663</v>
       </c>
       <c r="I5" t="n">
-        <v>5.487856371782583</v>
+        <v>3.308198202996373</v>
       </c>
       <c r="J5" t="n">
-        <v>5.630609339964726</v>
+        <v>3.775086020243606</v>
       </c>
       <c r="K5" t="n">
-        <v>5.645369693479287</v>
+        <v>3.405675351467334</v>
       </c>
       <c r="L5" t="n">
-        <v>5.850942871790999</v>
+        <v>3.642270677514332</v>
       </c>
       <c r="M5" t="n">
-        <v>5.838674218799874</v>
+        <v>3.601760082652179</v>
       </c>
       <c r="N5" t="n">
-        <v>6.449452006332971</v>
+        <v>3.962186743637807</v>
       </c>
       <c r="O5" t="n">
-        <v>6.439130373468484</v>
+        <v>3.883508982203599</v>
       </c>
       <c r="P5" t="n">
-        <v>7.036357264849175</v>
+        <v>4.274627683428183</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.033578060419188</v>
+        <v>4.29154118514599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.86194702315938</v>
+        <v>2.789256429164337</v>
       </c>
       <c r="B6" t="n">
-        <v>4.808758800447572</v>
+        <v>2.767310820775799</v>
       </c>
       <c r="C6" t="n">
-        <v>4.806325328563437</v>
+        <v>2.757981562894622</v>
       </c>
       <c r="D6" t="n">
-        <v>4.850112052221385</v>
+        <v>2.841237640746785</v>
       </c>
       <c r="E6" t="n">
-        <v>4.845226305455007</v>
+        <v>2.820523501326658</v>
       </c>
       <c r="F6" t="n">
-        <v>5.140231395153648</v>
+        <v>3.131172373757471</v>
       </c>
       <c r="G6" t="n">
-        <v>5.13166147385481</v>
+        <v>3.065573701873372</v>
       </c>
       <c r="H6" t="n">
-        <v>5.492465532512279</v>
+        <v>3.468919048235566</v>
       </c>
       <c r="I6" t="n">
-        <v>5.482397436848084</v>
+        <v>3.300158725553746</v>
       </c>
       <c r="J6" t="n">
-        <v>5.635862655016693</v>
+        <v>3.75660503692747</v>
       </c>
       <c r="K6" t="n">
-        <v>5.654636538804763</v>
+        <v>3.424265452287</v>
       </c>
       <c r="L6" t="n">
-        <v>5.847082798243982</v>
+        <v>3.636435489111271</v>
       </c>
       <c r="M6" t="n">
-        <v>5.835541396695798</v>
+        <v>3.594440261125691</v>
       </c>
       <c r="N6" t="n">
-        <v>6.448721115600074</v>
+        <v>3.945732228244373</v>
       </c>
       <c r="O6" t="n">
-        <v>6.439423336309969</v>
+        <v>3.884116056568477</v>
       </c>
       <c r="P6" t="n">
-        <v>7.037276792111475</v>
+        <v>4.299028724316792</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.035661553919189</v>
+        <v>4.29448042964584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.866818212765931</v>
+        <v>2.85625746303825</v>
       </c>
       <c r="B7" t="n">
-        <v>4.813492910132435</v>
+        <v>2.820678806133269</v>
       </c>
       <c r="C7" t="n">
-        <v>4.811065503731561</v>
+        <v>2.811049619452707</v>
       </c>
       <c r="D7" t="n">
-        <v>4.856125978874225</v>
+        <v>2.852601160658059</v>
       </c>
       <c r="E7" t="n">
-        <v>4.851305739327062</v>
+        <v>2.822772534316084</v>
       </c>
       <c r="F7" t="n">
-        <v>5.147652513922938</v>
+        <v>3.124379376156758</v>
       </c>
       <c r="G7" t="n">
-        <v>5.139857761384798</v>
+        <v>3.049160466382066</v>
       </c>
       <c r="H7" t="n">
-        <v>5.499986731755367</v>
+        <v>3.461907238286503</v>
       </c>
       <c r="I7" t="n">
-        <v>5.491579365407912</v>
+        <v>3.283337021100814</v>
       </c>
       <c r="J7" t="n">
-        <v>5.645652951547555</v>
+        <v>3.75439295378051</v>
       </c>
       <c r="K7" t="n">
-        <v>5.663901564485261</v>
+        <v>3.445312140289314</v>
       </c>
       <c r="L7" t="n">
-        <v>5.859201027250245</v>
+        <v>3.613449800391466</v>
       </c>
       <c r="M7" t="n">
-        <v>5.848215830517054</v>
+        <v>3.577386754145419</v>
       </c>
       <c r="N7" t="n">
-        <v>6.456801552399786</v>
+        <v>3.911306233221921</v>
       </c>
       <c r="O7" t="n">
-        <v>6.448039961829914</v>
+        <v>3.869246343012027</v>
       </c>
       <c r="P7" t="n">
-        <v>7.039116453184401</v>
+        <v>4.259175143840974</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.038719770579161</v>
+        <v>4.269674961184624</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.88034120769534</v>
+        <v>2.768351767118999</v>
       </c>
       <c r="B8" t="n">
-        <v>4.823927360985568</v>
+        <v>2.74340513871274</v>
       </c>
       <c r="C8" t="n">
-        <v>4.820742982273777</v>
+        <v>2.728129842901105</v>
       </c>
       <c r="D8" t="n">
-        <v>4.854490118038854</v>
+        <v>2.809360896183788</v>
       </c>
       <c r="E8" t="n">
-        <v>4.847143604713669</v>
+        <v>2.77289861843673</v>
       </c>
       <c r="F8" t="n">
-        <v>5.14447359414608</v>
+        <v>3.106477177482362</v>
       </c>
       <c r="G8" t="n">
-        <v>5.14000515262803</v>
+        <v>3.028025733833253</v>
       </c>
       <c r="H8" t="n">
-        <v>5.519512735467747</v>
+        <v>3.457189493947371</v>
       </c>
       <c r="I8" t="n">
-        <v>5.529548077522335</v>
+        <v>3.277112704669291</v>
       </c>
       <c r="J8" t="n">
-        <v>5.592007997946228</v>
+        <v>3.756364574280803</v>
       </c>
       <c r="K8" t="n">
-        <v>5.64096979192208</v>
+        <v>3.462171660596645</v>
       </c>
       <c r="L8" t="n">
-        <v>5.85533913405825</v>
+        <v>3.595806827955616</v>
       </c>
       <c r="M8" t="n">
-        <v>5.849052867207011</v>
+        <v>3.55069915308363</v>
       </c>
       <c r="N8" t="n">
-        <v>6.444425540354949</v>
+        <v>3.916499418112149</v>
       </c>
       <c r="O8" t="n">
-        <v>6.439383910668775</v>
+        <v>3.860204889763176</v>
       </c>
       <c r="P8" t="n">
-        <v>7.024578702905503</v>
+        <v>4.259101532826688</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.022825778243202</v>
+        <v>4.26918681912518</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.869757545953997</v>
+        <v>2.746883619976066</v>
       </c>
       <c r="B9" t="n">
-        <v>4.815677090654561</v>
+        <v>2.721470788479328</v>
       </c>
       <c r="C9" t="n">
-        <v>4.813434681493134</v>
+        <v>2.708377554067651</v>
       </c>
       <c r="D9" t="n">
-        <v>4.852209496332884</v>
+        <v>2.790301416896557</v>
       </c>
       <c r="E9" t="n">
-        <v>4.848154720773204</v>
+        <v>2.761007119917105</v>
       </c>
       <c r="F9" t="n">
-        <v>5.144129681245207</v>
+        <v>3.099149561848479</v>
       </c>
       <c r="G9" t="n">
-        <v>5.134509824793967</v>
+        <v>3.017369457000415</v>
       </c>
       <c r="H9" t="n">
-        <v>5.505951527993798</v>
+        <v>3.446872693792181</v>
       </c>
       <c r="I9" t="n">
-        <v>5.491368286590445</v>
+        <v>3.281131000037383</v>
       </c>
       <c r="J9" t="n">
-        <v>5.687084448055429</v>
+        <v>3.736402133218327</v>
       </c>
       <c r="K9" t="n">
-        <v>5.706184048294591</v>
+        <v>3.492140869542375</v>
       </c>
       <c r="L9" t="n">
-        <v>5.868540051826522</v>
+        <v>3.602148633339352</v>
       </c>
       <c r="M9" t="n">
-        <v>5.85650613303758</v>
+        <v>3.547235682693805</v>
       </c>
       <c r="N9" t="n">
-        <v>6.464961447030211</v>
+        <v>3.9544982896986</v>
       </c>
       <c r="O9" t="n">
-        <v>6.454473013376059</v>
+        <v>3.840357050946472</v>
       </c>
       <c r="P9" t="n">
-        <v>7.048780587663444</v>
+        <v>4.250445454887923</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.044093182199687</v>
+        <v>4.249448963823939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.87510669564148</v>
+        <v>2.766550750969464</v>
       </c>
       <c r="B10" t="n">
-        <v>4.820509461168245</v>
+        <v>2.738382846843913</v>
       </c>
       <c r="C10" t="n">
-        <v>4.818587916071301</v>
+        <v>2.727818655946594</v>
       </c>
       <c r="D10" t="n">
-        <v>4.85576083678194</v>
+        <v>2.791027712237514</v>
       </c>
       <c r="E10" t="n">
-        <v>4.852802700595767</v>
+        <v>2.768705677328861</v>
       </c>
       <c r="F10" t="n">
-        <v>5.150578503047829</v>
+        <v>3.09308949901354</v>
       </c>
       <c r="G10" t="n">
-        <v>5.14341274112381</v>
+        <v>3.015203561156536</v>
       </c>
       <c r="H10" t="n">
-        <v>5.514629414894674</v>
+        <v>3.445206486833515</v>
       </c>
       <c r="I10" t="n">
-        <v>5.503282108810827</v>
+        <v>3.290278395412677</v>
       </c>
       <c r="J10" t="n">
-        <v>5.700979257108709</v>
+        <v>3.725219032459715</v>
       </c>
       <c r="K10" t="n">
-        <v>5.724485430936664</v>
+        <v>3.496167247688506</v>
       </c>
       <c r="L10" t="n">
-        <v>5.882394828690281</v>
+        <v>3.608491593405665</v>
       </c>
       <c r="M10" t="n">
-        <v>5.871902755746174</v>
+        <v>3.551316908262346</v>
       </c>
       <c r="N10" t="n">
-        <v>6.467686668659178</v>
+        <v>3.993194012220294</v>
       </c>
       <c r="O10" t="n">
-        <v>6.459557101445056</v>
+        <v>3.859141715780368</v>
       </c>
       <c r="P10" t="n">
-        <v>7.046233084694011</v>
+        <v>4.272019255486654</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.043661926339862</v>
+        <v>4.234402006491914</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.879071095500579</v>
+        <v>2.784880759538652</v>
       </c>
       <c r="B11" t="n">
-        <v>4.824919674046995</v>
+        <v>2.759018756519446</v>
       </c>
       <c r="C11" t="n">
-        <v>4.822026438531711</v>
+        <v>2.748892190318824</v>
       </c>
       <c r="D11" t="n">
-        <v>4.859251522398389</v>
+        <v>2.80321076810784</v>
       </c>
       <c r="E11" t="n">
-        <v>4.854023075827791</v>
+        <v>2.783281524169455</v>
       </c>
       <c r="F11" t="n">
-        <v>5.156255795379709</v>
+        <v>3.097954176710601</v>
       </c>
       <c r="G11" t="n">
-        <v>5.146834280231089</v>
+        <v>3.01765783897403</v>
       </c>
       <c r="H11" t="n">
-        <v>5.516816021610103</v>
+        <v>3.449048404437965</v>
       </c>
       <c r="I11" t="n">
-        <v>5.510875487304716</v>
+        <v>3.296974111006275</v>
       </c>
       <c r="J11" t="n">
-        <v>5.704702250734037</v>
+        <v>3.750303934104575</v>
       </c>
       <c r="K11" t="n">
-        <v>5.755171923848464</v>
+        <v>3.519588251739854</v>
       </c>
       <c r="L11" t="n">
-        <v>5.894679251937884</v>
+        <v>3.62593826980342</v>
       </c>
       <c r="M11" t="n">
-        <v>5.883072949718811</v>
+        <v>3.558939545294661</v>
       </c>
       <c r="N11" t="n">
-        <v>6.473954739060636</v>
+        <v>4.012184787894192</v>
       </c>
       <c r="O11" t="n">
-        <v>6.463333471323078</v>
+        <v>3.85911948814076</v>
       </c>
       <c r="P11" t="n">
-        <v>7.047724587027782</v>
+        <v>4.304395688934864</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.042263832448303</v>
+        <v>4.23699398020672</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.877012470481946</v>
+        <v>2.763393560133198</v>
       </c>
       <c r="B12" t="n">
-        <v>4.823728413134622</v>
+        <v>2.737987945402566</v>
       </c>
       <c r="C12" t="n">
-        <v>4.821432021172176</v>
+        <v>2.725644388654031</v>
       </c>
       <c r="D12" t="n">
-        <v>4.857938951820805</v>
+        <v>2.804866582923313</v>
       </c>
       <c r="E12" t="n">
-        <v>4.855278630862726</v>
+        <v>2.778568398560631</v>
       </c>
       <c r="F12" t="n">
-        <v>5.151051004193826</v>
+        <v>3.11259208773971</v>
       </c>
       <c r="G12" t="n">
-        <v>5.138104230174172</v>
+        <v>3.036383326325853</v>
       </c>
       <c r="H12" t="n">
-        <v>5.501098534837027</v>
+        <v>3.453048802226113</v>
       </c>
       <c r="I12" t="n">
-        <v>5.472050935502229</v>
+        <v>3.315861253918885</v>
       </c>
       <c r="J12" t="n">
-        <v>5.704831445527487</v>
+        <v>3.736279159523872</v>
       </c>
       <c r="K12" t="n">
-        <v>5.71192442165238</v>
+        <v>3.531026826018635</v>
       </c>
       <c r="L12" t="n">
-        <v>5.888142480627984</v>
+        <v>3.633236729702232</v>
       </c>
       <c r="M12" t="n">
-        <v>5.872846544941516</v>
+        <v>3.577610762565364</v>
       </c>
       <c r="N12" t="n">
-        <v>6.46342687976529</v>
+        <v>3.986694303994148</v>
       </c>
       <c r="O12" t="n">
-        <v>6.449095962465576</v>
+        <v>3.887872527662225</v>
       </c>
       <c r="P12" t="n">
-        <v>7.046681323906966</v>
+        <v>4.29632445772137</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.033904989966932</v>
+        <v>4.28717937171123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.889422449233042</v>
+        <v>2.771447471108038</v>
       </c>
       <c r="B13" t="n">
-        <v>4.833796508798818</v>
+        <v>2.746011545959758</v>
       </c>
       <c r="C13" t="n">
-        <v>4.828654798638845</v>
+        <v>2.732028051281185</v>
       </c>
       <c r="D13" t="n">
-        <v>4.865615427435364</v>
+        <v>2.813783619124488</v>
       </c>
       <c r="E13" t="n">
-        <v>4.85425538383667</v>
+        <v>2.783783811090466</v>
       </c>
       <c r="F13" t="n">
-        <v>5.163630209927892</v>
+        <v>3.124564991381016</v>
       </c>
       <c r="G13" t="n">
-        <v>5.147085391238075</v>
+        <v>3.04583584657213</v>
       </c>
       <c r="H13" t="n">
-        <v>5.533091532843152</v>
+        <v>3.462622852813622</v>
       </c>
       <c r="I13" t="n">
-        <v>5.519022037871967</v>
+        <v>3.311186232835102</v>
       </c>
       <c r="J13" t="n">
-        <v>5.699388280849464</v>
+        <v>3.745046375660677</v>
       </c>
       <c r="K13" t="n">
-        <v>5.75999640923391</v>
+        <v>3.530442845305299</v>
       </c>
       <c r="L13" t="n">
-        <v>5.870667823354324</v>
+        <v>3.641381860600657</v>
       </c>
       <c r="M13" t="n">
-        <v>5.856963470475426</v>
+        <v>3.589695670416643</v>
       </c>
       <c r="N13" t="n">
-        <v>6.450489810518852</v>
+        <v>3.943184998479427</v>
       </c>
       <c r="O13" t="n">
-        <v>6.436586509789008</v>
+        <v>3.874789108052453</v>
       </c>
       <c r="P13" t="n">
-        <v>7.028874278150628</v>
+        <v>4.294673838977494</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.014219464044801</v>
+        <v>4.310966121468854</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.893037477256334</v>
+        <v>2.787346872852561</v>
       </c>
       <c r="B14" t="n">
-        <v>4.836279111097363</v>
+        <v>2.764202992619702</v>
       </c>
       <c r="C14" t="n">
-        <v>4.831951995339283</v>
+        <v>2.752711591613021</v>
       </c>
       <c r="D14" t="n">
-        <v>4.865684573944534</v>
+        <v>2.837681507080153</v>
       </c>
       <c r="E14" t="n">
-        <v>4.856887803571751</v>
+        <v>2.815159423415029</v>
       </c>
       <c r="F14" t="n">
-        <v>5.157978392625707</v>
+        <v>3.140223064466939</v>
       </c>
       <c r="G14" t="n">
-        <v>5.148766743197902</v>
+        <v>3.067135987400104</v>
       </c>
       <c r="H14" t="n">
-        <v>5.513113044079535</v>
+        <v>3.450126589294274</v>
       </c>
       <c r="I14" t="n">
-        <v>5.521632015318985</v>
+        <v>3.337019368789882</v>
       </c>
       <c r="J14" t="n">
-        <v>5.737071308702316</v>
+        <v>3.74288942860677</v>
       </c>
       <c r="K14" t="n">
-        <v>5.83670051054689</v>
+        <v>3.529842121694595</v>
       </c>
       <c r="L14" t="n">
-        <v>5.860162406347043</v>
+        <v>3.663147338507177</v>
       </c>
       <c r="M14" t="n">
-        <v>5.84986018302899</v>
+        <v>3.606189156347052</v>
       </c>
       <c r="N14" t="n">
-        <v>6.442297768827146</v>
+        <v>3.958779564023613</v>
       </c>
       <c r="O14" t="n">
-        <v>6.431207639233548</v>
+        <v>3.843864399274224</v>
       </c>
       <c r="P14" t="n">
-        <v>7.023934548583232</v>
+        <v>4.278199405309606</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.013537703726315</v>
+        <v>4.290675173213212</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.891231782889666</v>
+        <v>2.918456172074262</v>
       </c>
       <c r="B15" t="n">
-        <v>4.835038719770579</v>
+        <v>2.88673155694079</v>
       </c>
       <c r="C15" t="n">
-        <v>4.830385281013081</v>
+        <v>2.878615004436146</v>
       </c>
       <c r="D15" t="n">
-        <v>4.865315186013966</v>
+        <v>2.905036162493283</v>
       </c>
       <c r="E15" t="n">
-        <v>4.855868195835652</v>
+        <v>2.887617487148022</v>
       </c>
       <c r="F15" t="n">
-        <v>5.160995970547833</v>
+        <v>3.176150435510184</v>
       </c>
       <c r="G15" t="n">
-        <v>5.148518664932545</v>
+        <v>3.103254747080493</v>
       </c>
       <c r="H15" t="n">
-        <v>5.51590619912102</v>
+        <v>3.489608361980286</v>
       </c>
       <c r="I15" t="n">
-        <v>5.516743842359303</v>
+        <v>3.364308848144952</v>
       </c>
       <c r="J15" t="n">
-        <v>5.743284183206102</v>
+        <v>3.764975330928418</v>
       </c>
       <c r="K15" t="n">
-        <v>5.84085233383874</v>
+        <v>3.552533077686611</v>
       </c>
       <c r="L15" t="n">
-        <v>5.867777014032344</v>
+        <v>3.673316050621862</v>
       </c>
       <c r="M15" t="n">
-        <v>5.854879370427099</v>
+        <v>3.619683065612961</v>
       </c>
       <c r="N15" t="n">
-        <v>6.446514492789884</v>
+        <v>3.95997350580827</v>
       </c>
       <c r="O15" t="n">
-        <v>6.432136264720739</v>
+        <v>3.835403174020335</v>
       </c>
       <c r="P15" t="n">
-        <v>7.024672111347716</v>
+        <v>4.250682742157504</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.010618993181335</v>
+        <v>4.23398083602194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.871646337441334</v>
+        <v>2.942923318540406</v>
       </c>
       <c r="B16" t="n">
-        <v>4.821354382986441</v>
+        <v>2.91415526814544</v>
       </c>
       <c r="C16" t="n">
-        <v>4.817728437093281</v>
+        <v>2.901540360991301</v>
       </c>
       <c r="D16" t="n">
-        <v>4.843387857478733</v>
+        <v>2.935441264111845</v>
       </c>
       <c r="E16" t="n">
-        <v>4.835645268096635</v>
+        <v>2.90792777633683</v>
       </c>
       <c r="F16" t="n">
-        <v>5.148430715425267</v>
+        <v>3.209234978048762</v>
       </c>
       <c r="G16" t="n">
-        <v>5.127034723223659</v>
+        <v>3.108219016149823</v>
       </c>
       <c r="H16" t="n">
-        <v>5.512609002420583</v>
+        <v>3.556009538255428</v>
       </c>
       <c r="I16" t="n">
-        <v>5.495203491656094</v>
+        <v>3.361170420900563</v>
       </c>
       <c r="J16" t="n">
-        <v>5.804189520270314</v>
+        <v>3.809553006497543</v>
       </c>
       <c r="K16" t="n">
-        <v>5.864223853938311</v>
+        <v>3.552565697469412</v>
       </c>
       <c r="L16" t="n">
-        <v>5.88477553087005</v>
+        <v>3.685783447076784</v>
       </c>
       <c r="M16" t="n">
-        <v>5.875685191107456</v>
+        <v>3.618045725718722</v>
       </c>
       <c r="N16" t="n">
-        <v>6.480628590292224</v>
+        <v>3.947783233171836</v>
       </c>
       <c r="O16" t="n">
-        <v>6.480954306743316</v>
+        <v>3.826194291797814</v>
       </c>
       <c r="P16" t="n">
-        <v>6.993730868138972</v>
+        <v>4.270109699174879</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.044933251631273</v>
+        <v>4.22543964899959</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.870305259092425</v>
+        <v>2.994679655690976</v>
       </c>
       <c r="B17" t="n">
-        <v>4.820112172014679</v>
+        <v>2.963784679989105</v>
       </c>
       <c r="C17" t="n">
-        <v>4.816925973657909</v>
+        <v>2.953029100454642</v>
       </c>
       <c r="D17" t="n">
-        <v>4.844419596181353</v>
+        <v>2.967755056030251</v>
       </c>
       <c r="E17" t="n">
-        <v>4.837726941951657</v>
+        <v>2.940983163140338</v>
       </c>
       <c r="F17" t="n">
-        <v>5.154104975015517</v>
+        <v>3.211423678873538</v>
       </c>
       <c r="G17" t="n">
-        <v>5.130853551484504</v>
+        <v>3.122261110969181</v>
       </c>
       <c r="H17" t="n">
-        <v>5.52295974960472</v>
+        <v>3.519783393095373</v>
       </c>
       <c r="I17" t="n">
-        <v>5.495952578838772</v>
+        <v>3.332425464157137</v>
       </c>
       <c r="J17" t="n">
-        <v>5.821024875608311</v>
+        <v>3.718928610450657</v>
       </c>
       <c r="K17" t="n">
-        <v>5.867840095058254</v>
+        <v>3.521374834357176</v>
       </c>
       <c r="L17" t="n">
-        <v>5.891736886008188</v>
+        <v>3.680777032093392</v>
       </c>
       <c r="M17" t="n">
-        <v>5.882127340878491</v>
+        <v>3.62292108422962</v>
       </c>
       <c r="N17" t="n">
-        <v>6.488789091470975</v>
+        <v>3.924630981490294</v>
       </c>
       <c r="O17" t="n">
-        <v>6.48507944190882</v>
+        <v>3.831513337088938</v>
       </c>
       <c r="P17" t="n">
-        <v>7.004057353390067</v>
+        <v>4.29339069796376</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.045684158458931</v>
+        <v>4.219148072307955</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.86776564125123</v>
+        <v>2.869490991383037</v>
       </c>
       <c r="B18" t="n">
-        <v>4.817051529161403</v>
+        <v>2.849110555227674</v>
       </c>
       <c r="C18" t="n">
-        <v>4.81505295242705</v>
+        <v>2.836153862030732</v>
       </c>
       <c r="D18" t="n">
-        <v>4.842421625995327</v>
+        <v>2.920587427440829</v>
       </c>
       <c r="E18" t="n">
-        <v>4.83843842313812</v>
+        <v>2.887878734081077</v>
       </c>
       <c r="F18" t="n">
-        <v>5.15602348737083</v>
+        <v>3.208778589760188</v>
       </c>
       <c r="G18" t="n">
-        <v>5.136161455885816</v>
+        <v>3.124134583450425</v>
       </c>
       <c r="H18" t="n">
-        <v>5.52341951323587</v>
+        <v>3.49790244693115</v>
       </c>
       <c r="I18" t="n">
-        <v>5.500787982094087</v>
+        <v>3.349585490605142</v>
       </c>
       <c r="J18" t="n">
-        <v>5.817637303207291</v>
+        <v>3.6039816919304</v>
       </c>
       <c r="K18" t="n">
-        <v>5.872690055473393</v>
+        <v>3.466984088907094</v>
       </c>
       <c r="L18" t="n">
-        <v>5.897059954117652</v>
+        <v>3.714811301051584</v>
       </c>
       <c r="M18" t="n">
-        <v>5.888636210965393</v>
+        <v>3.655785371066628</v>
       </c>
       <c r="N18" t="n">
-        <v>6.491336594440408</v>
+        <v>4.00277527957391</v>
       </c>
       <c r="O18" t="n">
-        <v>6.488567701331965</v>
+        <v>3.888876235492316</v>
       </c>
       <c r="P18" t="n">
-        <v>7.009909938188176</v>
+        <v>4.309666814899042</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.044062854783384</v>
+        <v>4.278199405309606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.86736289316273</v>
+        <v>2.872115584880644</v>
       </c>
       <c r="B19" t="n">
-        <v>4.81625695085427</v>
+        <v>2.848744520850753</v>
       </c>
       <c r="C19" t="n">
-        <v>4.813744627687749</v>
+        <v>2.834591287833355</v>
       </c>
       <c r="D19" t="n">
-        <v>4.841045367843507</v>
+        <v>2.908665907174202</v>
       </c>
       <c r="E19" t="n">
-        <v>4.835758086085281</v>
+        <v>2.877938649116646</v>
       </c>
       <c r="F19" t="n">
-        <v>5.155124582751616</v>
+        <v>3.201397281386474</v>
       </c>
       <c r="G19" t="n">
-        <v>5.134352728777518</v>
+        <v>3.107935830247805</v>
       </c>
       <c r="H19" t="n">
-        <v>5.525745019517967</v>
+        <v>3.479401834011204</v>
       </c>
       <c r="I19" t="n">
-        <v>5.503518662657989</v>
+        <v>3.325198594578101</v>
       </c>
       <c r="J19" t="n">
-        <v>5.820856861721993</v>
+        <v>3.557025081581933</v>
       </c>
       <c r="K19" t="n">
-        <v>5.87819872737063</v>
+        <v>3.462541447691941</v>
       </c>
       <c r="L19" t="n">
-        <v>5.900868471056954</v>
+        <v>3.732345733325193</v>
       </c>
       <c r="M19" t="n">
-        <v>5.891145501390285</v>
+        <v>3.669853446243969</v>
       </c>
       <c r="N19" t="n">
-        <v>6.49393808021086</v>
+        <v>4.033889933636062</v>
       </c>
       <c r="O19" t="n">
-        <v>6.489697094315081</v>
+        <v>3.913046339865517</v>
       </c>
       <c r="P19" t="n">
-        <v>7.015208744364598</v>
+        <v>4.34884057600763</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.042795168781928</v>
+        <v>4.320734158729307</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.864574590507853</v>
+        <v>2.88274183996648</v>
       </c>
       <c r="B20" t="n">
-        <v>4.813391616561984</v>
+        <v>2.860381700532785</v>
       </c>
       <c r="C20" t="n">
-        <v>4.810720377734036</v>
+        <v>2.84328604763845</v>
       </c>
       <c r="D20" t="n">
-        <v>4.838304982506388</v>
+        <v>2.91426236495446</v>
       </c>
       <c r="E20" t="n">
-        <v>4.83261677230464</v>
+        <v>2.875420863757415</v>
       </c>
       <c r="F20" t="n">
-        <v>5.154125597658602</v>
+        <v>3.191109059625066</v>
       </c>
       <c r="G20" t="n">
-        <v>5.131512869514927</v>
+        <v>3.087281734321684</v>
       </c>
       <c r="H20" t="n">
-        <v>5.531440508299628</v>
+        <v>3.484870122025411</v>
       </c>
       <c r="I20" t="n">
-        <v>5.504230750392778</v>
+        <v>3.314036855447164</v>
       </c>
       <c r="J20" t="n">
-        <v>5.822376265278763</v>
+        <v>3.585082713521376</v>
       </c>
       <c r="K20" t="n">
-        <v>5.882093980720558</v>
+        <v>3.475375167194429</v>
       </c>
       <c r="L20" t="n">
-        <v>5.906124818850551</v>
+        <v>3.708092491806445</v>
       </c>
       <c r="M20" t="n">
-        <v>5.893626890592178</v>
+        <v>3.643222424628456</v>
       </c>
       <c r="N20" t="n">
-        <v>6.496743366218867</v>
+        <v>4.016398513288448</v>
       </c>
       <c r="O20" t="n">
-        <v>6.487276966494119</v>
+        <v>3.890297072403361</v>
       </c>
       <c r="P20" t="n">
-        <v>7.019723890103755</v>
+        <v>4.357611256192166</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.033633862865186</v>
+        <v>4.323510015644506</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.865524445186455</v>
+        <v>2.822587785103758</v>
       </c>
       <c r="B21" t="n">
-        <v>4.814450649939277</v>
+        <v>2.802283846669123</v>
       </c>
       <c r="C21" t="n">
-        <v>4.811305090320353</v>
+        <v>2.786680909676254</v>
       </c>
       <c r="D21" t="n">
-        <v>4.837940446962429</v>
+        <v>2.879442334502594</v>
       </c>
       <c r="E21" t="n">
-        <v>4.830509016871597</v>
+        <v>2.840778365751768</v>
       </c>
       <c r="F21" t="n">
-        <v>5.15405523805278</v>
+        <v>3.190464458076435</v>
       </c>
       <c r="G21" t="n">
-        <v>5.127341636676642</v>
+        <v>3.089944721014978</v>
       </c>
       <c r="H21" t="n">
-        <v>5.538151965527432</v>
+        <v>3.522852250714496</v>
       </c>
       <c r="I21" t="n">
-        <v>5.498716619560607</v>
+        <v>3.328794853464286</v>
       </c>
       <c r="J21" t="n">
-        <v>5.832173233841211</v>
+        <v>3.686495597556172</v>
       </c>
       <c r="K21" t="n">
-        <v>5.871242831167425</v>
+        <v>3.492475438819072</v>
       </c>
       <c r="L21" t="n">
-        <v>5.909897549438616</v>
+        <v>3.701849989124333</v>
       </c>
       <c r="M21" t="n">
-        <v>5.89588385691343</v>
+        <v>3.642379795017862</v>
       </c>
       <c r="N21" t="n">
-        <v>6.498518733169232</v>
+        <v>3.991015126197424</v>
       </c>
       <c r="O21" t="n">
-        <v>6.488275345038806</v>
+        <v>3.886730835264179</v>
       </c>
       <c r="P21" t="n">
-        <v>7.020448108805065</v>
+        <v>4.306692063909948</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.035861714866788</v>
+        <v>4.31496565324507</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.863220774644097</v>
+        <v>2.889647996459743</v>
       </c>
       <c r="B22" t="n">
-        <v>4.812054784051358</v>
+        <v>2.863198837350113</v>
       </c>
       <c r="C22" t="n">
-        <v>4.808882536306087</v>
+        <v>2.846279850890066</v>
       </c>
       <c r="D22" t="n">
-        <v>4.835607662100419</v>
+        <v>2.919541573696677</v>
       </c>
       <c r="E22" t="n">
-        <v>4.827962726998815</v>
+        <v>2.880132546013018</v>
       </c>
       <c r="F22" t="n">
-        <v>5.15143798202585</v>
+        <v>3.218045494782206</v>
       </c>
       <c r="G22" t="n">
-        <v>5.126183735922203</v>
+        <v>3.115553848549812</v>
       </c>
       <c r="H22" t="n">
-        <v>5.537845052074449</v>
+        <v>3.576060312535046</v>
       </c>
       <c r="I22" t="n">
-        <v>5.501961046556678</v>
+        <v>3.350630767008005</v>
       </c>
       <c r="J22" t="n">
-        <v>5.840414405947327</v>
+        <v>3.809580718879392</v>
       </c>
       <c r="K22" t="n">
-        <v>5.884814956511243</v>
+        <v>3.524210157425093</v>
       </c>
       <c r="L22" t="n">
-        <v>5.907074673529155</v>
+        <v>3.701914651348647</v>
       </c>
       <c r="M22" t="n">
-        <v>5.89531491458359</v>
+        <v>3.643037098074841</v>
       </c>
       <c r="N22" t="n">
-        <v>6.493107109004164</v>
+        <v>3.946381448523312</v>
       </c>
       <c r="O22" t="n">
-        <v>6.490014925637934</v>
+        <v>3.819748853652788</v>
       </c>
       <c r="P22" t="n">
-        <v>7.013458245895602</v>
+        <v>4.21602350125449</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.04541667064714</v>
+        <v>4.262822497431192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.876090517026342</v>
+        <v>2.854957867797794</v>
       </c>
       <c r="B23" t="n">
-        <v>4.823368729977271</v>
+        <v>2.830159904773328</v>
       </c>
       <c r="C23" t="n">
-        <v>4.817609553621374</v>
+        <v>2.814661755224325</v>
       </c>
       <c r="D23" t="n">
-        <v>4.8542584165783</v>
+        <v>2.900695422015553</v>
       </c>
       <c r="E23" t="n">
-        <v>4.843300514519782</v>
+        <v>2.864922778437631</v>
       </c>
       <c r="F23" t="n">
-        <v>5.146658381216533</v>
+        <v>3.222374688434165</v>
       </c>
       <c r="G23" t="n">
-        <v>5.128896220036324</v>
+        <v>3.105384847764484</v>
       </c>
       <c r="H23" t="n">
-        <v>5.523683361757704</v>
+        <v>3.586438310866819</v>
       </c>
       <c r="I23" t="n">
-        <v>5.519191264854937</v>
+        <v>3.317210211839509</v>
       </c>
       <c r="J23" t="n">
-        <v>5.80853422592985</v>
+        <v>3.886717556414543</v>
       </c>
       <c r="K23" t="n">
-        <v>5.917915511760745</v>
+        <v>3.48862659311916</v>
       </c>
       <c r="L23" t="n">
-        <v>5.896899218811247</v>
+        <v>3.716720568692716</v>
       </c>
       <c r="M23" t="n">
-        <v>5.88019002552507</v>
+        <v>3.647755131084618</v>
       </c>
       <c r="N23" t="n">
-        <v>6.489652816287278</v>
+        <v>3.947447509212563</v>
       </c>
       <c r="O23" t="n">
-        <v>6.47140602299455</v>
+        <v>3.783265502948698</v>
       </c>
       <c r="P23" t="n">
-        <v>7.063217044371891</v>
+        <v>4.21065393860062</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.04716352982618</v>
+        <v>4.202931132854746</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.874082235518772</v>
+        <v>2.958907878124986</v>
       </c>
       <c r="B24" t="n">
-        <v>4.821250056674359</v>
+        <v>2.928529334205696</v>
       </c>
       <c r="C24" t="n">
-        <v>4.815724401423994</v>
+        <v>2.913295895637479</v>
       </c>
       <c r="D24" t="n">
-        <v>4.852754176729682</v>
+        <v>2.967124310672543</v>
       </c>
       <c r="E24" t="n">
-        <v>4.842377347967525</v>
+        <v>2.929241484685084</v>
       </c>
       <c r="F24" t="n">
-        <v>5.143050025224828</v>
+        <v>3.259686812557923</v>
       </c>
       <c r="G24" t="n">
-        <v>5.12652400953312</v>
+        <v>3.141205988010642</v>
       </c>
       <c r="H24" t="n">
-        <v>5.516267095375023</v>
+        <v>3.621721080361433</v>
       </c>
       <c r="I24" t="n">
-        <v>5.513355056861631</v>
+        <v>3.33354319689171</v>
       </c>
       <c r="J24" t="n">
-        <v>5.806335488247899</v>
+        <v>3.91752217820476</v>
       </c>
       <c r="K24" t="n">
-        <v>5.911707489643566</v>
+        <v>3.515296296601004</v>
       </c>
       <c r="L24" t="n">
-        <v>5.892325237884463</v>
+        <v>3.706589095091141</v>
       </c>
       <c r="M24" t="n">
-        <v>5.875798615644428</v>
+        <v>3.630919570440761</v>
       </c>
       <c r="N24" t="n">
-        <v>6.486333783847103</v>
+        <v>3.967241655289435</v>
       </c>
       <c r="O24" t="n">
-        <v>6.468686866848843</v>
+        <v>3.792866688576769</v>
       </c>
       <c r="P24" t="n">
-        <v>7.064575712622256</v>
+        <v>4.293461422271604</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.049858424038844</v>
+        <v>4.175554474965111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.87368130707525</v>
+        <v>2.994209699882121</v>
       </c>
       <c r="B25" t="n">
-        <v>4.821251876319337</v>
+        <v>2.961857514768029</v>
       </c>
       <c r="C25" t="n">
-        <v>4.815136656096046</v>
+        <v>2.95341187772893</v>
       </c>
       <c r="D25" t="n">
-        <v>4.852074236056175</v>
+        <v>2.991566631463281</v>
       </c>
       <c r="E25" t="n">
-        <v>4.840037284525603</v>
+        <v>2.971723411376885</v>
       </c>
       <c r="F25" t="n">
-        <v>5.14296207571755</v>
+        <v>3.279614901813732</v>
       </c>
       <c r="G25" t="n">
-        <v>5.120389379763394</v>
+        <v>3.162185704423488</v>
       </c>
       <c r="H25" t="n">
-        <v>5.529023413220297</v>
+        <v>3.605278689135058</v>
       </c>
       <c r="I25" t="n">
-        <v>5.508928467178078</v>
+        <v>3.294998737787608</v>
       </c>
       <c r="J25" t="n">
-        <v>5.817284898629853</v>
+        <v>3.919391897967629</v>
       </c>
       <c r="K25" t="n">
-        <v>5.893626890592178</v>
+        <v>3.214041344275683</v>
       </c>
       <c r="L25" t="n">
-        <v>5.888946763708334</v>
+        <v>3.738675125871226</v>
       </c>
       <c r="M25" t="n">
-        <v>5.86973191928722</v>
+        <v>3.66184225852448</v>
       </c>
       <c r="N25" t="n">
-        <v>6.487384325547831</v>
+        <v>4.003558731702431</v>
       </c>
       <c r="O25" t="n">
-        <v>6.46702977682206</v>
+        <v>3.792640370791669</v>
       </c>
       <c r="P25" t="n">
-        <v>7.066667697798821</v>
+        <v>4.27409681811339</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.048243185846559</v>
+        <v>4.178907384498184</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.87338288529883</v>
+        <v>2.929841053613211</v>
       </c>
       <c r="B26" t="n">
-        <v>4.820437281917445</v>
+        <v>2.904472966066333</v>
       </c>
       <c r="C26" t="n">
-        <v>4.815527879766352</v>
+        <v>2.894593213266552</v>
       </c>
       <c r="D26" t="n">
-        <v>4.849691714231429</v>
+        <v>2.965533158081385</v>
       </c>
       <c r="E26" t="n">
-        <v>4.840455802870581</v>
+        <v>2.946526505522053</v>
       </c>
       <c r="F26" t="n">
-        <v>5.139512635387272</v>
+        <v>3.264576315930391</v>
       </c>
       <c r="G26" t="n">
-        <v>5.119191446819435</v>
+        <v>3.158841743680386</v>
       </c>
       <c r="H26" t="n">
-        <v>5.529308490933543</v>
+        <v>3.572475023133344</v>
       </c>
       <c r="I26" t="n">
-        <v>5.50553907513208</v>
+        <v>3.328071444829772</v>
       </c>
       <c r="J26" t="n">
-        <v>5.809599931338729</v>
+        <v>3.877674948483115</v>
       </c>
       <c r="K26" t="n">
-        <v>5.863374079733507</v>
+        <v>3.461542069921515</v>
       </c>
       <c r="L26" t="n">
-        <v>5.869426825479215</v>
+        <v>3.774245122656879</v>
       </c>
       <c r="M26" t="n">
-        <v>5.852667895230301</v>
+        <v>3.691266168623204</v>
       </c>
       <c r="N26" t="n">
-        <v>6.461049210327152</v>
+        <v>4.012073361025508</v>
       </c>
       <c r="O26" t="n">
-        <v>6.443834762285371</v>
+        <v>3.743135087325035</v>
       </c>
       <c r="P26" t="n">
-        <v>7.043789908036659</v>
+        <v>4.330076984130764</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.02747618425907</v>
+        <v>4.134855089501611</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.87051209207161</v>
+        <v>2.897895028095592</v>
       </c>
       <c r="B27" t="n">
-        <v>4.817445785573339</v>
+        <v>2.873520833576899</v>
       </c>
       <c r="C27" t="n">
-        <v>4.811971080382362</v>
+        <v>2.858156338536189</v>
       </c>
       <c r="D27" t="n">
-        <v>4.846014211730553</v>
+        <v>2.942552376762533</v>
       </c>
       <c r="E27" t="n">
-        <v>4.835402648766213</v>
+        <v>2.905084370490874</v>
       </c>
       <c r="F27" t="n">
-        <v>5.136814708432978</v>
+        <v>3.232498079257701</v>
       </c>
       <c r="G27" t="n">
-        <v>5.115006869917978</v>
+        <v>3.126776785857333</v>
       </c>
       <c r="H27" t="n">
-        <v>5.530457293463092</v>
+        <v>3.527513992948642</v>
       </c>
       <c r="I27" t="n">
-        <v>5.504329011221599</v>
+        <v>3.268622035009687</v>
       </c>
       <c r="J27" t="n">
-        <v>5.817129015710057</v>
+        <v>3.84656346979805</v>
       </c>
       <c r="K27" t="n">
-        <v>5.861983870970188</v>
+        <v>3.35844854539584</v>
       </c>
       <c r="L27" t="n">
-        <v>5.870371221222883</v>
+        <v>3.752431148082123</v>
       </c>
       <c r="M27" t="n">
-        <v>5.852714599451407</v>
+        <v>3.67789321235724</v>
       </c>
       <c r="N27" t="n">
-        <v>6.468308987241711</v>
+        <v>4.020373508059901</v>
       </c>
       <c r="O27" t="n">
-        <v>6.450471614069071</v>
+        <v>3.765870498596267</v>
       </c>
       <c r="P27" t="n">
-        <v>7.052831723933169</v>
+        <v>4.348397466568692</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.036924994082363</v>
+        <v>4.109948586314904</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.859315816520951</v>
+        <v>2.875394594728788</v>
       </c>
       <c r="B28" t="n">
-        <v>4.808057024034325</v>
+        <v>2.85105735005256</v>
       </c>
       <c r="C28" t="n">
-        <v>4.803938560900409</v>
+        <v>2.843275366824613</v>
       </c>
       <c r="D28" t="n">
-        <v>4.836137178789066</v>
+        <v>2.938023423024746</v>
       </c>
       <c r="E28" t="n">
-        <v>4.82737922750915</v>
+        <v>2.909555878770453</v>
       </c>
       <c r="F28" t="n">
-        <v>5.123194665771401</v>
+        <v>3.240052301347327</v>
       </c>
       <c r="G28" t="n">
-        <v>5.106279852602691</v>
+        <v>3.144762699018563</v>
       </c>
       <c r="H28" t="n">
-        <v>5.526471664412582</v>
+        <v>3.516524301521684</v>
       </c>
       <c r="I28" t="n">
-        <v>5.481661693728578</v>
+        <v>3.274484647123953</v>
       </c>
       <c r="J28" t="n">
-        <v>5.83727248561836</v>
+        <v>3.841037158984347</v>
       </c>
       <c r="K28" t="n">
-        <v>5.776193675732896</v>
+        <v>3.389003178408128</v>
       </c>
       <c r="L28" t="n">
-        <v>5.85774106542943</v>
+        <v>3.758154620945855</v>
       </c>
       <c r="M28" t="n">
-        <v>5.842564619763195</v>
+        <v>3.688844510588511</v>
       </c>
       <c r="N28" t="n">
-        <v>6.411813256507922</v>
+        <v>4.023680807631182</v>
       </c>
       <c r="O28" t="n">
-        <v>6.399745977561048</v>
+        <v>3.785601137131402</v>
       </c>
       <c r="P28" t="n">
-        <v>6.941169209847979</v>
+        <v>4.35665460167709</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.928853246087422</v>
+        <v>4.087915510721156</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.873785026839005</v>
+        <v>2.99644401066869</v>
       </c>
       <c r="B29" t="n">
-        <v>4.822474071196339</v>
+        <v>2.968565354528687</v>
       </c>
       <c r="C29" t="n">
-        <v>4.818086300605653</v>
+        <v>2.962606037748594</v>
       </c>
       <c r="D29" t="n">
-        <v>4.852022072900134</v>
+        <v>3.011633282628335</v>
       </c>
       <c r="E29" t="n">
-        <v>4.843299301423129</v>
+        <v>2.994819660953441</v>
       </c>
       <c r="F29" t="n">
-        <v>5.146997441730798</v>
+        <v>3.242178937983586</v>
       </c>
       <c r="G29" t="n">
-        <v>5.127100836991199</v>
+        <v>3.182976341564344</v>
       </c>
       <c r="H29" t="n">
-        <v>5.557398957009826</v>
+        <v>3.492262688554252</v>
       </c>
       <c r="I29" t="n">
-        <v>5.511672491805153</v>
+        <v>3.267013850850518</v>
       </c>
       <c r="J29" t="n">
-        <v>5.8388610356843</v>
+        <v>3.791717202071327</v>
       </c>
       <c r="K29" t="n">
-        <v>5.7975011118789</v>
+        <v>3.39062435274629</v>
       </c>
       <c r="L29" t="n">
-        <v>5.893144684672963</v>
+        <v>3.735216274211709</v>
       </c>
       <c r="M29" t="n">
-        <v>5.880436284145448</v>
+        <v>3.691732083043039</v>
       </c>
       <c r="N29" t="n">
-        <v>6.494805444317119</v>
+        <v>4.01538614533903</v>
       </c>
       <c r="O29" t="n">
-        <v>6.485643531852052</v>
+        <v>3.880168774178873</v>
       </c>
       <c r="P29" t="n">
-        <v>7.069998861205518</v>
+        <v>4.351828894517004</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.064128686505953</v>
+        <v>4.143494135872364</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.864568525024592</v>
+        <v>3.215695138396645</v>
       </c>
       <c r="B30" t="n">
-        <v>4.813831364098374</v>
+        <v>3.181815596903776</v>
       </c>
       <c r="C30" t="n">
-        <v>4.809190662855723</v>
+        <v>3.174591036689895</v>
       </c>
       <c r="D30" t="n">
-        <v>4.840683258492851</v>
+        <v>3.154718949539072</v>
       </c>
       <c r="E30" t="n">
-        <v>4.831670556915993</v>
+        <v>3.137948628460818</v>
       </c>
       <c r="F30" t="n">
-        <v>5.124918476114051</v>
+        <v>3.302742039149224</v>
       </c>
       <c r="G30" t="n">
-        <v>5.103167653141701</v>
+        <v>3.263781894317388</v>
       </c>
       <c r="H30" t="n">
-        <v>5.538974445057564</v>
+        <v>3.498518758756644</v>
       </c>
       <c r="I30" t="n">
-        <v>5.482775316455216</v>
+        <v>3.343279480381293</v>
       </c>
       <c r="J30" t="n">
-        <v>5.851040526071494</v>
+        <v>3.755955239307243</v>
       </c>
       <c r="K30" t="n">
-        <v>5.788243364778315</v>
+        <v>3.451558107019157</v>
       </c>
       <c r="L30" t="n">
-        <v>5.875535980219246</v>
+        <v>3.757047857695765</v>
       </c>
       <c r="M30" t="n">
-        <v>5.8612438820124</v>
+        <v>3.73688421319424</v>
       </c>
       <c r="N30" t="n">
-        <v>6.490562638776361</v>
+        <v>3.990820273512549</v>
       </c>
       <c r="O30" t="n">
-        <v>6.477769928031525</v>
+        <v>3.951619954704689</v>
       </c>
       <c r="P30" t="n">
-        <v>6.99441080881248</v>
+        <v>4.317946466317693</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.982076042053815</v>
+        <v>4.248826012573628</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.84754635280217</v>
+        <v>3.106114029811883</v>
       </c>
       <c r="B31" t="n">
-        <v>4.799587789757613</v>
+        <v>3.079467131310936</v>
       </c>
       <c r="C31" t="n">
-        <v>4.797363577045967</v>
+        <v>3.067041880770075</v>
       </c>
       <c r="D31" t="n">
-        <v>4.824815954283239</v>
+        <v>3.115369676678775</v>
       </c>
       <c r="E31" t="n">
-        <v>4.819513508816862</v>
+        <v>3.085529503511029</v>
       </c>
       <c r="F31" t="n">
-        <v>5.126770268153499</v>
+        <v>3.306071855030757</v>
       </c>
       <c r="G31" t="n">
-        <v>5.105049166049125</v>
+        <v>3.283073464802605</v>
       </c>
       <c r="H31" t="n">
-        <v>5.525762002871097</v>
+        <v>3.437549497994533</v>
       </c>
       <c r="I31" t="n">
-        <v>5.466926815243712</v>
+        <v>3.36384177904254</v>
       </c>
       <c r="J31" t="n">
-        <v>5.807192541032615</v>
+        <v>3.679184436149012</v>
       </c>
       <c r="K31" t="n">
-        <v>5.772380912955311</v>
+        <v>3.428067533342542</v>
       </c>
       <c r="L31" t="n">
-        <v>5.880522414007748</v>
+        <v>3.769271904797576</v>
       </c>
       <c r="M31" t="n">
-        <v>5.863115083598281</v>
+        <v>3.748644655241371</v>
       </c>
       <c r="N31" t="n">
-        <v>6.454624043909247</v>
+        <v>4.053583044987444</v>
       </c>
       <c r="O31" t="n">
-        <v>6.436709032550871</v>
+        <v>3.980045930386208</v>
       </c>
       <c r="P31" t="n">
-        <v>6.896001375651603</v>
+        <v>4.353667726520937</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.873770772953343</v>
+        <v>4.242837251387821</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.696932215040184</v>
+        <v>3.187229037495575</v>
       </c>
       <c r="B32" t="n">
-        <v>6.617169290518906</v>
+        <v>3.149263363033213</v>
       </c>
       <c r="C32" t="n">
-        <v>6.641917675318624</v>
+        <v>3.161038815953845</v>
       </c>
       <c r="D32" t="n">
-        <v>6.633886368933323</v>
+        <v>3.157208156504522</v>
       </c>
       <c r="E32" t="n">
-        <v>6.692192039872061</v>
+        <v>3.184943054663683</v>
       </c>
       <c r="F32" t="n">
-        <v>7.034265886220935</v>
+        <v>3.347775236994991</v>
       </c>
       <c r="G32" t="n">
-        <v>7.052136013003183</v>
+        <v>3.356247143062717</v>
       </c>
       <c r="H32" t="n">
-        <v>7.302212248545914</v>
+        <v>3.47524237869807</v>
       </c>
       <c r="I32" t="n">
-        <v>7.397545268597037</v>
+        <v>3.520679715445799</v>
       </c>
       <c r="J32" t="n">
-        <v>7.440752738603601</v>
+        <v>3.541310140379091</v>
       </c>
       <c r="K32" t="n">
-        <v>7.464436631091091</v>
+        <v>3.552659804099441</v>
       </c>
       <c r="L32" t="n">
-        <v>8.065367713099002</v>
+        <v>3.838505228763547</v>
       </c>
       <c r="M32" t="n">
-        <v>8.030629477369152</v>
+        <v>3.821958916105238</v>
       </c>
       <c r="N32" t="n">
-        <v>8.5367364333715</v>
+        <v>4.062728130997583</v>
       </c>
       <c r="O32" t="n">
-        <v>8.185211351006028</v>
+        <v>3.895476401102664</v>
       </c>
       <c r="P32" t="n">
-        <v>9.030878010545752</v>
+        <v>4.297779069097794</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.861062069151664</v>
+        <v>4.21711121224206</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.628075029421384</v>
+        <v>3.154608388682321</v>
       </c>
       <c r="B33" t="n">
-        <v>6.56255385959589</v>
+        <v>3.123421566959105</v>
       </c>
       <c r="C33" t="n">
-        <v>6.560214402702294</v>
+        <v>3.122310184978705</v>
       </c>
       <c r="D33" t="n">
-        <v>6.597583845070575</v>
+        <v>3.140061120235509</v>
       </c>
       <c r="E33" t="n">
-        <v>6.619847201378442</v>
+        <v>3.150668323058823</v>
       </c>
       <c r="F33" t="n">
-        <v>6.978804926931398</v>
+        <v>3.321485712751636</v>
       </c>
       <c r="G33" t="n">
-        <v>7.048890979458786</v>
+        <v>3.354853441192233</v>
       </c>
       <c r="H33" t="n">
-        <v>7.130675529550807</v>
+        <v>3.393850824537178</v>
       </c>
       <c r="I33" t="n">
-        <v>7.668913170029295</v>
+        <v>3.6498982219476</v>
       </c>
       <c r="J33" t="n">
-        <v>7.454352765170418</v>
+        <v>3.547997484524006</v>
       </c>
       <c r="K33" t="n">
-        <v>8.21734931406208</v>
+        <v>3.910846380885616</v>
       </c>
       <c r="L33" t="n">
-        <v>7.935339522249178</v>
+        <v>3.776599809102103</v>
       </c>
       <c r="M33" t="n">
-        <v>7.924845629660092</v>
+        <v>3.771608982333501</v>
       </c>
       <c r="N33" t="n">
-        <v>8.526878203428121</v>
+        <v>4.058036655687078</v>
       </c>
       <c r="O33" t="n">
-        <v>8.078977444439037</v>
+        <v>3.844900149545827</v>
       </c>
       <c r="P33" t="n">
-        <v>8.840946500466361</v>
+        <v>4.207466437346707</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.816930219496191</v>
+        <v>4.195986005824508</v>
       </c>
     </row>
   </sheetData>
